--- a/BackTest/2020-01-16 BackTest TRV.xlsx
+++ b/BackTest/2020-01-16 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M156"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.13</v>
+        <v>10.3</v>
       </c>
       <c r="C2" t="n">
-        <v>10.06</v>
+        <v>10.31</v>
       </c>
       <c r="D2" t="n">
-        <v>10.13</v>
+        <v>10.31</v>
       </c>
       <c r="E2" t="n">
-        <v>10.06</v>
+        <v>10.3</v>
       </c>
       <c r="F2" t="n">
-        <v>15954.8934</v>
+        <v>5810</v>
       </c>
       <c r="G2" t="n">
-        <v>10.82249999999999</v>
+        <v>10.84183333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="C3" t="n">
         <v>10.06</v>
       </c>
-      <c r="C3" t="n">
-        <v>10.04</v>
-      </c>
       <c r="D3" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="E3" t="n">
         <v>10.06</v>
       </c>
-      <c r="E3" t="n">
-        <v>10.04</v>
-      </c>
       <c r="F3" t="n">
-        <v>82935.5632</v>
+        <v>15954.8934</v>
       </c>
       <c r="G3" t="n">
-        <v>10.80333333333332</v>
+        <v>10.82249999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.05</v>
+        <v>10.06</v>
       </c>
       <c r="C4" t="n">
-        <v>10.06</v>
+        <v>10.04</v>
       </c>
       <c r="D4" t="n">
         <v>10.06</v>
       </c>
       <c r="E4" t="n">
-        <v>10.05</v>
+        <v>10.04</v>
       </c>
       <c r="F4" t="n">
-        <v>57304.2794</v>
+        <v>82935.5632</v>
       </c>
       <c r="G4" t="n">
-        <v>10.78399999999999</v>
+        <v>10.80333333333332</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.13</v>
+        <v>10.05</v>
       </c>
       <c r="C5" t="n">
-        <v>10.13</v>
+        <v>10.06</v>
       </c>
       <c r="D5" t="n">
-        <v>10.13</v>
+        <v>10.06</v>
       </c>
       <c r="E5" t="n">
-        <v>10.13</v>
+        <v>10.05</v>
       </c>
       <c r="F5" t="n">
-        <v>155804.0828</v>
+        <v>57304.2794</v>
       </c>
       <c r="G5" t="n">
-        <v>10.76583333333332</v>
+        <v>10.78399999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.06</v>
+        <v>10.13</v>
       </c>
       <c r="C6" t="n">
-        <v>10.06</v>
+        <v>10.13</v>
       </c>
       <c r="D6" t="n">
-        <v>10.06</v>
+        <v>10.13</v>
       </c>
       <c r="E6" t="n">
-        <v>10.06</v>
+        <v>10.13</v>
       </c>
       <c r="F6" t="n">
-        <v>11452.683</v>
+        <v>155804.0828</v>
       </c>
       <c r="G6" t="n">
-        <v>10.74649999999999</v>
+        <v>10.76583333333332</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.12</v>
+        <v>10.06</v>
       </c>
       <c r="C7" t="n">
-        <v>10.12</v>
+        <v>10.06</v>
       </c>
       <c r="D7" t="n">
-        <v>10.12</v>
+        <v>10.06</v>
       </c>
       <c r="E7" t="n">
-        <v>10.12</v>
+        <v>10.06</v>
       </c>
       <c r="F7" t="n">
-        <v>10033.2902</v>
+        <v>11452.683</v>
       </c>
       <c r="G7" t="n">
-        <v>10.72849999999999</v>
+        <v>10.74649999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>10.12</v>
       </c>
       <c r="F8" t="n">
-        <v>3063.3573</v>
+        <v>10033.2902</v>
       </c>
       <c r="G8" t="n">
-        <v>10.71016666666665</v>
+        <v>10.72849999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>10.12</v>
       </c>
       <c r="F9" t="n">
-        <v>89927.9375</v>
+        <v>3063.3573</v>
       </c>
       <c r="G9" t="n">
-        <v>10.69216666666665</v>
+        <v>10.71016666666665</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,35 +713,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10.26</v>
+        <v>10.12</v>
       </c>
       <c r="C10" t="n">
-        <v>10.26</v>
+        <v>10.12</v>
       </c>
       <c r="D10" t="n">
-        <v>10.26</v>
+        <v>10.12</v>
       </c>
       <c r="E10" t="n">
-        <v>10.26</v>
+        <v>10.12</v>
       </c>
       <c r="F10" t="n">
-        <v>2721.4206</v>
+        <v>89927.9375</v>
       </c>
       <c r="G10" t="n">
-        <v>10.67616666666665</v>
+        <v>10.69216666666665</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="K10" t="n">
-        <v>10.12</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -764,26 +760,24 @@
         <v>10.26</v>
       </c>
       <c r="F11" t="n">
-        <v>14000</v>
+        <v>2721.4206</v>
       </c>
       <c r="G11" t="n">
-        <v>10.66049999999998</v>
+        <v>10.67616666666665</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>10.12</v>
+      </c>
       <c r="K11" t="n">
         <v>10.12</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -796,27 +790,29 @@
         <v>10.26</v>
       </c>
       <c r="C12" t="n">
-        <v>10.34</v>
+        <v>10.26</v>
       </c>
       <c r="D12" t="n">
-        <v>10.34</v>
+        <v>10.26</v>
       </c>
       <c r="E12" t="n">
         <v>10.26</v>
       </c>
       <c r="F12" t="n">
-        <v>5852.6523</v>
+        <v>14000</v>
       </c>
       <c r="G12" t="n">
-        <v>10.64816666666665</v>
+        <v>10.66049999999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K12" t="n">
         <v>10.12</v>
       </c>
@@ -834,32 +830,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10.52</v>
+        <v>10.26</v>
       </c>
       <c r="C13" t="n">
-        <v>10.52</v>
+        <v>10.34</v>
       </c>
       <c r="D13" t="n">
-        <v>10.52</v>
+        <v>10.34</v>
       </c>
       <c r="E13" t="n">
-        <v>10.52</v>
+        <v>10.26</v>
       </c>
       <c r="F13" t="n">
-        <v>49</v>
+        <v>5852.6523</v>
       </c>
       <c r="G13" t="n">
-        <v>10.63933333333332</v>
+        <v>10.64816666666665</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K13" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -872,28 +876,32 @@
         <v>10.52</v>
       </c>
       <c r="C14" t="n">
-        <v>10.7</v>
+        <v>10.52</v>
       </c>
       <c r="D14" t="n">
-        <v>10.7</v>
+        <v>10.52</v>
       </c>
       <c r="E14" t="n">
         <v>10.52</v>
       </c>
       <c r="F14" t="n">
-        <v>4870.271</v>
+        <v>49</v>
       </c>
       <c r="G14" t="n">
-        <v>10.63099999999998</v>
+        <v>10.63933333333332</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10.34</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -904,22 +912,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="C15" t="n">
         <v>10.7</v>
       </c>
-      <c r="C15" t="n">
-        <v>10.81</v>
-      </c>
       <c r="D15" t="n">
-        <v>10.81</v>
+        <v>10.7</v>
       </c>
       <c r="E15" t="n">
-        <v>10.7</v>
+        <v>10.52</v>
       </c>
       <c r="F15" t="n">
-        <v>4024.1667</v>
+        <v>4870.271</v>
       </c>
       <c r="G15" t="n">
-        <v>10.62449999999998</v>
+        <v>10.63099999999998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -928,8 +936,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -939,7 +953,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10.81</v>
+        <v>10.7</v>
       </c>
       <c r="C16" t="n">
         <v>10.81</v>
@@ -948,13 +962,13 @@
         <v>10.81</v>
       </c>
       <c r="E16" t="n">
-        <v>10.81</v>
+        <v>10.7</v>
       </c>
       <c r="F16" t="n">
-        <v>1000</v>
+        <v>4024.1667</v>
       </c>
       <c r="G16" t="n">
-        <v>10.62033333333332</v>
+        <v>10.62449999999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -963,8 +977,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -974,22 +994,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10.75</v>
+        <v>10.81</v>
       </c>
       <c r="C17" t="n">
-        <v>10.75</v>
+        <v>10.81</v>
       </c>
       <c r="D17" t="n">
-        <v>10.75</v>
+        <v>10.81</v>
       </c>
       <c r="E17" t="n">
-        <v>10.75</v>
+        <v>10.81</v>
       </c>
       <c r="F17" t="n">
-        <v>1395.3488</v>
+        <v>1000</v>
       </c>
       <c r="G17" t="n">
-        <v>10.61516666666665</v>
+        <v>10.62033333333332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1009,22 +1029,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>10.81</v>
+        <v>10.75</v>
       </c>
       <c r="C18" t="n">
-        <v>10.81</v>
+        <v>10.75</v>
       </c>
       <c r="D18" t="n">
-        <v>10.92</v>
+        <v>10.75</v>
       </c>
       <c r="E18" t="n">
-        <v>10.81</v>
+        <v>10.75</v>
       </c>
       <c r="F18" t="n">
-        <v>42915.0581</v>
+        <v>1395.3488</v>
       </c>
       <c r="G18" t="n">
-        <v>10.61099999999998</v>
+        <v>10.61516666666665</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1044,22 +1064,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10.91</v>
+        <v>10.81</v>
       </c>
       <c r="C19" t="n">
-        <v>10.91</v>
+        <v>10.81</v>
       </c>
       <c r="D19" t="n">
-        <v>10.91</v>
+        <v>10.92</v>
       </c>
       <c r="E19" t="n">
-        <v>10.91</v>
+        <v>10.81</v>
       </c>
       <c r="F19" t="n">
-        <v>46</v>
+        <v>42915.0581</v>
       </c>
       <c r="G19" t="n">
-        <v>10.60849999999999</v>
+        <v>10.61099999999998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1079,22 +1099,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10.9</v>
+        <v>10.91</v>
       </c>
       <c r="C20" t="n">
-        <v>10.9</v>
+        <v>10.91</v>
       </c>
       <c r="D20" t="n">
-        <v>10.9</v>
+        <v>10.91</v>
       </c>
       <c r="E20" t="n">
-        <v>10.9</v>
+        <v>10.91</v>
       </c>
       <c r="F20" t="n">
-        <v>14200</v>
+        <v>46</v>
       </c>
       <c r="G20" t="n">
-        <v>10.60583333333332</v>
+        <v>10.60849999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1114,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10.6</v>
+        <v>10.9</v>
       </c>
       <c r="C21" t="n">
-        <v>10.6</v>
+        <v>10.9</v>
       </c>
       <c r="D21" t="n">
-        <v>10.6</v>
+        <v>10.9</v>
       </c>
       <c r="E21" t="n">
-        <v>10.6</v>
+        <v>10.9</v>
       </c>
       <c r="F21" t="n">
-        <v>1805.1065</v>
+        <v>14200</v>
       </c>
       <c r="G21" t="n">
-        <v>10.59816666666665</v>
+        <v>10.60583333333332</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1152,19 +1172,19 @@
         <v>10.6</v>
       </c>
       <c r="C22" t="n">
-        <v>10.89</v>
+        <v>10.6</v>
       </c>
       <c r="D22" t="n">
-        <v>10.89</v>
+        <v>10.6</v>
       </c>
       <c r="E22" t="n">
         <v>10.6</v>
       </c>
       <c r="F22" t="n">
-        <v>8466.96473516988</v>
+        <v>1805.1065</v>
       </c>
       <c r="G22" t="n">
-        <v>10.59633333333332</v>
+        <v>10.59816666666665</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1184,22 +1204,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="C23" t="n">
-        <v>10.8</v>
+        <v>10.89</v>
       </c>
       <c r="D23" t="n">
-        <v>10.8</v>
+        <v>10.89</v>
       </c>
       <c r="E23" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="F23" t="n">
-        <v>46180.9374</v>
+        <v>8466.96473516988</v>
       </c>
       <c r="G23" t="n">
-        <v>10.59799999999998</v>
+        <v>10.59633333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1222,19 +1242,19 @@
         <v>10.8</v>
       </c>
       <c r="C24" t="n">
-        <v>10.88</v>
+        <v>10.8</v>
       </c>
       <c r="D24" t="n">
-        <v>10.88</v>
+        <v>10.8</v>
       </c>
       <c r="E24" t="n">
         <v>10.8</v>
       </c>
       <c r="F24" t="n">
-        <v>19000</v>
+        <v>46180.9374</v>
       </c>
       <c r="G24" t="n">
-        <v>10.59516666666665</v>
+        <v>10.59799999999998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,22 +1274,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10.89</v>
+        <v>10.8</v>
       </c>
       <c r="C25" t="n">
-        <v>10.89</v>
+        <v>10.88</v>
       </c>
       <c r="D25" t="n">
-        <v>10.89</v>
+        <v>10.88</v>
       </c>
       <c r="E25" t="n">
-        <v>10.89</v>
+        <v>10.8</v>
       </c>
       <c r="F25" t="n">
-        <v>128.8001</v>
+        <v>19000</v>
       </c>
       <c r="G25" t="n">
-        <v>10.59349999999998</v>
+        <v>10.59516666666665</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1301,16 +1321,16 @@
         <v>10.89</v>
       </c>
       <c r="F26" t="n">
-        <v>97431.45146483013</v>
+        <v>128.8001</v>
       </c>
       <c r="G26" t="n">
-        <v>10.59166666666665</v>
+        <v>10.59349999999998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1324,28 +1344,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11</v>
+        <v>10.89</v>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>10.89</v>
       </c>
       <c r="D27" t="n">
-        <v>11</v>
+        <v>10.89</v>
       </c>
       <c r="E27" t="n">
-        <v>11</v>
+        <v>10.89</v>
       </c>
       <c r="F27" t="n">
-        <v>304.6286</v>
+        <v>97431.45146483013</v>
       </c>
       <c r="G27" t="n">
-        <v>10.59133333333332</v>
+        <v>10.59166666666665</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1371,10 +1391,10 @@
         <v>11</v>
       </c>
       <c r="F28" t="n">
-        <v>61415.2745</v>
+        <v>304.6286</v>
       </c>
       <c r="G28" t="n">
-        <v>10.59149999999999</v>
+        <v>10.59133333333332</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1394,28 +1414,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.05</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
-        <v>11.05</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>11.05</v>
+        <v>11</v>
       </c>
       <c r="E29" t="n">
-        <v>11.05</v>
+        <v>11</v>
       </c>
       <c r="F29" t="n">
-        <v>46</v>
+        <v>61415.2745</v>
       </c>
       <c r="G29" t="n">
-        <v>10.59549999999999</v>
+        <v>10.59149999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1429,28 +1449,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10.91</v>
+        <v>11.05</v>
       </c>
       <c r="C30" t="n">
-        <v>10.9</v>
+        <v>11.05</v>
       </c>
       <c r="D30" t="n">
-        <v>10.91</v>
+        <v>11.05</v>
       </c>
       <c r="E30" t="n">
-        <v>10.9</v>
+        <v>11.05</v>
       </c>
       <c r="F30" t="n">
-        <v>182961.3217</v>
+        <v>46</v>
       </c>
       <c r="G30" t="n">
-        <v>10.59883333333332</v>
+        <v>10.59549999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1464,22 +1484,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.05</v>
+        <v>10.91</v>
       </c>
       <c r="C31" t="n">
-        <v>11.12</v>
+        <v>10.9</v>
       </c>
       <c r="D31" t="n">
-        <v>11.12</v>
+        <v>10.91</v>
       </c>
       <c r="E31" t="n">
-        <v>11.05</v>
+        <v>10.9</v>
       </c>
       <c r="F31" t="n">
-        <v>1698.3488</v>
+        <v>182961.3217</v>
       </c>
       <c r="G31" t="n">
-        <v>10.60416666666665</v>
+        <v>10.59883333333332</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1499,22 +1519,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="C32" t="n">
         <v>11.12</v>
       </c>
-      <c r="C32" t="n">
-        <v>11.4</v>
-      </c>
       <c r="D32" t="n">
-        <v>11.4</v>
+        <v>11.12</v>
       </c>
       <c r="E32" t="n">
-        <v>11.12</v>
+        <v>11.05</v>
       </c>
       <c r="F32" t="n">
-        <v>2981.009230175438</v>
+        <v>1698.3488</v>
       </c>
       <c r="G32" t="n">
-        <v>10.61416666666665</v>
+        <v>10.60416666666665</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1534,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.2</v>
+        <v>11.12</v>
       </c>
       <c r="C33" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="D33" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="E33" t="n">
-        <v>11.2</v>
+        <v>11.12</v>
       </c>
       <c r="F33" t="n">
-        <v>1750.7715</v>
+        <v>2981.009230175438</v>
       </c>
       <c r="G33" t="n">
-        <v>10.62249999999998</v>
+        <v>10.61416666666665</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1569,22 +1589,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.19</v>
+        <v>11.2</v>
       </c>
       <c r="C34" t="n">
-        <v>11.19</v>
+        <v>11.2</v>
       </c>
       <c r="D34" t="n">
-        <v>11.19</v>
+        <v>11.2</v>
       </c>
       <c r="E34" t="n">
-        <v>11.19</v>
+        <v>11.2</v>
       </c>
       <c r="F34" t="n">
-        <v>40000</v>
+        <v>1750.7715</v>
       </c>
       <c r="G34" t="n">
-        <v>10.62899999999999</v>
+        <v>10.62249999999998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1604,28 +1624,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.05</v>
+        <v>11.19</v>
       </c>
       <c r="C35" t="n">
-        <v>11</v>
+        <v>11.19</v>
       </c>
       <c r="D35" t="n">
-        <v>11.05</v>
+        <v>11.19</v>
       </c>
       <c r="E35" t="n">
-        <v>11</v>
+        <v>11.19</v>
       </c>
       <c r="F35" t="n">
-        <v>3688.3379</v>
+        <v>40000</v>
       </c>
       <c r="G35" t="n">
-        <v>10.63233333333332</v>
+        <v>10.62899999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1639,22 +1659,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11</v>
+        <v>11.05</v>
       </c>
       <c r="C36" t="n">
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>11</v>
+        <v>11.05</v>
       </c>
       <c r="E36" t="n">
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>6995.295</v>
+        <v>3688.3379</v>
       </c>
       <c r="G36" t="n">
-        <v>10.63566666666665</v>
+        <v>10.63233333333332</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,10 +1706,10 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>913</v>
+        <v>6995.295</v>
       </c>
       <c r="G37" t="n">
-        <v>10.63883333333332</v>
+        <v>10.63566666666665</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1709,22 +1729,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.02</v>
+        <v>11</v>
       </c>
       <c r="C38" t="n">
-        <v>11.02</v>
+        <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>11.02</v>
+        <v>11</v>
       </c>
       <c r="E38" t="n">
-        <v>11.02</v>
+        <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>136.4493</v>
+        <v>913</v>
       </c>
       <c r="G38" t="n">
-        <v>10.64249999999999</v>
+        <v>10.63883333333332</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1747,19 +1767,19 @@
         <v>11.02</v>
       </c>
       <c r="C39" t="n">
-        <v>11.11</v>
+        <v>11.02</v>
       </c>
       <c r="D39" t="n">
-        <v>11.11</v>
+        <v>11.02</v>
       </c>
       <c r="E39" t="n">
         <v>11.02</v>
       </c>
       <c r="F39" t="n">
-        <v>3668.957959045905</v>
+        <v>136.4493</v>
       </c>
       <c r="G39" t="n">
-        <v>10.65249999999999</v>
+        <v>10.64249999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1779,22 +1799,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.03</v>
+        <v>11.02</v>
       </c>
       <c r="C40" t="n">
-        <v>11.03</v>
+        <v>11.11</v>
       </c>
       <c r="D40" t="n">
-        <v>11.03</v>
+        <v>11.11</v>
       </c>
       <c r="E40" t="n">
-        <v>11.03</v>
+        <v>11.02</v>
       </c>
       <c r="F40" t="n">
-        <v>1670.0686</v>
+        <v>3668.957959045905</v>
       </c>
       <c r="G40" t="n">
-        <v>10.65649999999999</v>
+        <v>10.65249999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1826,10 +1846,10 @@
         <v>11.03</v>
       </c>
       <c r="F41" t="n">
-        <v>519.926</v>
+        <v>1670.0686</v>
       </c>
       <c r="G41" t="n">
-        <v>10.66049999999999</v>
+        <v>10.65649999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1849,22 +1869,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.11</v>
+        <v>11.03</v>
       </c>
       <c r="C42" t="n">
-        <v>11.11</v>
+        <v>11.03</v>
       </c>
       <c r="D42" t="n">
-        <v>11.11</v>
+        <v>11.03</v>
       </c>
       <c r="E42" t="n">
-        <v>11.11</v>
+        <v>11.03</v>
       </c>
       <c r="F42" t="n">
-        <v>46</v>
+        <v>519.926</v>
       </c>
       <c r="G42" t="n">
-        <v>10.66566666666666</v>
+        <v>10.66049999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1896,10 +1916,10 @@
         <v>11.11</v>
       </c>
       <c r="F43" t="n">
-        <v>23484.3835</v>
+        <v>46</v>
       </c>
       <c r="G43" t="n">
-        <v>10.67083333333333</v>
+        <v>10.66566666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1919,19 +1939,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.03</v>
+        <v>11.11</v>
       </c>
       <c r="C44" t="n">
-        <v>10.8</v>
+        <v>11.11</v>
       </c>
       <c r="D44" t="n">
-        <v>11.03</v>
+        <v>11.11</v>
       </c>
       <c r="E44" t="n">
-        <v>10.8</v>
+        <v>11.11</v>
       </c>
       <c r="F44" t="n">
-        <v>5875.5307</v>
+        <v>23484.3835</v>
       </c>
       <c r="G44" t="n">
         <v>10.67083333333333</v>
@@ -1954,22 +1974,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10.8</v>
+        <v>11.03</v>
       </c>
       <c r="C45" t="n">
         <v>10.8</v>
       </c>
       <c r="D45" t="n">
-        <v>10.8</v>
+        <v>11.03</v>
       </c>
       <c r="E45" t="n">
         <v>10.8</v>
       </c>
       <c r="F45" t="n">
-        <v>1487.4661</v>
+        <v>5875.5307</v>
       </c>
       <c r="G45" t="n">
-        <v>10.67166666666666</v>
+        <v>10.67083333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1989,22 +2009,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>10.76</v>
+        <v>10.8</v>
       </c>
       <c r="C46" t="n">
-        <v>10.76</v>
+        <v>10.8</v>
       </c>
       <c r="D46" t="n">
-        <v>10.76</v>
+        <v>10.8</v>
       </c>
       <c r="E46" t="n">
-        <v>10.76</v>
+        <v>10.8</v>
       </c>
       <c r="F46" t="n">
-        <v>33984.022</v>
+        <v>1487.4661</v>
       </c>
       <c r="G46" t="n">
-        <v>10.67249999999999</v>
+        <v>10.67166666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2024,22 +2044,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>10.75</v>
+        <v>10.76</v>
       </c>
       <c r="C47" t="n">
-        <v>10.75</v>
+        <v>10.76</v>
       </c>
       <c r="D47" t="n">
-        <v>10.75</v>
+        <v>10.76</v>
       </c>
       <c r="E47" t="n">
-        <v>10.75</v>
+        <v>10.76</v>
       </c>
       <c r="F47" t="n">
-        <v>1395.3488</v>
+        <v>33984.022</v>
       </c>
       <c r="G47" t="n">
-        <v>10.67499999999999</v>
+        <v>10.67249999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2059,22 +2079,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>10.65</v>
+        <v>10.75</v>
       </c>
       <c r="C48" t="n">
-        <v>10.65</v>
+        <v>10.75</v>
       </c>
       <c r="D48" t="n">
-        <v>10.65</v>
+        <v>10.75</v>
       </c>
       <c r="E48" t="n">
-        <v>10.65</v>
+        <v>10.75</v>
       </c>
       <c r="F48" t="n">
-        <v>33886.3641</v>
+        <v>1395.3488</v>
       </c>
       <c r="G48" t="n">
-        <v>10.67349999999999</v>
+        <v>10.67499999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2094,22 +2114,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10.63</v>
+        <v>10.65</v>
       </c>
       <c r="C49" t="n">
-        <v>10.63</v>
+        <v>10.65</v>
       </c>
       <c r="D49" t="n">
-        <v>10.63</v>
+        <v>10.65</v>
       </c>
       <c r="E49" t="n">
-        <v>10.63</v>
+        <v>10.65</v>
       </c>
       <c r="F49" t="n">
-        <v>33430.734</v>
+        <v>33886.3641</v>
       </c>
       <c r="G49" t="n">
-        <v>10.67549999999999</v>
+        <v>10.67349999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2129,22 +2149,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>10.79</v>
+        <v>10.63</v>
       </c>
       <c r="C50" t="n">
-        <v>10.86</v>
+        <v>10.63</v>
       </c>
       <c r="D50" t="n">
-        <v>10.86</v>
+        <v>10.63</v>
       </c>
       <c r="E50" t="n">
-        <v>10.79</v>
+        <v>10.63</v>
       </c>
       <c r="F50" t="n">
-        <v>25892.7816</v>
+        <v>33430.734</v>
       </c>
       <c r="G50" t="n">
-        <v>10.67983333333332</v>
+        <v>10.67549999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2164,22 +2184,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="C51" t="n">
         <v>10.86</v>
       </c>
-      <c r="C51" t="n">
-        <v>10.99</v>
-      </c>
       <c r="D51" t="n">
-        <v>10.99</v>
+        <v>10.86</v>
       </c>
       <c r="E51" t="n">
-        <v>10.86</v>
+        <v>10.79</v>
       </c>
       <c r="F51" t="n">
-        <v>2992.482821929027</v>
+        <v>25892.7816</v>
       </c>
       <c r="G51" t="n">
-        <v>10.68633333333332</v>
+        <v>10.67983333333332</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2199,7 +2219,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>10.98</v>
+        <v>10.86</v>
       </c>
       <c r="C52" t="n">
         <v>10.99</v>
@@ -2208,13 +2228,13 @@
         <v>10.99</v>
       </c>
       <c r="E52" t="n">
-        <v>10.98</v>
+        <v>10.86</v>
       </c>
       <c r="F52" t="n">
-        <v>37273.96017807097</v>
+        <v>2992.482821929027</v>
       </c>
       <c r="G52" t="n">
-        <v>10.69416666666666</v>
+        <v>10.68633333333332</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2234,22 +2254,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11</v>
+        <v>10.98</v>
       </c>
       <c r="C53" t="n">
         <v>10.99</v>
       </c>
       <c r="D53" t="n">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="E53" t="n">
-        <v>10.99</v>
+        <v>10.98</v>
       </c>
       <c r="F53" t="n">
-        <v>12716.0714</v>
+        <v>37273.96017807097</v>
       </c>
       <c r="G53" t="n">
-        <v>10.70283333333332</v>
+        <v>10.69416666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2269,22 +2289,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>11</v>
+      </c>
+      <c r="C54" t="n">
         <v>10.99</v>
       </c>
-      <c r="C54" t="n">
-        <v>10.98</v>
-      </c>
       <c r="D54" t="n">
-        <v>11.01</v>
+        <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>10.98</v>
+        <v>10.99</v>
       </c>
       <c r="F54" t="n">
-        <v>163449.499</v>
+        <v>12716.0714</v>
       </c>
       <c r="G54" t="n">
-        <v>10.71049999999999</v>
+        <v>10.70283333333332</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2304,22 +2324,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.01</v>
+        <v>10.99</v>
       </c>
       <c r="C55" t="n">
-        <v>11.01</v>
+        <v>10.98</v>
       </c>
       <c r="D55" t="n">
         <v>11.01</v>
       </c>
       <c r="E55" t="n">
-        <v>11.01</v>
+        <v>10.98</v>
       </c>
       <c r="F55" t="n">
-        <v>50</v>
+        <v>163449.499</v>
       </c>
       <c r="G55" t="n">
-        <v>10.72233333333332</v>
+        <v>10.71049999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2339,22 +2359,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>10.98</v>
+        <v>11.01</v>
       </c>
       <c r="C56" t="n">
-        <v>10.98</v>
+        <v>11.01</v>
       </c>
       <c r="D56" t="n">
-        <v>10.98</v>
+        <v>11.01</v>
       </c>
       <c r="E56" t="n">
-        <v>10.98</v>
+        <v>11.01</v>
       </c>
       <c r="F56" t="n">
-        <v>9546.526121929026</v>
+        <v>50</v>
       </c>
       <c r="G56" t="n">
-        <v>10.73533333333332</v>
+        <v>10.72233333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2374,22 +2394,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>10.97</v>
+        <v>10.98</v>
       </c>
       <c r="C57" t="n">
-        <v>10.97</v>
+        <v>10.98</v>
       </c>
       <c r="D57" t="n">
-        <v>10.97</v>
+        <v>10.98</v>
       </c>
       <c r="E57" t="n">
-        <v>10.97</v>
+        <v>10.98</v>
       </c>
       <c r="F57" t="n">
-        <v>60682.3441</v>
+        <v>9546.526121929026</v>
       </c>
       <c r="G57" t="n">
-        <v>10.74649999999999</v>
+        <v>10.73533333333332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2409,22 +2429,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10.85</v>
+        <v>10.97</v>
       </c>
       <c r="C58" t="n">
-        <v>10.85</v>
+        <v>10.97</v>
       </c>
       <c r="D58" t="n">
-        <v>10.85</v>
+        <v>10.97</v>
       </c>
       <c r="E58" t="n">
-        <v>10.85</v>
+        <v>10.97</v>
       </c>
       <c r="F58" t="n">
-        <v>63594.206</v>
+        <v>60682.3441</v>
       </c>
       <c r="G58" t="n">
-        <v>10.75216666666666</v>
+        <v>10.74649999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2444,22 +2464,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10.81</v>
+        <v>10.85</v>
       </c>
       <c r="C59" t="n">
-        <v>10.81</v>
+        <v>10.85</v>
       </c>
       <c r="D59" t="n">
-        <v>10.81</v>
+        <v>10.85</v>
       </c>
       <c r="E59" t="n">
-        <v>10.81</v>
+        <v>10.85</v>
       </c>
       <c r="F59" t="n">
-        <v>11073.1496</v>
+        <v>63594.206</v>
       </c>
       <c r="G59" t="n">
-        <v>10.75716666666666</v>
+        <v>10.75216666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2491,10 +2511,10 @@
         <v>10.81</v>
       </c>
       <c r="F60" t="n">
-        <v>2097.6926</v>
+        <v>11073.1496</v>
       </c>
       <c r="G60" t="n">
-        <v>10.76566666666666</v>
+        <v>10.75716666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2514,22 +2534,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.01</v>
+        <v>10.81</v>
       </c>
       <c r="C61" t="n">
-        <v>11.01</v>
+        <v>10.81</v>
       </c>
       <c r="D61" t="n">
-        <v>11.01</v>
+        <v>10.81</v>
       </c>
       <c r="E61" t="n">
-        <v>11.01</v>
+        <v>10.81</v>
       </c>
       <c r="F61" t="n">
-        <v>46</v>
+        <v>2097.6926</v>
       </c>
       <c r="G61" t="n">
-        <v>10.77733333333333</v>
+        <v>10.76566666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2549,31 +2569,35 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="C62" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="D62" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="E62" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="F62" t="n">
+        <v>46</v>
+      </c>
+      <c r="G62" t="n">
+        <v>10.77733333333333</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
         <v>10.81</v>
       </c>
-      <c r="C62" t="n">
+      <c r="K62" t="n">
         <v>10.81</v>
       </c>
-      <c r="D62" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="E62" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1612.9032</v>
-      </c>
-      <c r="G62" t="n">
-        <v>10.78983333333333</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
@@ -2584,22 +2608,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.01</v>
+        <v>10.81</v>
       </c>
       <c r="C63" t="n">
-        <v>11.01</v>
+        <v>10.81</v>
       </c>
       <c r="D63" t="n">
-        <v>11.01</v>
+        <v>10.81</v>
       </c>
       <c r="E63" t="n">
-        <v>11.01</v>
+        <v>10.81</v>
       </c>
       <c r="F63" t="n">
-        <v>5682.205</v>
+        <v>1612.9032</v>
       </c>
       <c r="G63" t="n">
-        <v>10.80599999999999</v>
+        <v>10.78983333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2608,8 +2632,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2631,10 +2661,10 @@
         <v>11.01</v>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>5682.205</v>
       </c>
       <c r="G64" t="n">
-        <v>10.82183333333333</v>
+        <v>10.80599999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2643,8 +2673,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2657,19 +2693,19 @@
         <v>11.01</v>
       </c>
       <c r="C65" t="n">
-        <v>11.1</v>
+        <v>11.01</v>
       </c>
       <c r="D65" t="n">
-        <v>11.1</v>
+        <v>11.01</v>
       </c>
       <c r="E65" t="n">
         <v>11.01</v>
       </c>
       <c r="F65" t="n">
-        <v>7988.596543063063</v>
+        <v>250</v>
       </c>
       <c r="G65" t="n">
-        <v>10.83799999999999</v>
+        <v>10.82183333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2689,7 +2725,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.1</v>
+        <v>11.01</v>
       </c>
       <c r="C66" t="n">
         <v>11.1</v>
@@ -2698,13 +2734,13 @@
         <v>11.1</v>
       </c>
       <c r="E66" t="n">
-        <v>11.1</v>
+        <v>11.01</v>
       </c>
       <c r="F66" t="n">
-        <v>11340.64575693694</v>
+        <v>7988.596543063063</v>
       </c>
       <c r="G66" t="n">
-        <v>10.85533333333333</v>
+        <v>10.83799999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2736,10 +2772,10 @@
         <v>11.1</v>
       </c>
       <c r="F67" t="n">
-        <v>52550</v>
+        <v>11340.64575693694</v>
       </c>
       <c r="G67" t="n">
-        <v>10.87166666666666</v>
+        <v>10.85533333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2759,22 +2795,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.11</v>
+        <v>11.1</v>
       </c>
       <c r="C68" t="n">
-        <v>11.11</v>
+        <v>11.1</v>
       </c>
       <c r="D68" t="n">
-        <v>11.11</v>
+        <v>11.1</v>
       </c>
       <c r="E68" t="n">
-        <v>11.11</v>
+        <v>11.1</v>
       </c>
       <c r="F68" t="n">
-        <v>46</v>
+        <v>52550</v>
       </c>
       <c r="G68" t="n">
-        <v>10.88816666666666</v>
+        <v>10.87166666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2794,22 +2830,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="C69" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="D69" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="E69" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="F69" t="n">
-        <v>46211.4787</v>
+        <v>46</v>
       </c>
       <c r="G69" t="n">
-        <v>10.90283333333333</v>
+        <v>10.88816666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2829,22 +2865,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.11</v>
+        <v>11</v>
       </c>
       <c r="C70" t="n">
-        <v>11.12</v>
+        <v>11</v>
       </c>
       <c r="D70" t="n">
-        <v>11.12</v>
+        <v>11</v>
       </c>
       <c r="E70" t="n">
-        <v>11.11</v>
+        <v>11</v>
       </c>
       <c r="F70" t="n">
-        <v>15830.83211748287</v>
+        <v>46211.4787</v>
       </c>
       <c r="G70" t="n">
-        <v>10.91716666666666</v>
+        <v>10.90283333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2864,7 +2900,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.12</v>
+        <v>11.11</v>
       </c>
       <c r="C71" t="n">
         <v>11.12</v>
@@ -2873,13 +2909,13 @@
         <v>11.12</v>
       </c>
       <c r="E71" t="n">
-        <v>11.12</v>
+        <v>11.11</v>
       </c>
       <c r="F71" t="n">
-        <v>17942.5115</v>
+        <v>15830.83211748287</v>
       </c>
       <c r="G71" t="n">
-        <v>10.9315</v>
+        <v>10.91716666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2911,10 +2947,10 @@
         <v>11.12</v>
       </c>
       <c r="F72" t="n">
-        <v>13007.0507</v>
+        <v>17942.5115</v>
       </c>
       <c r="G72" t="n">
-        <v>10.9445</v>
+        <v>10.9315</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2934,22 +2970,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10.91</v>
+        <v>11.12</v>
       </c>
       <c r="C73" t="n">
-        <v>10.91</v>
+        <v>11.12</v>
       </c>
       <c r="D73" t="n">
-        <v>10.91</v>
+        <v>11.12</v>
       </c>
       <c r="E73" t="n">
-        <v>10.91</v>
+        <v>11.12</v>
       </c>
       <c r="F73" t="n">
-        <v>36399.1944</v>
+        <v>13007.0507</v>
       </c>
       <c r="G73" t="n">
-        <v>10.951</v>
+        <v>10.9445</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2969,22 +3005,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.11</v>
+        <v>10.91</v>
       </c>
       <c r="C74" t="n">
-        <v>11.11</v>
+        <v>10.91</v>
       </c>
       <c r="D74" t="n">
-        <v>11.11</v>
+        <v>10.91</v>
       </c>
       <c r="E74" t="n">
-        <v>11.11</v>
+        <v>10.91</v>
       </c>
       <c r="F74" t="n">
-        <v>46</v>
+        <v>36399.1944</v>
       </c>
       <c r="G74" t="n">
-        <v>10.95783333333333</v>
+        <v>10.951</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3004,22 +3040,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.03</v>
+        <v>11.11</v>
       </c>
       <c r="C75" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="D75" t="n">
-        <v>11.03</v>
+        <v>11.11</v>
       </c>
       <c r="E75" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="F75" t="n">
-        <v>13076.2691</v>
+        <v>46</v>
       </c>
       <c r="G75" t="n">
-        <v>10.96099999999999</v>
+        <v>10.95783333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3039,22 +3075,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.11</v>
+        <v>11.03</v>
       </c>
       <c r="C76" t="n">
-        <v>11.11</v>
+        <v>11</v>
       </c>
       <c r="D76" t="n">
-        <v>11.11</v>
+        <v>11.03</v>
       </c>
       <c r="E76" t="n">
-        <v>11.11</v>
+        <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>46</v>
+        <v>13076.2691</v>
       </c>
       <c r="G76" t="n">
-        <v>10.966</v>
+        <v>10.96099999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3074,22 +3110,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="C77" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="D77" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="E77" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="F77" t="n">
-        <v>35155.3094</v>
+        <v>46</v>
       </c>
       <c r="G77" t="n">
-        <v>10.97016666666666</v>
+        <v>10.966</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3112,19 +3148,19 @@
         <v>11</v>
       </c>
       <c r="C78" t="n">
-        <v>11.11</v>
+        <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>11.11</v>
+        <v>11</v>
       </c>
       <c r="E78" t="n">
         <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>7539.99456930693</v>
+        <v>35155.3094</v>
       </c>
       <c r="G78" t="n">
-        <v>10.97516666666666</v>
+        <v>10.97016666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3144,7 +3180,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.11</v>
+        <v>11</v>
       </c>
       <c r="C79" t="n">
         <v>11.11</v>
@@ -3153,13 +3189,13 @@
         <v>11.11</v>
       </c>
       <c r="E79" t="n">
-        <v>11.11</v>
+        <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>245.9485</v>
+        <v>7539.99456930693</v>
       </c>
       <c r="G79" t="n">
-        <v>10.9785</v>
+        <v>10.97516666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3191,10 +3227,10 @@
         <v>11.11</v>
       </c>
       <c r="F80" t="n">
-        <v>241.5697</v>
+        <v>245.9485</v>
       </c>
       <c r="G80" t="n">
-        <v>10.982</v>
+        <v>10.9785</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3226,10 +3262,10 @@
         <v>11.11</v>
       </c>
       <c r="F81" t="n">
-        <v>43378.2121</v>
+        <v>241.5697</v>
       </c>
       <c r="G81" t="n">
-        <v>10.9905</v>
+        <v>10.982</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3261,10 +3297,10 @@
         <v>11.11</v>
       </c>
       <c r="F82" t="n">
-        <v>3.0693069306931e-05</v>
+        <v>43378.2121</v>
       </c>
       <c r="G82" t="n">
-        <v>10.99416666666667</v>
+        <v>10.9905</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3284,22 +3320,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.12</v>
+        <v>11.11</v>
       </c>
       <c r="C83" t="n">
-        <v>11.12</v>
+        <v>11.11</v>
       </c>
       <c r="D83" t="n">
-        <v>11.12</v>
+        <v>11.11</v>
       </c>
       <c r="E83" t="n">
-        <v>11.12</v>
+        <v>11.11</v>
       </c>
       <c r="F83" t="n">
-        <v>15498.86002347122</v>
+        <v>3.0693069306931e-05</v>
       </c>
       <c r="G83" t="n">
-        <v>10.9995</v>
+        <v>10.99416666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3319,22 +3355,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.13</v>
+        <v>11.12</v>
       </c>
       <c r="C84" t="n">
-        <v>11.13</v>
+        <v>11.12</v>
       </c>
       <c r="D84" t="n">
-        <v>11.13</v>
+        <v>11.12</v>
       </c>
       <c r="E84" t="n">
-        <v>11.13</v>
+        <v>11.12</v>
       </c>
       <c r="F84" t="n">
-        <v>2375.6362</v>
+        <v>15498.86002347122</v>
       </c>
       <c r="G84" t="n">
-        <v>11.00366666666667</v>
+        <v>10.9995</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3366,10 +3402,10 @@
         <v>11.13</v>
       </c>
       <c r="F85" t="n">
-        <v>13801.0094</v>
+        <v>2375.6362</v>
       </c>
       <c r="G85" t="n">
-        <v>11.00766666666667</v>
+        <v>11.00366666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3392,19 +3428,19 @@
         <v>11.13</v>
       </c>
       <c r="C86" t="n">
-        <v>11</v>
+        <v>11.13</v>
       </c>
       <c r="D86" t="n">
         <v>11.13</v>
       </c>
       <c r="E86" t="n">
-        <v>11</v>
+        <v>11.13</v>
       </c>
       <c r="F86" t="n">
-        <v>109585.6522</v>
+        <v>13801.0094</v>
       </c>
       <c r="G86" t="n">
-        <v>11.0095</v>
+        <v>11.00766666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3424,22 +3460,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.2</v>
+        <v>11.13</v>
       </c>
       <c r="C87" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>11.2</v>
+        <v>11.13</v>
       </c>
       <c r="E87" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F87" t="n">
-        <v>45</v>
+        <v>109585.6522</v>
       </c>
       <c r="G87" t="n">
-        <v>11.01283333333333</v>
+        <v>11.0095</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3471,10 +3507,10 @@
         <v>11.2</v>
       </c>
       <c r="F88" t="n">
-        <v>34955.3773</v>
+        <v>45</v>
       </c>
       <c r="G88" t="n">
-        <v>11.01616666666667</v>
+        <v>11.01283333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3494,22 +3530,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.22</v>
+        <v>11.2</v>
       </c>
       <c r="C89" t="n">
-        <v>11.22</v>
+        <v>11.2</v>
       </c>
       <c r="D89" t="n">
-        <v>11.22</v>
+        <v>11.2</v>
       </c>
       <c r="E89" t="n">
-        <v>11.22</v>
+        <v>11.2</v>
       </c>
       <c r="F89" t="n">
-        <v>968.1084</v>
+        <v>34955.3773</v>
       </c>
       <c r="G89" t="n">
-        <v>11.019</v>
+        <v>11.01616666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3529,22 +3565,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.42</v>
+        <v>11.22</v>
       </c>
       <c r="C90" t="n">
-        <v>11.42</v>
+        <v>11.22</v>
       </c>
       <c r="D90" t="n">
-        <v>11.42</v>
+        <v>11.22</v>
       </c>
       <c r="E90" t="n">
-        <v>11.42</v>
+        <v>11.22</v>
       </c>
       <c r="F90" t="n">
-        <v>44</v>
+        <v>968.1084</v>
       </c>
       <c r="G90" t="n">
-        <v>11.02766666666667</v>
+        <v>11.019</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3564,22 +3600,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.23</v>
+        <v>11.42</v>
       </c>
       <c r="C91" t="n">
-        <v>11.46</v>
+        <v>11.42</v>
       </c>
       <c r="D91" t="n">
-        <v>11.46</v>
+        <v>11.42</v>
       </c>
       <c r="E91" t="n">
-        <v>11.23</v>
+        <v>11.42</v>
       </c>
       <c r="F91" t="n">
-        <v>99184.1669122164</v>
+        <v>44</v>
       </c>
       <c r="G91" t="n">
-        <v>11.03333333333334</v>
+        <v>11.02766666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3599,28 +3635,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.42</v>
+        <v>11.23</v>
       </c>
       <c r="C92" t="n">
-        <v>11.42</v>
+        <v>11.46</v>
       </c>
       <c r="D92" t="n">
         <v>11.46</v>
       </c>
       <c r="E92" t="n">
-        <v>11.42</v>
+        <v>11.23</v>
       </c>
       <c r="F92" t="n">
-        <v>60229.1153</v>
+        <v>99184.1669122164</v>
       </c>
       <c r="G92" t="n">
-        <v>11.03366666666667</v>
+        <v>11.03333333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3634,28 +3670,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.23</v>
+        <v>11.42</v>
       </c>
       <c r="C93" t="n">
-        <v>11.23</v>
+        <v>11.42</v>
       </c>
       <c r="D93" t="n">
-        <v>11.23</v>
+        <v>11.46</v>
       </c>
       <c r="E93" t="n">
-        <v>11.23</v>
+        <v>11.42</v>
       </c>
       <c r="F93" t="n">
-        <v>85640.9184</v>
+        <v>60229.1153</v>
       </c>
       <c r="G93" t="n">
-        <v>11.03416666666667</v>
+        <v>11.03366666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3669,28 +3705,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.41</v>
+        <v>11.23</v>
       </c>
       <c r="C94" t="n">
-        <v>11.41</v>
+        <v>11.23</v>
       </c>
       <c r="D94" t="n">
-        <v>11.41</v>
+        <v>11.23</v>
       </c>
       <c r="E94" t="n">
-        <v>11.41</v>
+        <v>11.23</v>
       </c>
       <c r="F94" t="n">
-        <v>44</v>
+        <v>85640.9184</v>
       </c>
       <c r="G94" t="n">
-        <v>11.03783333333334</v>
+        <v>11.03416666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3704,22 +3740,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.23</v>
+        <v>11.41</v>
       </c>
       <c r="C95" t="n">
-        <v>11.1</v>
+        <v>11.41</v>
       </c>
       <c r="D95" t="n">
-        <v>11.23</v>
+        <v>11.41</v>
       </c>
       <c r="E95" t="n">
-        <v>11</v>
+        <v>11.41</v>
       </c>
       <c r="F95" t="n">
-        <v>28277.387</v>
+        <v>44</v>
       </c>
       <c r="G95" t="n">
-        <v>11.0395</v>
+        <v>11.03783333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3739,22 +3775,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.3</v>
+        <v>11.23</v>
       </c>
       <c r="C96" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="D96" t="n">
-        <v>11.4</v>
+        <v>11.23</v>
       </c>
       <c r="E96" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F96" t="n">
-        <v>5985.967063157895</v>
+        <v>28277.387</v>
       </c>
       <c r="G96" t="n">
-        <v>11.04283333333334</v>
+        <v>11.0395</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3774,22 +3810,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="C97" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D97" t="n">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="E97" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="F97" t="n">
-        <v>88190.65180000001</v>
+        <v>5985.967063157895</v>
       </c>
       <c r="G97" t="n">
-        <v>11.0445</v>
+        <v>11.04283333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3809,22 +3845,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="C98" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="D98" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="E98" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="F98" t="n">
-        <v>45</v>
+        <v>88190.65180000001</v>
       </c>
       <c r="G98" t="n">
-        <v>11.04916666666667</v>
+        <v>11.0445</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3856,10 +3892,10 @@
         <v>11.3</v>
       </c>
       <c r="F99" t="n">
-        <v>2311.9488</v>
+        <v>45</v>
       </c>
       <c r="G99" t="n">
-        <v>11.05233333333334</v>
+        <v>11.04916666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3879,22 +3915,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.33</v>
+        <v>11.3</v>
       </c>
       <c r="C100" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="D100" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="E100" t="n">
-        <v>11.33</v>
+        <v>11.3</v>
       </c>
       <c r="F100" t="n">
-        <v>2598.2055</v>
+        <v>2311.9488</v>
       </c>
       <c r="G100" t="n">
-        <v>11.0585</v>
+        <v>11.05233333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3914,22 +3950,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.37</v>
+        <v>11.33</v>
       </c>
       <c r="C101" t="n">
-        <v>11.37</v>
+        <v>11.4</v>
       </c>
       <c r="D101" t="n">
-        <v>11.37</v>
+        <v>11.4</v>
       </c>
       <c r="E101" t="n">
-        <v>11.37</v>
+        <v>11.33</v>
       </c>
       <c r="F101" t="n">
-        <v>910</v>
+        <v>2598.2055</v>
       </c>
       <c r="G101" t="n">
-        <v>11.06416666666667</v>
+        <v>11.0585</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3949,22 +3985,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.4</v>
+        <v>11.37</v>
       </c>
       <c r="C102" t="n">
-        <v>11.41</v>
+        <v>11.37</v>
       </c>
       <c r="D102" t="n">
-        <v>11.41</v>
+        <v>11.37</v>
       </c>
       <c r="E102" t="n">
-        <v>11.4</v>
+        <v>11.37</v>
       </c>
       <c r="F102" t="n">
-        <v>25992.2682</v>
+        <v>910</v>
       </c>
       <c r="G102" t="n">
-        <v>11.06916666666667</v>
+        <v>11.06416666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3984,22 +4020,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.37</v>
+        <v>11.4</v>
       </c>
       <c r="C103" t="n">
-        <v>11.37</v>
+        <v>11.41</v>
       </c>
       <c r="D103" t="n">
-        <v>11.37</v>
+        <v>11.41</v>
       </c>
       <c r="E103" t="n">
-        <v>11.37</v>
+        <v>11.4</v>
       </c>
       <c r="F103" t="n">
-        <v>411696.5925</v>
+        <v>25992.2682</v>
       </c>
       <c r="G103" t="n">
-        <v>11.0735</v>
+        <v>11.06916666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4019,22 +4055,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.39</v>
+        <v>11.37</v>
       </c>
       <c r="C104" t="n">
-        <v>11.4</v>
+        <v>11.37</v>
       </c>
       <c r="D104" t="n">
-        <v>11.4</v>
+        <v>11.37</v>
       </c>
       <c r="E104" t="n">
-        <v>11.39</v>
+        <v>11.37</v>
       </c>
       <c r="F104" t="n">
-        <v>1271.026884649123</v>
+        <v>411696.5925</v>
       </c>
       <c r="G104" t="n">
-        <v>11.0835</v>
+        <v>11.0735</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4054,7 +4090,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.4</v>
+        <v>11.39</v>
       </c>
       <c r="C105" t="n">
         <v>11.4</v>
@@ -4063,13 +4099,13 @@
         <v>11.4</v>
       </c>
       <c r="E105" t="n">
-        <v>11.4</v>
+        <v>11.39</v>
       </c>
       <c r="F105" t="n">
-        <v>13529.13341535088</v>
+        <v>1271.026884649123</v>
       </c>
       <c r="G105" t="n">
-        <v>11.0935</v>
+        <v>11.0835</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4101,10 +4137,10 @@
         <v>11.4</v>
       </c>
       <c r="F106" t="n">
-        <v>86470.86658464912</v>
+        <v>13529.13341535088</v>
       </c>
       <c r="G106" t="n">
-        <v>11.10416666666667</v>
+        <v>11.0935</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4124,22 +4160,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.35</v>
+        <v>11.4</v>
       </c>
       <c r="C107" t="n">
-        <v>11.35</v>
+        <v>11.4</v>
       </c>
       <c r="D107" t="n">
-        <v>11.35</v>
+        <v>11.4</v>
       </c>
       <c r="E107" t="n">
-        <v>11.35</v>
+        <v>11.4</v>
       </c>
       <c r="F107" t="n">
-        <v>1884.9422</v>
+        <v>86470.86658464912</v>
       </c>
       <c r="G107" t="n">
-        <v>11.11416666666667</v>
+        <v>11.10416666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4159,7 +4195,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.29</v>
+        <v>11.35</v>
       </c>
       <c r="C108" t="n">
         <v>11.35</v>
@@ -4168,13 +4204,13 @@
         <v>11.35</v>
       </c>
       <c r="E108" t="n">
-        <v>11.29</v>
+        <v>11.35</v>
       </c>
       <c r="F108" t="n">
-        <v>98645</v>
+        <v>1884.9422</v>
       </c>
       <c r="G108" t="n">
-        <v>11.12583333333334</v>
+        <v>11.11416666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4197,19 +4233,19 @@
         <v>11.29</v>
       </c>
       <c r="C109" t="n">
-        <v>11.01</v>
+        <v>11.35</v>
       </c>
       <c r="D109" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="E109" t="n">
         <v>11.29</v>
       </c>
-      <c r="E109" t="n">
-        <v>11.01</v>
-      </c>
       <c r="F109" t="n">
-        <v>19440.649</v>
+        <v>98645</v>
       </c>
       <c r="G109" t="n">
-        <v>11.13216666666667</v>
+        <v>11.12583333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4232,19 +4268,19 @@
         <v>11.29</v>
       </c>
       <c r="C110" t="n">
-        <v>11.29</v>
+        <v>11.01</v>
       </c>
       <c r="D110" t="n">
         <v>11.29</v>
       </c>
       <c r="E110" t="n">
-        <v>11.29</v>
+        <v>11.01</v>
       </c>
       <c r="F110" t="n">
-        <v>45</v>
+        <v>19440.649</v>
       </c>
       <c r="G110" t="n">
-        <v>11.13933333333333</v>
+        <v>11.13216666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4267,19 +4303,19 @@
         <v>11.29</v>
       </c>
       <c r="C111" t="n">
-        <v>11.3</v>
+        <v>11.29</v>
       </c>
       <c r="D111" t="n">
-        <v>11.3</v>
+        <v>11.29</v>
       </c>
       <c r="E111" t="n">
         <v>11.29</v>
       </c>
       <c r="F111" t="n">
-        <v>602.0367733628318</v>
+        <v>45</v>
       </c>
       <c r="G111" t="n">
-        <v>11.1445</v>
+        <v>11.13933333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4299,22 +4335,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.19</v>
+        <v>11.29</v>
       </c>
       <c r="C112" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="D112" t="n">
-        <v>11.19</v>
+        <v>11.3</v>
       </c>
       <c r="E112" t="n">
-        <v>11.1</v>
+        <v>11.29</v>
       </c>
       <c r="F112" t="n">
-        <v>79257.6863</v>
+        <v>602.0367733628318</v>
       </c>
       <c r="G112" t="n">
-        <v>11.14633333333333</v>
+        <v>11.1445</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4334,22 +4370,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.3</v>
+        <v>11.19</v>
       </c>
       <c r="C113" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="D113" t="n">
-        <v>11.3</v>
+        <v>11.19</v>
       </c>
       <c r="E113" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="F113" t="n">
-        <v>50</v>
+        <v>79257.6863</v>
       </c>
       <c r="G113" t="n">
-        <v>11.1515</v>
+        <v>11.14633333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4369,22 +4405,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="C114" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="D114" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="E114" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="F114" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="G114" t="n">
-        <v>11.1535</v>
+        <v>11.1515</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4407,16 +4443,16 @@
         <v>11.1</v>
       </c>
       <c r="C115" t="n">
-        <v>11.01</v>
+        <v>11.1</v>
       </c>
       <c r="D115" t="n">
         <v>11.1</v>
       </c>
       <c r="E115" t="n">
-        <v>11.01</v>
+        <v>11.1</v>
       </c>
       <c r="F115" t="n">
-        <v>15043.3329</v>
+        <v>5000</v>
       </c>
       <c r="G115" t="n">
         <v>11.1535</v>
@@ -4439,22 +4475,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.01</v>
+        <v>11.1</v>
       </c>
       <c r="C116" t="n">
         <v>11.01</v>
       </c>
       <c r="D116" t="n">
-        <v>11.01</v>
+        <v>11.1</v>
       </c>
       <c r="E116" t="n">
         <v>11.01</v>
       </c>
       <c r="F116" t="n">
-        <v>51834.007</v>
+        <v>15043.3329</v>
       </c>
       <c r="G116" t="n">
-        <v>11.154</v>
+        <v>11.1535</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4474,22 +4510,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.2</v>
+        <v>11.01</v>
       </c>
       <c r="C117" t="n">
-        <v>11.2</v>
+        <v>11.01</v>
       </c>
       <c r="D117" t="n">
-        <v>11.2</v>
+        <v>11.01</v>
       </c>
       <c r="E117" t="n">
-        <v>11.2</v>
+        <v>11.01</v>
       </c>
       <c r="F117" t="n">
-        <v>45</v>
+        <v>51834.007</v>
       </c>
       <c r="G117" t="n">
-        <v>11.15783333333333</v>
+        <v>11.154</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4509,22 +4545,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.01</v>
+        <v>11.2</v>
       </c>
       <c r="C118" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D118" t="n">
-        <v>11.01</v>
+        <v>11.2</v>
       </c>
       <c r="E118" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F118" t="n">
-        <v>272490.1864</v>
+        <v>45</v>
       </c>
       <c r="G118" t="n">
-        <v>11.16033333333333</v>
+        <v>11.15783333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4544,22 +4580,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.22</v>
+        <v>11.01</v>
       </c>
       <c r="C119" t="n">
-        <v>11.22</v>
+        <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>11.22</v>
+        <v>11.01</v>
       </c>
       <c r="E119" t="n">
-        <v>11.22</v>
+        <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>45</v>
+        <v>272490.1864</v>
       </c>
       <c r="G119" t="n">
-        <v>11.16716666666667</v>
+        <v>11.16033333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4579,7 +4615,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.01</v>
+        <v>11.22</v>
       </c>
       <c r="C120" t="n">
         <v>11.22</v>
@@ -4588,13 +4624,13 @@
         <v>11.22</v>
       </c>
       <c r="E120" t="n">
-        <v>11.01</v>
+        <v>11.22</v>
       </c>
       <c r="F120" t="n">
-        <v>67755.6225</v>
+        <v>45</v>
       </c>
       <c r="G120" t="n">
-        <v>11.174</v>
+        <v>11.16716666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4617,16 +4653,16 @@
         <v>11.01</v>
       </c>
       <c r="C121" t="n">
-        <v>11.01</v>
+        <v>11.22</v>
       </c>
       <c r="D121" t="n">
-        <v>11.01</v>
+        <v>11.22</v>
       </c>
       <c r="E121" t="n">
         <v>11.01</v>
       </c>
       <c r="F121" t="n">
-        <v>57554.6823</v>
+        <v>67755.6225</v>
       </c>
       <c r="G121" t="n">
         <v>11.174</v>
@@ -4649,22 +4685,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.22</v>
+        <v>11.01</v>
       </c>
       <c r="C122" t="n">
-        <v>11.22</v>
+        <v>11.01</v>
       </c>
       <c r="D122" t="n">
-        <v>11.22</v>
+        <v>11.01</v>
       </c>
       <c r="E122" t="n">
-        <v>11.22</v>
+        <v>11.01</v>
       </c>
       <c r="F122" t="n">
-        <v>45</v>
+        <v>57554.6823</v>
       </c>
       <c r="G122" t="n">
-        <v>11.18083333333334</v>
+        <v>11.174</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4684,22 +4720,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.02</v>
+        <v>11.22</v>
       </c>
       <c r="C123" t="n">
-        <v>11.02</v>
+        <v>11.22</v>
       </c>
       <c r="D123" t="n">
-        <v>11.02</v>
+        <v>11.22</v>
       </c>
       <c r="E123" t="n">
-        <v>11.02</v>
+        <v>11.22</v>
       </c>
       <c r="F123" t="n">
-        <v>22053</v>
+        <v>45</v>
       </c>
       <c r="G123" t="n">
-        <v>11.181</v>
+        <v>11.18083333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4719,22 +4755,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.22</v>
+        <v>11.02</v>
       </c>
       <c r="C124" t="n">
-        <v>11.22</v>
+        <v>11.02</v>
       </c>
       <c r="D124" t="n">
-        <v>11.22</v>
+        <v>11.02</v>
       </c>
       <c r="E124" t="n">
-        <v>11.22</v>
+        <v>11.02</v>
       </c>
       <c r="F124" t="n">
-        <v>45</v>
+        <v>22053</v>
       </c>
       <c r="G124" t="n">
-        <v>11.18450000000001</v>
+        <v>11.181</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4757,19 +4793,19 @@
         <v>11.22</v>
       </c>
       <c r="C125" t="n">
-        <v>11.41</v>
+        <v>11.22</v>
       </c>
       <c r="D125" t="n">
-        <v>11.41</v>
+        <v>11.22</v>
       </c>
       <c r="E125" t="n">
         <v>11.22</v>
       </c>
       <c r="F125" t="n">
-        <v>49528.77782515337</v>
+        <v>45</v>
       </c>
       <c r="G125" t="n">
-        <v>11.18966666666667</v>
+        <v>11.18450000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4789,22 +4825,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.33</v>
+        <v>11.22</v>
       </c>
       <c r="C126" t="n">
-        <v>11.33</v>
+        <v>11.41</v>
       </c>
       <c r="D126" t="n">
-        <v>11.33</v>
+        <v>11.41</v>
       </c>
       <c r="E126" t="n">
-        <v>11.33</v>
+        <v>11.22</v>
       </c>
       <c r="F126" t="n">
-        <v>3341.5367</v>
+        <v>49528.77782515337</v>
       </c>
       <c r="G126" t="n">
-        <v>11.1935</v>
+        <v>11.18966666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4824,22 +4860,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.41</v>
+        <v>11.33</v>
       </c>
       <c r="C127" t="n">
-        <v>11.41</v>
+        <v>11.33</v>
       </c>
       <c r="D127" t="n">
-        <v>11.41</v>
+        <v>11.33</v>
       </c>
       <c r="E127" t="n">
-        <v>11.41</v>
+        <v>11.33</v>
       </c>
       <c r="F127" t="n">
-        <v>44</v>
+        <v>3341.5367</v>
       </c>
       <c r="G127" t="n">
-        <v>11.19866666666667</v>
+        <v>11.1935</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4859,22 +4895,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.21</v>
+        <v>11.41</v>
       </c>
       <c r="C128" t="n">
-        <v>11.1</v>
+        <v>11.41</v>
       </c>
       <c r="D128" t="n">
-        <v>11.21</v>
+        <v>11.41</v>
       </c>
       <c r="E128" t="n">
-        <v>11.1</v>
+        <v>11.41</v>
       </c>
       <c r="F128" t="n">
-        <v>50705.8971</v>
+        <v>44</v>
       </c>
       <c r="G128" t="n">
-        <v>11.1985</v>
+        <v>11.19866666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4894,22 +4930,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.3</v>
+        <v>11.21</v>
       </c>
       <c r="C129" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="D129" t="n">
-        <v>11.3</v>
+        <v>11.21</v>
       </c>
       <c r="E129" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="F129" t="n">
-        <v>45</v>
+        <v>50705.8971</v>
       </c>
       <c r="G129" t="n">
-        <v>11.2035</v>
+        <v>11.1985</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4929,22 +4965,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="C130" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="D130" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="E130" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="F130" t="n">
-        <v>4159.6879</v>
+        <v>45</v>
       </c>
       <c r="G130" t="n">
-        <v>11.20316666666667</v>
+        <v>11.2035</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4964,22 +5000,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.29</v>
+        <v>11.1</v>
       </c>
       <c r="C131" t="n">
-        <v>11.29</v>
+        <v>11.1</v>
       </c>
       <c r="D131" t="n">
-        <v>11.29</v>
+        <v>11.1</v>
       </c>
       <c r="E131" t="n">
-        <v>11.29</v>
+        <v>11.1</v>
       </c>
       <c r="F131" t="n">
-        <v>45</v>
+        <v>4159.6879</v>
       </c>
       <c r="G131" t="n">
-        <v>11.206</v>
+        <v>11.20316666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5011,10 +5047,10 @@
         <v>11.29</v>
       </c>
       <c r="F132" t="n">
-        <v>2000</v>
+        <v>45</v>
       </c>
       <c r="G132" t="n">
-        <v>11.20883333333333</v>
+        <v>11.206</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5037,19 +5073,19 @@
         <v>11.29</v>
       </c>
       <c r="C133" t="n">
-        <v>11.41</v>
+        <v>11.29</v>
       </c>
       <c r="D133" t="n">
-        <v>11.41</v>
+        <v>11.29</v>
       </c>
       <c r="E133" t="n">
         <v>11.29</v>
       </c>
       <c r="F133" t="n">
-        <v>11433.56888369851</v>
+        <v>2000</v>
       </c>
       <c r="G133" t="n">
-        <v>11.21716666666667</v>
+        <v>11.20883333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5069,7 +5105,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.41</v>
+        <v>11.29</v>
       </c>
       <c r="C134" t="n">
         <v>11.41</v>
@@ -5078,13 +5114,13 @@
         <v>11.41</v>
       </c>
       <c r="E134" t="n">
-        <v>11.41</v>
+        <v>11.29</v>
       </c>
       <c r="F134" t="n">
-        <v>10000</v>
+        <v>11433.56888369851</v>
       </c>
       <c r="G134" t="n">
-        <v>11.22216666666667</v>
+        <v>11.21716666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5116,10 +5152,10 @@
         <v>11.41</v>
       </c>
       <c r="F135" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G135" t="n">
-        <v>11.229</v>
+        <v>11.22216666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5139,22 +5175,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.3</v>
+        <v>11.41</v>
       </c>
       <c r="C136" t="n">
-        <v>11.4</v>
+        <v>11.41</v>
       </c>
       <c r="D136" t="n">
-        <v>11.4</v>
+        <v>11.41</v>
       </c>
       <c r="E136" t="n">
-        <v>11.3</v>
+        <v>11.41</v>
       </c>
       <c r="F136" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="G136" t="n">
-        <v>11.23383333333333</v>
+        <v>11.229</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5174,22 +5210,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="C137" t="n">
-        <v>11.12</v>
+        <v>11.4</v>
       </c>
       <c r="D137" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="E137" t="n">
-        <v>11.12</v>
+        <v>11.3</v>
       </c>
       <c r="F137" t="n">
-        <v>24304</v>
+        <v>50000</v>
       </c>
       <c r="G137" t="n">
-        <v>11.23583333333333</v>
+        <v>11.23383333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5209,22 +5245,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.12</v>
+        <v>11.2</v>
       </c>
       <c r="C138" t="n">
         <v>11.12</v>
       </c>
       <c r="D138" t="n">
-        <v>11.12</v>
+        <v>11.2</v>
       </c>
       <c r="E138" t="n">
         <v>11.12</v>
       </c>
       <c r="F138" t="n">
-        <v>813.6612</v>
+        <v>24304</v>
       </c>
       <c r="G138" t="n">
-        <v>11.236</v>
+        <v>11.23583333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5244,22 +5280,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.3</v>
+        <v>11.12</v>
       </c>
       <c r="C139" t="n">
-        <v>11.3</v>
+        <v>11.12</v>
       </c>
       <c r="D139" t="n">
-        <v>11.3</v>
+        <v>11.12</v>
       </c>
       <c r="E139" t="n">
-        <v>11.3</v>
+        <v>11.12</v>
       </c>
       <c r="F139" t="n">
-        <v>45</v>
+        <v>813.6612</v>
       </c>
       <c r="G139" t="n">
-        <v>11.23916666666667</v>
+        <v>11.236</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5279,22 +5315,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="C140" t="n">
-        <v>11.48</v>
+        <v>11.3</v>
       </c>
       <c r="D140" t="n">
-        <v>11.48</v>
+        <v>11.3</v>
       </c>
       <c r="E140" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="F140" t="n">
-        <v>100622.9794</v>
+        <v>45</v>
       </c>
       <c r="G140" t="n">
-        <v>11.24533333333333</v>
+        <v>11.23916666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5314,22 +5350,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>11.49</v>
+        <v>11.2</v>
       </c>
       <c r="C141" t="n">
-        <v>11.75</v>
+        <v>11.48</v>
       </c>
       <c r="D141" t="n">
-        <v>11.75</v>
+        <v>11.48</v>
       </c>
       <c r="E141" t="n">
-        <v>11.49</v>
+        <v>11.2</v>
       </c>
       <c r="F141" t="n">
-        <v>48408.1011</v>
+        <v>100622.9794</v>
       </c>
       <c r="G141" t="n">
-        <v>11.256</v>
+        <v>11.24533333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5349,22 +5385,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="C142" t="n">
         <v>11.75</v>
       </c>
-      <c r="C142" t="n">
-        <v>11.89</v>
-      </c>
       <c r="D142" t="n">
-        <v>11.89</v>
+        <v>11.75</v>
       </c>
       <c r="E142" t="n">
-        <v>11.75</v>
+        <v>11.49</v>
       </c>
       <c r="F142" t="n">
-        <v>187466.1749</v>
+        <v>48408.1011</v>
       </c>
       <c r="G142" t="n">
-        <v>11.269</v>
+        <v>11.256</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5384,22 +5420,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>11.81</v>
+        <v>11.75</v>
       </c>
       <c r="C143" t="n">
-        <v>11.42</v>
+        <v>11.89</v>
       </c>
       <c r="D143" t="n">
-        <v>11.81</v>
+        <v>11.89</v>
       </c>
       <c r="E143" t="n">
-        <v>11.42</v>
+        <v>11.75</v>
       </c>
       <c r="F143" t="n">
-        <v>100057</v>
+        <v>187466.1749</v>
       </c>
       <c r="G143" t="n">
-        <v>11.274</v>
+        <v>11.269</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5419,22 +5455,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>11.2</v>
+        <v>11.81</v>
       </c>
       <c r="C144" t="n">
-        <v>11.81</v>
+        <v>11.42</v>
       </c>
       <c r="D144" t="n">
         <v>11.81</v>
       </c>
       <c r="E144" t="n">
-        <v>11.2</v>
+        <v>11.42</v>
       </c>
       <c r="F144" t="n">
-        <v>8998.993</v>
+        <v>100057</v>
       </c>
       <c r="G144" t="n">
-        <v>11.28533333333333</v>
+        <v>11.274</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5457,19 +5493,19 @@
         <v>11.2</v>
       </c>
       <c r="C145" t="n">
-        <v>11.2</v>
+        <v>11.81</v>
       </c>
       <c r="D145" t="n">
-        <v>11.2</v>
+        <v>11.81</v>
       </c>
       <c r="E145" t="n">
         <v>11.2</v>
       </c>
       <c r="F145" t="n">
-        <v>4903.406</v>
+        <v>8998.993</v>
       </c>
       <c r="G145" t="n">
-        <v>11.2865</v>
+        <v>11.28533333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5489,22 +5525,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.74</v>
+        <v>11.2</v>
       </c>
       <c r="C146" t="n">
-        <v>11.74</v>
+        <v>11.2</v>
       </c>
       <c r="D146" t="n">
-        <v>11.74</v>
+        <v>11.2</v>
       </c>
       <c r="E146" t="n">
-        <v>11.74</v>
+        <v>11.2</v>
       </c>
       <c r="F146" t="n">
-        <v>43</v>
+        <v>4903.406</v>
       </c>
       <c r="G146" t="n">
-        <v>11.29883333333333</v>
+        <v>11.2865</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5524,22 +5560,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.69</v>
+        <v>11.74</v>
       </c>
       <c r="C147" t="n">
-        <v>11.69</v>
+        <v>11.74</v>
       </c>
       <c r="D147" t="n">
-        <v>11.69</v>
+        <v>11.74</v>
       </c>
       <c r="E147" t="n">
-        <v>11.69</v>
+        <v>11.74</v>
       </c>
       <c r="F147" t="n">
-        <v>4800.0057</v>
+        <v>43</v>
       </c>
       <c r="G147" t="n">
-        <v>11.307</v>
+        <v>11.29883333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5559,19 +5595,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>11.22</v>
+        <v>11.69</v>
       </c>
       <c r="C148" t="n">
-        <v>11.2</v>
+        <v>11.69</v>
       </c>
       <c r="D148" t="n">
-        <v>11.22</v>
+        <v>11.69</v>
       </c>
       <c r="E148" t="n">
-        <v>11.2</v>
+        <v>11.69</v>
       </c>
       <c r="F148" t="n">
-        <v>5044.7801</v>
+        <v>4800.0057</v>
       </c>
       <c r="G148" t="n">
         <v>11.307</v>
@@ -5594,22 +5630,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>11.2</v>
+        <v>11.22</v>
       </c>
       <c r="C149" t="n">
         <v>11.2</v>
       </c>
       <c r="D149" t="n">
-        <v>11.2</v>
+        <v>11.22</v>
       </c>
       <c r="E149" t="n">
         <v>11.2</v>
       </c>
       <c r="F149" t="n">
-        <v>4132.5253</v>
+        <v>5044.7801</v>
       </c>
       <c r="G149" t="n">
-        <v>11.30666666666666</v>
+        <v>11.307</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5629,22 +5665,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="C150" t="n">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="D150" t="n">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="E150" t="n">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="F150" t="n">
-        <v>44</v>
+        <v>4132.5253</v>
       </c>
       <c r="G150" t="n">
-        <v>11.30966666666666</v>
+        <v>11.30666666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5664,22 +5700,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="C151" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="D151" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="E151" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="F151" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G151" t="n">
-        <v>11.30866666666666</v>
+        <v>11.30966666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5699,22 +5735,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>11.25</v>
+        <v>11.4</v>
       </c>
       <c r="C152" t="n">
-        <v>11.25</v>
+        <v>11.4</v>
       </c>
       <c r="D152" t="n">
-        <v>11.25</v>
+        <v>11.4</v>
       </c>
       <c r="E152" t="n">
-        <v>11.25</v>
+        <v>11.4</v>
       </c>
       <c r="F152" t="n">
         <v>50</v>
       </c>
       <c r="G152" t="n">
-        <v>11.30583333333333</v>
+        <v>11.30866666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5746,10 +5782,10 @@
         <v>11.25</v>
       </c>
       <c r="F153" t="n">
-        <v>4413.7444</v>
+        <v>50</v>
       </c>
       <c r="G153" t="n">
-        <v>11.30616666666666</v>
+        <v>11.30583333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5781,10 +5817,10 @@
         <v>11.25</v>
       </c>
       <c r="F154" t="n">
-        <v>9395.6546</v>
+        <v>4413.7444</v>
       </c>
       <c r="G154" t="n">
-        <v>11.3035</v>
+        <v>11.30616666666666</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5804,22 +5840,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>11.3</v>
+        <v>11.25</v>
       </c>
       <c r="C155" t="n">
-        <v>11.3</v>
+        <v>11.25</v>
       </c>
       <c r="D155" t="n">
-        <v>11.3</v>
+        <v>11.25</v>
       </c>
       <c r="E155" t="n">
-        <v>11.3</v>
+        <v>11.25</v>
       </c>
       <c r="F155" t="n">
-        <v>45</v>
+        <v>9395.6546</v>
       </c>
       <c r="G155" t="n">
-        <v>11.30683333333333</v>
+        <v>11.3035</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5839,22 +5875,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>11.23</v>
+        <v>11.3</v>
       </c>
       <c r="C156" t="n">
-        <v>11.15</v>
+        <v>11.3</v>
       </c>
       <c r="D156" t="n">
-        <v>11.23</v>
+        <v>11.3</v>
       </c>
       <c r="E156" t="n">
-        <v>11.15</v>
+        <v>11.3</v>
       </c>
       <c r="F156" t="n">
-        <v>26896</v>
+        <v>45</v>
       </c>
       <c r="G156" t="n">
-        <v>11.306</v>
+        <v>11.30683333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5869,6 +5905,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="C157" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="D157" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="E157" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F157" t="n">
+        <v>26896</v>
+      </c>
+      <c r="G157" t="n">
+        <v>11.306</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest TRV.xlsx
+++ b/BackTest/2020-01-16 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>5810</v>
       </c>
       <c r="G2" t="n">
+        <v>10.466</v>
+      </c>
+      <c r="H2" t="n">
         <v>10.84183333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>15954.8934</v>
       </c>
       <c r="G3" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="H3" t="n">
         <v>10.82249999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>82935.5632</v>
       </c>
       <c r="G4" t="n">
+        <v>10.38333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>10.80333333333332</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>57304.2794</v>
       </c>
       <c r="G5" t="n">
+        <v>10.35333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>10.78399999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,25 @@
         <v>155804.0828</v>
       </c>
       <c r="G6" t="n">
+        <v>10.322</v>
+      </c>
+      <c r="H6" t="n">
         <v>10.76583333333332</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +647,29 @@
         <v>11452.683</v>
       </c>
       <c r="G7" t="n">
+        <v>10.286</v>
+      </c>
+      <c r="H7" t="n">
         <v>10.74649999999999</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +693,29 @@
         <v>10033.2902</v>
       </c>
       <c r="G8" t="n">
+        <v>10.25933333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>10.72849999999999</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +739,25 @@
         <v>3063.3573</v>
       </c>
       <c r="G9" t="n">
+        <v>10.236</v>
+      </c>
+      <c r="H9" t="n">
         <v>10.71016666666665</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +781,29 @@
         <v>89927.9375</v>
       </c>
       <c r="G10" t="n">
+        <v>10.20933333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>10.69216666666665</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,22 +827,29 @@
         <v>2721.4206</v>
       </c>
       <c r="G11" t="n">
+        <v>10.20666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>10.67616666666665</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>10.12</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>10.12</v>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -802,26 +873,25 @@
         <v>14000</v>
       </c>
       <c r="G12" t="n">
+        <v>10.21066666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>10.66049999999998</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>10.26</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -845,26 +915,27 @@
         <v>5852.6523</v>
       </c>
       <c r="G13" t="n">
+        <v>10.21333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>10.64816666666665</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K13" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -888,22 +959,27 @@
         <v>49</v>
       </c>
       <c r="G14" t="n">
+        <v>10.214</v>
+      </c>
+      <c r="H14" t="n">
         <v>10.63933333333332</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -927,24 +1003,27 @@
         <v>4870.271</v>
       </c>
       <c r="G15" t="n">
+        <v>10.22666666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>10.63099999999998</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -968,24 +1047,27 @@
         <v>4024.1667</v>
       </c>
       <c r="G16" t="n">
+        <v>10.26066666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>10.62449999999998</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1009,18 +1091,27 @@
         <v>1000</v>
       </c>
       <c r="G17" t="n">
+        <v>10.294</v>
+      </c>
+      <c r="H17" t="n">
         <v>10.62033333333332</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1044,18 +1135,27 @@
         <v>1395.3488</v>
       </c>
       <c r="G18" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="H18" t="n">
         <v>10.61516666666665</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1079,18 +1179,27 @@
         <v>42915.0581</v>
       </c>
       <c r="G19" t="n">
+        <v>10.39133333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>10.61099999999998</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1114,18 +1223,27 @@
         <v>46</v>
       </c>
       <c r="G20" t="n">
+        <v>10.448</v>
+      </c>
+      <c r="H20" t="n">
         <v>10.60849999999999</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1149,18 +1267,27 @@
         <v>14200</v>
       </c>
       <c r="G21" t="n">
+        <v>10.49933333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>10.60583333333332</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1184,18 +1311,27 @@
         <v>1805.1065</v>
       </c>
       <c r="G22" t="n">
+        <v>10.53533333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>10.59816666666665</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1219,18 +1355,27 @@
         <v>8466.96473516988</v>
       </c>
       <c r="G23" t="n">
+        <v>10.58666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>10.59633333333332</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1254,18 +1399,27 @@
         <v>46180.9374</v>
       </c>
       <c r="G24" t="n">
+        <v>10.632</v>
+      </c>
+      <c r="H24" t="n">
         <v>10.59799999999998</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1289,18 +1443,27 @@
         <v>19000</v>
       </c>
       <c r="G25" t="n">
+        <v>10.68266666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>10.59516666666665</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1324,18 +1487,27 @@
         <v>128.8001</v>
       </c>
       <c r="G26" t="n">
+        <v>10.72466666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>10.59349999999998</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1359,18 +1531,27 @@
         <v>97431.45146483013</v>
       </c>
       <c r="G27" t="n">
+        <v>10.76666666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>10.59166666666665</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1394,18 +1575,27 @@
         <v>304.6286</v>
       </c>
       <c r="G28" t="n">
+        <v>10.81066666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>10.59133333333332</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1429,18 +1619,27 @@
         <v>61415.2745</v>
       </c>
       <c r="G29" t="n">
+        <v>10.84266666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>10.59149999999999</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,18 +1663,27 @@
         <v>46</v>
       </c>
       <c r="G30" t="n">
+        <v>10.866</v>
+      </c>
+      <c r="H30" t="n">
         <v>10.59549999999999</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1499,18 +1707,27 @@
         <v>182961.3217</v>
       </c>
       <c r="G31" t="n">
+        <v>10.872</v>
+      </c>
+      <c r="H31" t="n">
         <v>10.59883333333332</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1534,18 +1751,27 @@
         <v>1698.3488</v>
       </c>
       <c r="G32" t="n">
+        <v>10.89266666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>10.60416666666665</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1569,18 +1795,27 @@
         <v>2981.009230175438</v>
       </c>
       <c r="G33" t="n">
+        <v>10.936</v>
+      </c>
+      <c r="H33" t="n">
         <v>10.61416666666665</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1604,18 +1839,27 @@
         <v>1750.7715</v>
       </c>
       <c r="G34" t="n">
+        <v>10.962</v>
+      </c>
+      <c r="H34" t="n">
         <v>10.62249999999998</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1639,18 +1883,27 @@
         <v>40000</v>
       </c>
       <c r="G35" t="n">
+        <v>10.98066666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>10.62899999999999</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1674,18 +1927,27 @@
         <v>3688.3379</v>
       </c>
       <c r="G36" t="n">
+        <v>10.98733333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>10.63233333333332</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1709,18 +1971,27 @@
         <v>6995.295</v>
       </c>
       <c r="G37" t="n">
+        <v>11.014</v>
+      </c>
+      <c r="H37" t="n">
         <v>10.63566666666665</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1744,18 +2015,27 @@
         <v>913</v>
       </c>
       <c r="G38" t="n">
+        <v>11.02133333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>10.63883333333332</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1779,18 +2059,27 @@
         <v>136.4493</v>
       </c>
       <c r="G39" t="n">
+        <v>11.036</v>
+      </c>
+      <c r="H39" t="n">
         <v>10.64249999999999</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1814,18 +2103,27 @@
         <v>3668.957959045905</v>
       </c>
       <c r="G40" t="n">
+        <v>11.05133333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>10.65249999999999</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1849,18 +2147,27 @@
         <v>1670.0686</v>
       </c>
       <c r="G41" t="n">
+        <v>11.06066666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>10.65649999999999</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1884,18 +2191,27 @@
         <v>519.926</v>
       </c>
       <c r="G42" t="n">
+        <v>11.06999999999999</v>
+      </c>
+      <c r="H42" t="n">
         <v>10.66049999999999</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1919,18 +2235,27 @@
         <v>46</v>
       </c>
       <c r="G43" t="n">
+        <v>11.07733333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>10.66566666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1954,18 +2279,27 @@
         <v>23484.3835</v>
       </c>
       <c r="G44" t="n">
+        <v>11.08466666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>10.67083333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1989,18 +2323,27 @@
         <v>5875.5307</v>
       </c>
       <c r="G45" t="n">
+        <v>11.06799999999999</v>
+      </c>
+      <c r="H45" t="n">
         <v>10.67083333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2024,18 +2367,27 @@
         <v>1487.4661</v>
       </c>
       <c r="G46" t="n">
+        <v>11.06133333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>10.67166666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,18 +2411,27 @@
         <v>33984.022</v>
       </c>
       <c r="G47" t="n">
+        <v>11.03733333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>10.67249999999999</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2094,18 +2455,27 @@
         <v>1395.3488</v>
       </c>
       <c r="G48" t="n">
+        <v>10.99399999999999</v>
+      </c>
+      <c r="H48" t="n">
         <v>10.67499999999999</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2129,18 +2499,27 @@
         <v>33886.3641</v>
       </c>
       <c r="G49" t="n">
+        <v>10.95733333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>10.67349999999999</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2164,18 +2543,27 @@
         <v>33430.734</v>
       </c>
       <c r="G50" t="n">
+        <v>10.91999999999999</v>
+      </c>
+      <c r="H50" t="n">
         <v>10.67549999999999</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2199,18 +2587,27 @@
         <v>25892.7816</v>
       </c>
       <c r="G51" t="n">
+        <v>10.91066666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>10.67983333333332</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2234,18 +2631,27 @@
         <v>2992.482821929027</v>
       </c>
       <c r="G52" t="n">
+        <v>10.90999999999999</v>
+      </c>
+      <c r="H52" t="n">
         <v>10.68633333333332</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2269,18 +2675,27 @@
         <v>37273.96017807097</v>
       </c>
       <c r="G53" t="n">
+        <v>10.90933333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>10.69416666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2304,18 +2719,27 @@
         <v>12716.0714</v>
       </c>
       <c r="G54" t="n">
+        <v>10.90733333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>10.70283333333332</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2339,18 +2763,27 @@
         <v>163449.499</v>
       </c>
       <c r="G55" t="n">
+        <v>10.89866666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>10.71049999999999</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2374,18 +2807,27 @@
         <v>50</v>
       </c>
       <c r="G56" t="n">
+        <v>10.89733333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>10.72233333333332</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2409,18 +2851,27 @@
         <v>9546.526121929026</v>
       </c>
       <c r="G57" t="n">
+        <v>10.89399999999999</v>
+      </c>
+      <c r="H57" t="n">
         <v>10.73533333333332</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2444,18 +2895,27 @@
         <v>60682.3441</v>
       </c>
       <c r="G58" t="n">
+        <v>10.88466666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>10.74649999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2479,18 +2939,27 @@
         <v>63594.206</v>
       </c>
       <c r="G59" t="n">
+        <v>10.86733333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>10.75216666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2514,18 +2983,27 @@
         <v>11073.1496</v>
       </c>
       <c r="G60" t="n">
+        <v>10.86799999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>10.75716666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2549,18 +3027,27 @@
         <v>2097.6926</v>
       </c>
       <c r="G61" t="n">
+        <v>10.86866666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>10.76566666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2584,22 +3071,27 @@
         <v>46</v>
       </c>
       <c r="G62" t="n">
+        <v>10.88533333333332</v>
+      </c>
+      <c r="H62" t="n">
         <v>10.77733333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="K62" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2623,24 +3115,27 @@
         <v>1612.9032</v>
       </c>
       <c r="G63" t="n">
+        <v>10.88933333333332</v>
+      </c>
+      <c r="H63" t="n">
         <v>10.78983333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2664,24 +3159,27 @@
         <v>5682.205</v>
       </c>
       <c r="G64" t="n">
+        <v>10.91333333333332</v>
+      </c>
+      <c r="H64" t="n">
         <v>10.80599999999999</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2705,18 +3203,27 @@
         <v>250</v>
       </c>
       <c r="G65" t="n">
+        <v>10.93866666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>10.82183333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,18 +3247,27 @@
         <v>7988.596543063063</v>
       </c>
       <c r="G66" t="n">
+        <v>10.95466666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>10.83799999999999</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2775,18 +3291,27 @@
         <v>11340.64575693694</v>
       </c>
       <c r="G67" t="n">
+        <v>10.96199999999999</v>
+      </c>
+      <c r="H67" t="n">
         <v>10.85533333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2810,18 +3335,27 @@
         <v>52550</v>
       </c>
       <c r="G68" t="n">
+        <v>10.96933333333332</v>
+      </c>
+      <c r="H68" t="n">
         <v>10.87166666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,18 +3379,27 @@
         <v>46</v>
       </c>
       <c r="G69" t="n">
+        <v>10.97733333333332</v>
+      </c>
+      <c r="H69" t="n">
         <v>10.88816666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2880,18 +3423,27 @@
         <v>46211.4787</v>
       </c>
       <c r="G70" t="n">
+        <v>10.97866666666665</v>
+      </c>
+      <c r="H70" t="n">
         <v>10.90283333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2915,18 +3467,27 @@
         <v>15830.83211748287</v>
       </c>
       <c r="G71" t="n">
+        <v>10.98599999999999</v>
+      </c>
+      <c r="H71" t="n">
         <v>10.91716666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2950,18 +3511,27 @@
         <v>17942.5115</v>
       </c>
       <c r="G72" t="n">
+        <v>10.99533333333332</v>
+      </c>
+      <c r="H72" t="n">
         <v>10.9315</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2985,18 +3555,27 @@
         <v>13007.0507</v>
       </c>
       <c r="G73" t="n">
+        <v>11.00533333333332</v>
+      </c>
+      <c r="H73" t="n">
         <v>10.9445</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3020,18 +3599,27 @@
         <v>36399.1944</v>
       </c>
       <c r="G74" t="n">
+        <v>11.00933333333332</v>
+      </c>
+      <c r="H74" t="n">
         <v>10.951</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3055,18 +3643,27 @@
         <v>46</v>
       </c>
       <c r="G75" t="n">
+        <v>11.02933333333332</v>
+      </c>
+      <c r="H75" t="n">
         <v>10.95783333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3090,18 +3687,27 @@
         <v>13076.2691</v>
       </c>
       <c r="G76" t="n">
+        <v>11.04199999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>10.96099999999999</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3125,18 +3731,27 @@
         <v>46</v>
       </c>
       <c r="G77" t="n">
+        <v>11.04866666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>10.966</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3160,18 +3775,27 @@
         <v>35155.3094</v>
       </c>
       <c r="G78" t="n">
+        <v>11.06133333333332</v>
+      </c>
+      <c r="H78" t="n">
         <v>10.97016666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3195,18 +3819,27 @@
         <v>7539.99456930693</v>
       </c>
       <c r="G79" t="n">
+        <v>11.06799999999999</v>
+      </c>
+      <c r="H79" t="n">
         <v>10.97516666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,18 +3863,27 @@
         <v>245.9485</v>
       </c>
       <c r="G80" t="n">
+        <v>11.07466666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>10.9785</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3265,18 +3907,27 @@
         <v>241.5697</v>
       </c>
       <c r="G81" t="n">
+        <v>11.07533333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>10.982</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3300,18 +3951,27 @@
         <v>43378.2121</v>
       </c>
       <c r="G82" t="n">
+        <v>11.07599999999999</v>
+      </c>
+      <c r="H82" t="n">
         <v>10.9905</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3335,18 +3995,27 @@
         <v>3.0693069306931e-05</v>
       </c>
       <c r="G83" t="n">
+        <v>11.07666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>10.99416666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3370,18 +4039,27 @@
         <v>15498.86002347122</v>
       </c>
       <c r="G84" t="n">
+        <v>11.07733333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>10.9995</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3405,18 +4083,27 @@
         <v>2375.6362</v>
       </c>
       <c r="G85" t="n">
+        <v>11.08599999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>11.00366666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,18 +4127,27 @@
         <v>13801.0094</v>
       </c>
       <c r="G86" t="n">
+        <v>11.08666666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>11.00766666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3475,18 +4171,27 @@
         <v>109585.6522</v>
       </c>
       <c r="G87" t="n">
+        <v>11.07866666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>11.0095</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3510,18 +4215,27 @@
         <v>45</v>
       </c>
       <c r="G88" t="n">
+        <v>11.08399999999999</v>
+      </c>
+      <c r="H88" t="n">
         <v>11.01283333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3545,18 +4259,27 @@
         <v>34955.3773</v>
       </c>
       <c r="G89" t="n">
+        <v>11.10333333333332</v>
+      </c>
+      <c r="H89" t="n">
         <v>11.01616666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3580,18 +4303,27 @@
         <v>968.1084</v>
       </c>
       <c r="G90" t="n">
+        <v>11.11066666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>11.019</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3615,18 +4347,27 @@
         <v>44</v>
       </c>
       <c r="G91" t="n">
+        <v>11.13866666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>11.02766666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3650,18 +4391,27 @@
         <v>99184.1669122164</v>
       </c>
       <c r="G92" t="n">
+        <v>11.16199999999999</v>
+      </c>
+      <c r="H92" t="n">
         <v>11.03333333333334</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3685,18 +4435,27 @@
         <v>60229.1153</v>
       </c>
       <c r="G93" t="n">
+        <v>11.18999999999999</v>
+      </c>
+      <c r="H93" t="n">
         <v>11.03366666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3720,18 +4479,27 @@
         <v>85640.9184</v>
       </c>
       <c r="G94" t="n">
+        <v>11.19799999999999</v>
+      </c>
+      <c r="H94" t="n">
         <v>11.03416666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3755,18 +4523,27 @@
         <v>44</v>
       </c>
       <c r="G95" t="n">
+        <v>11.21799999999999</v>
+      </c>
+      <c r="H95" t="n">
         <v>11.03783333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3790,18 +4567,27 @@
         <v>28277.387</v>
       </c>
       <c r="G96" t="n">
+        <v>11.21733333333332</v>
+      </c>
+      <c r="H96" t="n">
         <v>11.0395</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3825,18 +4611,27 @@
         <v>5985.967063157895</v>
       </c>
       <c r="G97" t="n">
+        <v>11.22333333333332</v>
+      </c>
+      <c r="H97" t="n">
         <v>11.04283333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3860,18 +4655,27 @@
         <v>88190.65180000001</v>
       </c>
       <c r="G98" t="n">
+        <v>11.22266666666665</v>
+      </c>
+      <c r="H98" t="n">
         <v>11.0445</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3895,18 +4699,27 @@
         <v>45</v>
       </c>
       <c r="G99" t="n">
+        <v>11.23466666666665</v>
+      </c>
+      <c r="H99" t="n">
         <v>11.04916666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3930,18 +4743,27 @@
         <v>2311.9488</v>
       </c>
       <c r="G100" t="n">
+        <v>11.24599999999999</v>
+      </c>
+      <c r="H100" t="n">
         <v>11.05233333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,18 +4787,27 @@
         <v>2598.2055</v>
       </c>
       <c r="G101" t="n">
+        <v>11.26399999999999</v>
+      </c>
+      <c r="H101" t="n">
         <v>11.0585</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4000,18 +4831,27 @@
         <v>910</v>
       </c>
       <c r="G102" t="n">
+        <v>11.28866666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>11.06416666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4035,18 +4875,27 @@
         <v>25992.2682</v>
       </c>
       <c r="G103" t="n">
+        <v>11.30266666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>11.06916666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4070,19 +4919,28 @@
         <v>411696.5925</v>
       </c>
       <c r="G104" t="n">
+        <v>11.31399999999999</v>
+      </c>
+      <c r="H104" t="n">
         <v>11.0735</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
+      <c r="L104" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>1.103187134502924</v>
       </c>
     </row>
     <row r="105">
@@ -4105,18 +4963,21 @@
         <v>1271.026884649123</v>
       </c>
       <c r="G105" t="n">
+        <v>11.32599999999999</v>
+      </c>
+      <c r="H105" t="n">
         <v>11.0835</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,18 +5001,21 @@
         <v>13529.13341535088</v>
       </c>
       <c r="G106" t="n">
+        <v>11.32466666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>11.0935</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4175,18 +5039,21 @@
         <v>86470.86658464912</v>
       </c>
       <c r="G107" t="n">
+        <v>11.32066666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>11.10416666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,18 +5077,21 @@
         <v>1884.9422</v>
       </c>
       <c r="G108" t="n">
+        <v>11.31599999999999</v>
+      </c>
+      <c r="H108" t="n">
         <v>11.11416666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4245,18 +5115,21 @@
         <v>98645</v>
       </c>
       <c r="G109" t="n">
+        <v>11.32399999999999</v>
+      </c>
+      <c r="H109" t="n">
         <v>11.12583333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,18 +5153,21 @@
         <v>19440.649</v>
       </c>
       <c r="G110" t="n">
+        <v>11.29733333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>11.13216666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4315,18 +5191,21 @@
         <v>45</v>
       </c>
       <c r="G111" t="n">
+        <v>11.30999999999999</v>
+      </c>
+      <c r="H111" t="n">
         <v>11.13933333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4350,18 +5229,21 @@
         <v>602.0367733628318</v>
       </c>
       <c r="G112" t="n">
+        <v>11.31666666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>11.1445</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4385,18 +5267,21 @@
         <v>79257.6863</v>
       </c>
       <c r="G113" t="n">
+        <v>11.31666666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>11.14633333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4420,18 +5305,21 @@
         <v>50</v>
       </c>
       <c r="G114" t="n">
+        <v>11.31666666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>11.1515</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4455,18 +5343,21 @@
         <v>5000</v>
       </c>
       <c r="G115" t="n">
+        <v>11.30333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>11.1535</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4490,18 +5381,21 @@
         <v>15043.3329</v>
       </c>
       <c r="G116" t="n">
+        <v>11.27733333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>11.1535</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4525,18 +5419,21 @@
         <v>51834.007</v>
       </c>
       <c r="G117" t="n">
+        <v>11.25333333333332</v>
+      </c>
+      <c r="H117" t="n">
         <v>11.154</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4560,18 +5457,21 @@
         <v>45</v>
       </c>
       <c r="G118" t="n">
+        <v>11.23933333333332</v>
+      </c>
+      <c r="H118" t="n">
         <v>11.15783333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4595,18 +5495,21 @@
         <v>272490.1864</v>
       </c>
       <c r="G119" t="n">
+        <v>11.21466666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>11.16033333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,18 +5533,21 @@
         <v>45</v>
       </c>
       <c r="G120" t="n">
+        <v>11.20266666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>11.16716666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4665,18 +5571,21 @@
         <v>67755.6225</v>
       </c>
       <c r="G121" t="n">
+        <v>11.19066666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>11.174</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4700,18 +5609,21 @@
         <v>57554.6823</v>
       </c>
       <c r="G122" t="n">
+        <v>11.16466666666665</v>
+      </c>
+      <c r="H122" t="n">
         <v>11.174</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4735,18 +5647,21 @@
         <v>45</v>
       </c>
       <c r="G123" t="n">
+        <v>11.15599999999999</v>
+      </c>
+      <c r="H123" t="n">
         <v>11.18083333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,18 +5685,21 @@
         <v>22053</v>
       </c>
       <c r="G124" t="n">
+        <v>11.13399999999999</v>
+      </c>
+      <c r="H124" t="n">
         <v>11.181</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4805,18 +5723,21 @@
         <v>45</v>
       </c>
       <c r="G125" t="n">
+        <v>11.14799999999999</v>
+      </c>
+      <c r="H125" t="n">
         <v>11.18450000000001</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4840,18 +5761,21 @@
         <v>49528.77782515337</v>
       </c>
       <c r="G126" t="n">
+        <v>11.15599999999999</v>
+      </c>
+      <c r="H126" t="n">
         <v>11.18966666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4875,18 +5799,21 @@
         <v>3341.5367</v>
       </c>
       <c r="G127" t="n">
+        <v>11.15799999999999</v>
+      </c>
+      <c r="H127" t="n">
         <v>11.1935</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4910,18 +5837,21 @@
         <v>44</v>
       </c>
       <c r="G128" t="n">
+        <v>11.17866666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>11.19866666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4945,18 +5875,21 @@
         <v>50705.8971</v>
       </c>
       <c r="G129" t="n">
+        <v>11.16533333333332</v>
+      </c>
+      <c r="H129" t="n">
         <v>11.1985</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4980,18 +5913,21 @@
         <v>45</v>
       </c>
       <c r="G130" t="n">
+        <v>11.17866666666666</v>
+      </c>
+      <c r="H130" t="n">
         <v>11.2035</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5015,18 +5951,21 @@
         <v>4159.6879</v>
       </c>
       <c r="G131" t="n">
+        <v>11.18466666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>11.20316666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5050,18 +5989,21 @@
         <v>45</v>
       </c>
       <c r="G132" t="n">
+        <v>11.20333333333332</v>
+      </c>
+      <c r="H132" t="n">
         <v>11.206</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5085,18 +6027,21 @@
         <v>2000</v>
       </c>
       <c r="G133" t="n">
+        <v>11.20933333333332</v>
+      </c>
+      <c r="H133" t="n">
         <v>11.20883333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,18 +6065,21 @@
         <v>11433.56888369851</v>
       </c>
       <c r="G134" t="n">
+        <v>11.23666666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>11.21716666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5155,18 +6103,21 @@
         <v>10000</v>
       </c>
       <c r="G135" t="n">
+        <v>11.24933333333332</v>
+      </c>
+      <c r="H135" t="n">
         <v>11.22216666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5190,18 +6141,21 @@
         <v>30000</v>
       </c>
       <c r="G136" t="n">
+        <v>11.26199999999999</v>
+      </c>
+      <c r="H136" t="n">
         <v>11.229</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5225,18 +6179,21 @@
         <v>50000</v>
       </c>
       <c r="G137" t="n">
+        <v>11.28799999999999</v>
+      </c>
+      <c r="H137" t="n">
         <v>11.23383333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5260,18 +6217,21 @@
         <v>24304</v>
       </c>
       <c r="G138" t="n">
+        <v>11.28133333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>11.23583333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5295,18 +6255,21 @@
         <v>813.6612</v>
       </c>
       <c r="G139" t="n">
+        <v>11.28799999999999</v>
+      </c>
+      <c r="H139" t="n">
         <v>11.236</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5330,18 +6293,21 @@
         <v>45</v>
       </c>
       <c r="G140" t="n">
+        <v>11.29333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>11.23916666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5365,18 +6331,21 @@
         <v>100622.9794</v>
       </c>
       <c r="G141" t="n">
+        <v>11.29799999999999</v>
+      </c>
+      <c r="H141" t="n">
         <v>11.24533333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5400,18 +6369,21 @@
         <v>48408.1011</v>
       </c>
       <c r="G142" t="n">
+        <v>11.32599999999999</v>
+      </c>
+      <c r="H142" t="n">
         <v>11.256</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5435,18 +6407,21 @@
         <v>187466.1749</v>
       </c>
       <c r="G143" t="n">
+        <v>11.35799999999999</v>
+      </c>
+      <c r="H143" t="n">
         <v>11.269</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5470,18 +6445,21 @@
         <v>100057</v>
       </c>
       <c r="G144" t="n">
+        <v>11.37933333333332</v>
+      </c>
+      <c r="H144" t="n">
         <v>11.274</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5505,18 +6483,21 @@
         <v>8998.993</v>
       </c>
       <c r="G145" t="n">
+        <v>11.41333333333332</v>
+      </c>
+      <c r="H145" t="n">
         <v>11.28533333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5540,18 +6521,21 @@
         <v>4903.406</v>
       </c>
       <c r="G146" t="n">
+        <v>11.41999999999999</v>
+      </c>
+      <c r="H146" t="n">
         <v>11.2865</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5575,18 +6559,21 @@
         <v>43</v>
       </c>
       <c r="G147" t="n">
+        <v>11.44999999999999</v>
+      </c>
+      <c r="H147" t="n">
         <v>11.29883333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5610,18 +6597,21 @@
         <v>4800.0057</v>
       </c>
       <c r="G148" t="n">
+        <v>11.47666666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>11.307</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5645,18 +6635,21 @@
         <v>5044.7801</v>
       </c>
       <c r="G149" t="n">
+        <v>11.46266666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>11.307</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5680,18 +6673,21 @@
         <v>4132.5253</v>
       </c>
       <c r="G150" t="n">
+        <v>11.44866666666666</v>
+      </c>
+      <c r="H150" t="n">
         <v>11.30666666666666</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5715,18 +6711,21 @@
         <v>44</v>
       </c>
       <c r="G151" t="n">
+        <v>11.46133333333332</v>
+      </c>
+      <c r="H151" t="n">
         <v>11.30966666666666</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5750,18 +6749,21 @@
         <v>50</v>
       </c>
       <c r="G152" t="n">
+        <v>11.46133333333332</v>
+      </c>
+      <c r="H152" t="n">
         <v>11.30866666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5785,18 +6787,21 @@
         <v>50</v>
       </c>
       <c r="G153" t="n">
+        <v>11.46999999999999</v>
+      </c>
+      <c r="H153" t="n">
         <v>11.30583333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5820,18 +6825,21 @@
         <v>4413.7444</v>
       </c>
       <c r="G154" t="n">
+        <v>11.47866666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>11.30616666666666</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5855,18 +6863,21 @@
         <v>9395.6546</v>
       </c>
       <c r="G155" t="n">
+        <v>11.47533333333332</v>
+      </c>
+      <c r="H155" t="n">
         <v>11.3035</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5890,18 +6901,21 @@
         <v>45</v>
       </c>
       <c r="G156" t="n">
+        <v>11.46333333333332</v>
+      </c>
+      <c r="H156" t="n">
         <v>11.30683333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5925,18 +6939,401 @@
         <v>26896</v>
       </c>
       <c r="G157" t="n">
+        <v>11.42333333333332</v>
+      </c>
+      <c r="H157" t="n">
         <v>11.306</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="C158" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="D158" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="E158" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="F158" t="n">
+        <v>89451.44620000001</v>
+      </c>
+      <c r="G158" t="n">
+        <v>11.37466666666666</v>
+      </c>
+      <c r="H158" t="n">
+        <v>11.307</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="C159" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="D159" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="E159" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F159" t="n">
+        <v>96532.1586</v>
+      </c>
+      <c r="G159" t="n">
+        <v>11.35666666666666</v>
+      </c>
+      <c r="H159" t="n">
+        <v>11.3045</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="C160" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="D160" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="E160" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="F160" t="n">
+        <v>16446.0373</v>
+      </c>
+      <c r="G160" t="n">
+        <v>11.31199999999999</v>
+      </c>
+      <c r="H160" t="n">
+        <v>11.30183333333333</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="E161" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="F161" t="n">
+        <v>101256.1889</v>
+      </c>
+      <c r="G161" t="n">
+        <v>11.30599999999999</v>
+      </c>
+      <c r="H161" t="n">
+        <v>11.297</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="C162" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="D162" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="E162" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3238.9695</v>
+      </c>
+      <c r="G162" t="n">
+        <v>11.26466666666666</v>
+      </c>
+      <c r="H162" t="n">
+        <v>11.29283333333333</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="C163" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="D163" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="E163" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="F163" t="n">
+        <v>39514.7735</v>
+      </c>
+      <c r="G163" t="n">
+        <v>11.22866666666666</v>
+      </c>
+      <c r="H163" t="n">
+        <v>11.2885</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="C164" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="D164" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F164" t="n">
+        <v>100</v>
+      </c>
+      <c r="G164" t="n">
+        <v>11.22533333333333</v>
+      </c>
+      <c r="H164" t="n">
+        <v>11.28483333333333</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="C165" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F165" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G165" t="n">
+        <v>11.22199999999999</v>
+      </c>
+      <c r="H165" t="n">
+        <v>11.28066666666666</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F166" t="n">
+        <v>18887.5964</v>
+      </c>
+      <c r="G166" t="n">
+        <v>11.19199999999999</v>
+      </c>
+      <c r="H166" t="n">
+        <v>11.2765</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="C167" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="E167" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F167" t="n">
+        <v>58799.8431</v>
+      </c>
+      <c r="G167" t="n">
+        <v>11.17599999999999</v>
+      </c>
+      <c r="H167" t="n">
+        <v>11.2725</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest TRV.xlsx
+++ b/BackTest/2020-01-16 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8</v>
+        <v>10.52</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="E2" t="n">
-        <v>10.8</v>
+        <v>10.52</v>
       </c>
       <c r="F2" t="n">
-        <v>4100</v>
+        <v>4870.271</v>
       </c>
       <c r="G2" t="n">
-        <v>-2325777.523292095</v>
+        <v>-2960951.824092095</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -471,124 +477,145 @@
         <v>10.7</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7</v>
+        <v>10.81</v>
       </c>
       <c r="D3" t="n">
-        <v>10.7</v>
+        <v>10.81</v>
       </c>
       <c r="E3" t="n">
         <v>10.7</v>
       </c>
       <c r="F3" t="n">
-        <v>4706.5863</v>
+        <v>4024.1667</v>
       </c>
       <c r="G3" t="n">
-        <v>-2330484.109592095</v>
+        <v>-2956927.657392095</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>10.7</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.8</v>
+        <v>10.81</v>
       </c>
       <c r="C4" t="n">
-        <v>10.8</v>
+        <v>10.81</v>
       </c>
       <c r="D4" t="n">
-        <v>10.8</v>
+        <v>10.81</v>
       </c>
       <c r="E4" t="n">
-        <v>10.8</v>
+        <v>10.81</v>
       </c>
       <c r="F4" t="n">
-        <v>80.6151</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="n">
-        <v>-2330403.494492095</v>
+        <v>-2956927.657392095</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>10.81</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.8</v>
+        <v>10.75</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8</v>
+        <v>10.75</v>
       </c>
       <c r="D5" t="n">
-        <v>10.8</v>
+        <v>10.75</v>
       </c>
       <c r="E5" t="n">
-        <v>10.8</v>
+        <v>10.75</v>
       </c>
       <c r="F5" t="n">
-        <v>46282.5805</v>
+        <v>1395.3488</v>
       </c>
       <c r="G5" t="n">
-        <v>-2330403.494492095</v>
+        <v>-2958323.006192095</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>10.81</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8</v>
+        <v>10.81</v>
       </c>
       <c r="C6" t="n">
-        <v>10.8</v>
+        <v>10.81</v>
       </c>
       <c r="D6" t="n">
-        <v>10.8</v>
+        <v>10.92</v>
       </c>
       <c r="E6" t="n">
-        <v>10.8</v>
+        <v>10.81</v>
       </c>
       <c r="F6" t="n">
-        <v>70520.5006</v>
+        <v>42915.0581</v>
       </c>
       <c r="G6" t="n">
-        <v>-2330403.494492095</v>
+        <v>-2915407.948092095</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -598,102 +625,119 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.8</v>
+        <v>10.91</v>
       </c>
       <c r="C7" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="F7" t="n">
+        <v>46</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-2915361.948092095</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>10.81</v>
       </c>
-      <c r="D7" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F7" t="n">
-        <v>127082.6956</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-2203320.798892095</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C8" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D8" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E8" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F8" t="n">
-        <v>4496.104</v>
+        <v>14200</v>
       </c>
       <c r="G8" t="n">
-        <v>-2207816.902892095</v>
+        <v>-2929561.948092095</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="C9" t="n">
-        <v>10.51</v>
+        <v>10.6</v>
       </c>
       <c r="D9" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="E9" t="n">
-        <v>10.51</v>
+        <v>10.6</v>
       </c>
       <c r="F9" t="n">
-        <v>117833.0631</v>
+        <v>1805.1065</v>
       </c>
       <c r="G9" t="n">
-        <v>-2325649.965992095</v>
+        <v>-2931367.054592095</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -703,32 +747,37 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10.79</v>
+        <v>10.6</v>
       </c>
       <c r="C10" t="n">
-        <v>10.79</v>
+        <v>10.89</v>
       </c>
       <c r="D10" t="n">
-        <v>10.79</v>
+        <v>10.89</v>
       </c>
       <c r="E10" t="n">
-        <v>10.79</v>
+        <v>10.6</v>
       </c>
       <c r="F10" t="n">
-        <v>47</v>
+        <v>8466.96473516988</v>
       </c>
       <c r="G10" t="n">
-        <v>-2325602.965992095</v>
+        <v>-2922900.089856925</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -738,32 +787,37 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10.79</v>
+        <v>10.8</v>
       </c>
       <c r="C11" t="n">
-        <v>10.79</v>
+        <v>10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>10.79</v>
+        <v>10.8</v>
       </c>
       <c r="E11" t="n">
-        <v>10.79</v>
+        <v>10.8</v>
       </c>
       <c r="F11" t="n">
-        <v>47.7684</v>
+        <v>46180.9374</v>
       </c>
       <c r="G11" t="n">
-        <v>-2325602.965992095</v>
+        <v>-2969081.027256926</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,10 +827,15 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -786,19 +845,19 @@
         <v>10.8</v>
       </c>
       <c r="C12" t="n">
-        <v>10.8</v>
+        <v>10.88</v>
       </c>
       <c r="D12" t="n">
-        <v>10.8</v>
+        <v>10.88</v>
       </c>
       <c r="E12" t="n">
         <v>10.8</v>
       </c>
       <c r="F12" t="n">
-        <v>47</v>
+        <v>19000</v>
       </c>
       <c r="G12" t="n">
-        <v>-2325555.965992095</v>
+        <v>-2950081.027256926</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -808,67 +867,77 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10.8</v>
+        <v>10.89</v>
       </c>
       <c r="C13" t="n">
-        <v>10.8</v>
+        <v>10.89</v>
       </c>
       <c r="D13" t="n">
-        <v>10.8</v>
+        <v>10.89</v>
       </c>
       <c r="E13" t="n">
-        <v>10.8</v>
+        <v>10.89</v>
       </c>
       <c r="F13" t="n">
-        <v>9236.134599999999</v>
+        <v>128.8001</v>
       </c>
       <c r="G13" t="n">
-        <v>-2325555.965992095</v>
+        <v>-2949952.227156925</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10.8</v>
+        <v>10.89</v>
       </c>
       <c r="C14" t="n">
-        <v>10.8</v>
+        <v>10.89</v>
       </c>
       <c r="D14" t="n">
-        <v>10.8</v>
+        <v>10.89</v>
       </c>
       <c r="E14" t="n">
-        <v>10.8</v>
+        <v>10.89</v>
       </c>
       <c r="F14" t="n">
-        <v>4618.0844</v>
+        <v>97431.45146483013</v>
       </c>
       <c r="G14" t="n">
-        <v>-2325555.965992095</v>
+        <v>-2949952.227156925</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,32 +947,37 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>1612.2626</v>
+        <v>304.6286</v>
       </c>
       <c r="G15" t="n">
-        <v>-2327168.228592095</v>
+        <v>-2949647.598556926</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -913,32 +987,37 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10.74</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>10.71</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>10.74</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
-        <v>10.71</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>191</v>
+        <v>61415.2745</v>
       </c>
       <c r="G16" t="n">
-        <v>-2327359.228592095</v>
+        <v>-2949647.598556926</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,32 +1027,37 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10.6</v>
+        <v>11.05</v>
       </c>
       <c r="C17" t="n">
-        <v>10.6</v>
+        <v>11.05</v>
       </c>
       <c r="D17" t="n">
-        <v>10.6</v>
+        <v>11.05</v>
       </c>
       <c r="E17" t="n">
-        <v>10.6</v>
+        <v>11.05</v>
       </c>
       <c r="F17" t="n">
-        <v>1219.354</v>
+        <v>46</v>
       </c>
       <c r="G17" t="n">
-        <v>-2328578.582592095</v>
+        <v>-2949601.598556926</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,32 +1067,37 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>10.74</v>
+        <v>10.91</v>
       </c>
       <c r="C18" t="n">
-        <v>10.74</v>
+        <v>10.9</v>
       </c>
       <c r="D18" t="n">
-        <v>10.74</v>
+        <v>10.91</v>
       </c>
       <c r="E18" t="n">
-        <v>10.74</v>
+        <v>10.9</v>
       </c>
       <c r="F18" t="n">
-        <v>47</v>
+        <v>182961.3217</v>
       </c>
       <c r="G18" t="n">
-        <v>-2328531.582592095</v>
+        <v>-3132562.920256926</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,32 +1107,37 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10.6</v>
+        <v>11.05</v>
       </c>
       <c r="C19" t="n">
-        <v>10.51</v>
+        <v>11.12</v>
       </c>
       <c r="D19" t="n">
-        <v>10.6</v>
+        <v>11.12</v>
       </c>
       <c r="E19" t="n">
-        <v>10.51</v>
+        <v>11.05</v>
       </c>
       <c r="F19" t="n">
-        <v>55817.2994</v>
+        <v>1698.3488</v>
       </c>
       <c r="G19" t="n">
-        <v>-2384348.881992095</v>
+        <v>-3130864.571456926</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,32 +1147,37 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10.6</v>
+        <v>11.12</v>
       </c>
       <c r="C20" t="n">
-        <v>10.6</v>
+        <v>11.4</v>
       </c>
       <c r="D20" t="n">
-        <v>10.6</v>
+        <v>11.4</v>
       </c>
       <c r="E20" t="n">
-        <v>10.6</v>
+        <v>11.12</v>
       </c>
       <c r="F20" t="n">
-        <v>48</v>
+        <v>2981.009230175438</v>
       </c>
       <c r="G20" t="n">
-        <v>-2384300.881992095</v>
+        <v>-3127883.56222675</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,32 +1187,37 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="C21" t="n">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="D21" t="n">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="E21" t="n">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="F21" t="n">
-        <v>53500</v>
+        <v>1750.7715</v>
       </c>
       <c r="G21" t="n">
-        <v>-2384300.881992095</v>
+        <v>-3129634.33372675</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,32 +1227,37 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>10.53</v>
+        <v>11.19</v>
       </c>
       <c r="C22" t="n">
-        <v>10.52</v>
+        <v>11.19</v>
       </c>
       <c r="D22" t="n">
-        <v>10.53</v>
+        <v>11.19</v>
       </c>
       <c r="E22" t="n">
-        <v>10.52</v>
+        <v>11.19</v>
       </c>
       <c r="F22" t="n">
-        <v>138223.3086</v>
+        <v>40000</v>
       </c>
       <c r="G22" t="n">
-        <v>-2522524.190592095</v>
+        <v>-3169634.33372675</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,32 +1267,37 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10.52</v>
+        <v>11.05</v>
       </c>
       <c r="C23" t="n">
-        <v>10.47</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>10.52</v>
+        <v>11.05</v>
       </c>
       <c r="E23" t="n">
-        <v>10.47</v>
+        <v>11</v>
       </c>
       <c r="F23" t="n">
-        <v>148601.4378</v>
+        <v>3688.3379</v>
       </c>
       <c r="G23" t="n">
-        <v>-2671125.628392095</v>
+        <v>-3173322.67162675</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,32 +1307,37 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10.47</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>10.52</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>10.52</v>
+        <v>11</v>
       </c>
       <c r="E24" t="n">
-        <v>10.47</v>
+        <v>11</v>
       </c>
       <c r="F24" t="n">
-        <v>2430</v>
+        <v>6995.295</v>
       </c>
       <c r="G24" t="n">
-        <v>-2668695.628392095</v>
+        <v>-3173322.67162675</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,32 +1347,37 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10.3</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>10.3</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>10.3</v>
+        <v>11</v>
       </c>
       <c r="E25" t="n">
-        <v>10.3</v>
+        <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>10695.1135</v>
+        <v>913</v>
       </c>
       <c r="G25" t="n">
-        <v>-2679390.741892095</v>
+        <v>-3173322.67162675</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,32 +1387,37 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10.3</v>
+        <v>11.02</v>
       </c>
       <c r="C26" t="n">
-        <v>10.2</v>
+        <v>11.02</v>
       </c>
       <c r="D26" t="n">
-        <v>10.3</v>
+        <v>11.02</v>
       </c>
       <c r="E26" t="n">
-        <v>10.2</v>
+        <v>11.02</v>
       </c>
       <c r="F26" t="n">
-        <v>376636.1759</v>
+        <v>136.4493</v>
       </c>
       <c r="G26" t="n">
-        <v>-3056026.917792095</v>
+        <v>-3173186.22232675</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,32 +1427,37 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10.3</v>
+        <v>11.02</v>
       </c>
       <c r="C27" t="n">
-        <v>10.3</v>
+        <v>11.11</v>
       </c>
       <c r="D27" t="n">
-        <v>10.3</v>
+        <v>11.11</v>
       </c>
       <c r="E27" t="n">
-        <v>10.3</v>
+        <v>11.02</v>
       </c>
       <c r="F27" t="n">
-        <v>11712.4513</v>
+        <v>3668.957959045905</v>
       </c>
       <c r="G27" t="n">
-        <v>-3044314.466492095</v>
+        <v>-3169517.264367704</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,32 +1467,37 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10.51</v>
+        <v>11.03</v>
       </c>
       <c r="C28" t="n">
-        <v>10.51</v>
+        <v>11.03</v>
       </c>
       <c r="D28" t="n">
-        <v>10.51</v>
+        <v>11.03</v>
       </c>
       <c r="E28" t="n">
-        <v>10.51</v>
+        <v>11.03</v>
       </c>
       <c r="F28" t="n">
-        <v>48</v>
+        <v>1670.0686</v>
       </c>
       <c r="G28" t="n">
-        <v>-3044266.466492095</v>
+        <v>-3171187.332967704</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,32 +1507,37 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>10.51</v>
+        <v>11.03</v>
       </c>
       <c r="C29" t="n">
-        <v>10.51</v>
+        <v>11.03</v>
       </c>
       <c r="D29" t="n">
-        <v>10.51</v>
+        <v>11.03</v>
       </c>
       <c r="E29" t="n">
-        <v>10.51</v>
+        <v>11.03</v>
       </c>
       <c r="F29" t="n">
-        <v>342.8631</v>
+        <v>519.926</v>
       </c>
       <c r="G29" t="n">
-        <v>-3044266.466492095</v>
+        <v>-3171187.332967704</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,32 +1547,37 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10.31</v>
+        <v>11.11</v>
       </c>
       <c r="C30" t="n">
-        <v>10.3</v>
+        <v>11.11</v>
       </c>
       <c r="D30" t="n">
-        <v>10.31</v>
+        <v>11.11</v>
       </c>
       <c r="E30" t="n">
-        <v>10.3</v>
+        <v>11.11</v>
       </c>
       <c r="F30" t="n">
-        <v>48787.2143</v>
+        <v>46</v>
       </c>
       <c r="G30" t="n">
-        <v>-3093053.680792095</v>
+        <v>-3171141.332967704</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,32 +1587,37 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10.3</v>
+        <v>11.11</v>
       </c>
       <c r="C31" t="n">
-        <v>10.31</v>
+        <v>11.11</v>
       </c>
       <c r="D31" t="n">
-        <v>10.31</v>
+        <v>11.11</v>
       </c>
       <c r="E31" t="n">
-        <v>10.3</v>
+        <v>11.11</v>
       </c>
       <c r="F31" t="n">
-        <v>5810</v>
+        <v>23484.3835</v>
       </c>
       <c r="G31" t="n">
-        <v>-3087243.680792095</v>
+        <v>-3171141.332967704</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,32 +1627,37 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>10.13</v>
+        <v>11.03</v>
       </c>
       <c r="C32" t="n">
-        <v>10.06</v>
+        <v>10.8</v>
       </c>
       <c r="D32" t="n">
-        <v>10.13</v>
+        <v>11.03</v>
       </c>
       <c r="E32" t="n">
-        <v>10.06</v>
+        <v>10.8</v>
       </c>
       <c r="F32" t="n">
-        <v>15954.8934</v>
+        <v>5875.5307</v>
       </c>
       <c r="G32" t="n">
-        <v>-3103198.574192095</v>
+        <v>-3177016.863667704</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,32 +1667,37 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10.06</v>
+        <v>10.8</v>
       </c>
       <c r="C33" t="n">
-        <v>10.04</v>
+        <v>10.8</v>
       </c>
       <c r="D33" t="n">
-        <v>10.06</v>
+        <v>10.8</v>
       </c>
       <c r="E33" t="n">
-        <v>10.04</v>
+        <v>10.8</v>
       </c>
       <c r="F33" t="n">
-        <v>82935.5632</v>
+        <v>1487.4661</v>
       </c>
       <c r="G33" t="n">
-        <v>-3186134.137392095</v>
+        <v>-3177016.863667704</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,32 +1707,37 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10.05</v>
+        <v>10.76</v>
       </c>
       <c r="C34" t="n">
-        <v>10.06</v>
+        <v>10.76</v>
       </c>
       <c r="D34" t="n">
-        <v>10.06</v>
+        <v>10.76</v>
       </c>
       <c r="E34" t="n">
-        <v>10.05</v>
+        <v>10.76</v>
       </c>
       <c r="F34" t="n">
-        <v>57304.2794</v>
+        <v>33984.022</v>
       </c>
       <c r="G34" t="n">
-        <v>-3128829.857992095</v>
+        <v>-3211000.885667704</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,32 +1747,37 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>10.13</v>
+        <v>10.75</v>
       </c>
       <c r="C35" t="n">
-        <v>10.13</v>
+        <v>10.75</v>
       </c>
       <c r="D35" t="n">
-        <v>10.13</v>
+        <v>10.75</v>
       </c>
       <c r="E35" t="n">
-        <v>10.13</v>
+        <v>10.75</v>
       </c>
       <c r="F35" t="n">
-        <v>155804.0828</v>
+        <v>1395.3488</v>
       </c>
       <c r="G35" t="n">
-        <v>-2973025.775192095</v>
+        <v>-3212396.234467704</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,32 +1787,37 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10.06</v>
+        <v>10.65</v>
       </c>
       <c r="C36" t="n">
-        <v>10.06</v>
+        <v>10.65</v>
       </c>
       <c r="D36" t="n">
-        <v>10.06</v>
+        <v>10.65</v>
       </c>
       <c r="E36" t="n">
-        <v>10.06</v>
+        <v>10.65</v>
       </c>
       <c r="F36" t="n">
-        <v>11452.683</v>
+        <v>33886.3641</v>
       </c>
       <c r="G36" t="n">
-        <v>-2984478.458192096</v>
+        <v>-3246282.598567704</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,32 +1827,37 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>10.12</v>
+        <v>10.63</v>
       </c>
       <c r="C37" t="n">
-        <v>10.12</v>
+        <v>10.63</v>
       </c>
       <c r="D37" t="n">
-        <v>10.12</v>
+        <v>10.63</v>
       </c>
       <c r="E37" t="n">
-        <v>10.12</v>
+        <v>10.63</v>
       </c>
       <c r="F37" t="n">
-        <v>10033.2902</v>
+        <v>33430.734</v>
       </c>
       <c r="G37" t="n">
-        <v>-2974445.167992095</v>
+        <v>-3279713.332567704</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,32 +1867,37 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>10.12</v>
+        <v>10.79</v>
       </c>
       <c r="C38" t="n">
-        <v>10.12</v>
+        <v>10.86</v>
       </c>
       <c r="D38" t="n">
-        <v>10.12</v>
+        <v>10.86</v>
       </c>
       <c r="E38" t="n">
-        <v>10.12</v>
+        <v>10.79</v>
       </c>
       <c r="F38" t="n">
-        <v>3063.3573</v>
+        <v>25892.7816</v>
       </c>
       <c r="G38" t="n">
-        <v>-2974445.167992095</v>
+        <v>-3253820.550967704</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,32 +1907,37 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10.12</v>
+        <v>10.86</v>
       </c>
       <c r="C39" t="n">
-        <v>10.12</v>
+        <v>10.99</v>
       </c>
       <c r="D39" t="n">
-        <v>10.12</v>
+        <v>10.99</v>
       </c>
       <c r="E39" t="n">
-        <v>10.12</v>
+        <v>10.86</v>
       </c>
       <c r="F39" t="n">
-        <v>89927.9375</v>
+        <v>2992.482821929027</v>
       </c>
       <c r="G39" t="n">
-        <v>-2974445.167992095</v>
+        <v>-3250828.068145775</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,32 +1947,37 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10.26</v>
+        <v>10.98</v>
       </c>
       <c r="C40" t="n">
-        <v>10.26</v>
+        <v>10.99</v>
       </c>
       <c r="D40" t="n">
-        <v>10.26</v>
+        <v>10.99</v>
       </c>
       <c r="E40" t="n">
-        <v>10.26</v>
+        <v>10.98</v>
       </c>
       <c r="F40" t="n">
-        <v>2721.4206</v>
+        <v>37273.96017807097</v>
       </c>
       <c r="G40" t="n">
-        <v>-2971723.747392096</v>
+        <v>-3250828.068145775</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,32 +1987,37 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10.26</v>
+        <v>11</v>
       </c>
       <c r="C41" t="n">
-        <v>10.26</v>
+        <v>10.99</v>
       </c>
       <c r="D41" t="n">
-        <v>10.26</v>
+        <v>11</v>
       </c>
       <c r="E41" t="n">
-        <v>10.26</v>
+        <v>10.99</v>
       </c>
       <c r="F41" t="n">
-        <v>14000</v>
+        <v>12716.0714</v>
       </c>
       <c r="G41" t="n">
-        <v>-2971723.747392096</v>
+        <v>-3250828.068145775</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,32 +2027,37 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10.26</v>
+        <v>10.99</v>
       </c>
       <c r="C42" t="n">
-        <v>10.34</v>
+        <v>10.98</v>
       </c>
       <c r="D42" t="n">
-        <v>10.34</v>
+        <v>11.01</v>
       </c>
       <c r="E42" t="n">
-        <v>10.26</v>
+        <v>10.98</v>
       </c>
       <c r="F42" t="n">
-        <v>5852.6523</v>
+        <v>163449.499</v>
       </c>
       <c r="G42" t="n">
-        <v>-2965871.095092095</v>
+        <v>-3414277.567145775</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,32 +2067,37 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10.52</v>
+        <v>11.01</v>
       </c>
       <c r="C43" t="n">
-        <v>10.52</v>
+        <v>11.01</v>
       </c>
       <c r="D43" t="n">
-        <v>10.52</v>
+        <v>11.01</v>
       </c>
       <c r="E43" t="n">
-        <v>10.52</v>
+        <v>11.01</v>
       </c>
       <c r="F43" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" t="n">
-        <v>-2965822.095092095</v>
+        <v>-3414227.567145775</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,32 +2107,37 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10.52</v>
+        <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>10.7</v>
+        <v>10.98</v>
       </c>
       <c r="D44" t="n">
-        <v>10.7</v>
+        <v>10.98</v>
       </c>
       <c r="E44" t="n">
-        <v>10.52</v>
+        <v>10.98</v>
       </c>
       <c r="F44" t="n">
-        <v>4870.271</v>
+        <v>9546.526121929026</v>
       </c>
       <c r="G44" t="n">
-        <v>-2960951.824092095</v>
+        <v>-3423774.093267704</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,32 +2147,37 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10.7</v>
+        <v>10.97</v>
       </c>
       <c r="C45" t="n">
-        <v>10.81</v>
+        <v>10.97</v>
       </c>
       <c r="D45" t="n">
-        <v>10.81</v>
+        <v>10.97</v>
       </c>
       <c r="E45" t="n">
-        <v>10.7</v>
+        <v>10.97</v>
       </c>
       <c r="F45" t="n">
-        <v>4024.1667</v>
+        <v>60682.3441</v>
       </c>
       <c r="G45" t="n">
-        <v>-2956927.657392095</v>
+        <v>-3484456.437367704</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,32 +2187,37 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>10.81</v>
+        <v>10.85</v>
       </c>
       <c r="C46" t="n">
-        <v>10.81</v>
+        <v>10.85</v>
       </c>
       <c r="D46" t="n">
-        <v>10.81</v>
+        <v>10.85</v>
       </c>
       <c r="E46" t="n">
-        <v>10.81</v>
+        <v>10.85</v>
       </c>
       <c r="F46" t="n">
-        <v>1000</v>
+        <v>63594.206</v>
       </c>
       <c r="G46" t="n">
-        <v>-2956927.657392095</v>
+        <v>-3548050.643367704</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,32 +2227,37 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>10.75</v>
+        <v>10.81</v>
       </c>
       <c r="C47" t="n">
-        <v>10.75</v>
+        <v>10.81</v>
       </c>
       <c r="D47" t="n">
-        <v>10.75</v>
+        <v>10.81</v>
       </c>
       <c r="E47" t="n">
-        <v>10.75</v>
+        <v>10.81</v>
       </c>
       <c r="F47" t="n">
-        <v>1395.3488</v>
+        <v>11073.1496</v>
       </c>
       <c r="G47" t="n">
-        <v>-2958323.006192095</v>
+        <v>-3559123.792967704</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,10 +2267,15 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2049,16 +2288,16 @@
         <v>10.81</v>
       </c>
       <c r="D48" t="n">
-        <v>10.92</v>
+        <v>10.81</v>
       </c>
       <c r="E48" t="n">
         <v>10.81</v>
       </c>
       <c r="F48" t="n">
-        <v>42915.0581</v>
+        <v>2097.6926</v>
       </c>
       <c r="G48" t="n">
-        <v>-2915407.948092095</v>
+        <v>-3559123.792967704</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,32 +2307,37 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10.91</v>
+        <v>11.01</v>
       </c>
       <c r="C49" t="n">
-        <v>10.91</v>
+        <v>11.01</v>
       </c>
       <c r="D49" t="n">
-        <v>10.91</v>
+        <v>11.01</v>
       </c>
       <c r="E49" t="n">
-        <v>10.91</v>
+        <v>11.01</v>
       </c>
       <c r="F49" t="n">
         <v>46</v>
       </c>
       <c r="G49" t="n">
-        <v>-2915361.948092095</v>
+        <v>-3559077.792967704</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,172 +2347,205 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>10.9</v>
+        <v>10.81</v>
       </c>
       <c r="C50" t="n">
-        <v>10.9</v>
+        <v>10.81</v>
       </c>
       <c r="D50" t="n">
-        <v>10.9</v>
+        <v>10.81</v>
       </c>
       <c r="E50" t="n">
-        <v>10.9</v>
+        <v>10.81</v>
       </c>
       <c r="F50" t="n">
-        <v>14200</v>
+        <v>1612.9032</v>
       </c>
       <c r="G50" t="n">
-        <v>-2929561.948092095</v>
+        <v>-3560690.696167704</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>11.01</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>10.6</v>
+        <v>11.01</v>
       </c>
       <c r="C51" t="n">
-        <v>10.6</v>
+        <v>11.01</v>
       </c>
       <c r="D51" t="n">
-        <v>10.6</v>
+        <v>11.01</v>
       </c>
       <c r="E51" t="n">
-        <v>10.6</v>
+        <v>11.01</v>
       </c>
       <c r="F51" t="n">
-        <v>1805.1065</v>
+        <v>5682.205</v>
       </c>
       <c r="G51" t="n">
-        <v>-2931367.054592095</v>
+        <v>-3555008.491167704</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>10.81</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>10.6</v>
+        <v>11.01</v>
       </c>
       <c r="C52" t="n">
-        <v>10.89</v>
+        <v>11.01</v>
       </c>
       <c r="D52" t="n">
-        <v>10.89</v>
+        <v>11.01</v>
       </c>
       <c r="E52" t="n">
-        <v>10.6</v>
+        <v>11.01</v>
       </c>
       <c r="F52" t="n">
-        <v>8466.96473516988</v>
+        <v>250</v>
       </c>
       <c r="G52" t="n">
-        <v>-2922900.089856925</v>
+        <v>-3555008.491167704</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>11.01</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>10.8</v>
+        <v>11.01</v>
       </c>
       <c r="C53" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="D53" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="E53" t="n">
-        <v>10.8</v>
+        <v>11.01</v>
       </c>
       <c r="F53" t="n">
-        <v>46180.9374</v>
+        <v>7988.596543063063</v>
       </c>
       <c r="G53" t="n">
-        <v>-2969081.027256926</v>
+        <v>-3547019.894624641</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>11.01</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="C54" t="n">
-        <v>10.88</v>
+        <v>11.1</v>
       </c>
       <c r="D54" t="n">
-        <v>10.88</v>
+        <v>11.1</v>
       </c>
       <c r="E54" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="F54" t="n">
-        <v>19000</v>
+        <v>11340.64575693694</v>
       </c>
       <c r="G54" t="n">
-        <v>-2950081.027256926</v>
+        <v>-3547019.894624641</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,32 +2555,37 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>10.89</v>
+        <v>11.1</v>
       </c>
       <c r="C55" t="n">
-        <v>10.89</v>
+        <v>11.1</v>
       </c>
       <c r="D55" t="n">
-        <v>10.89</v>
+        <v>11.1</v>
       </c>
       <c r="E55" t="n">
-        <v>10.89</v>
+        <v>11.1</v>
       </c>
       <c r="F55" t="n">
-        <v>128.8001</v>
+        <v>52550</v>
       </c>
       <c r="G55" t="n">
-        <v>-2949952.227156925</v>
+        <v>-3547019.894624641</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,32 +2595,37 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>10.89</v>
+        <v>11.11</v>
       </c>
       <c r="C56" t="n">
-        <v>10.89</v>
+        <v>11.11</v>
       </c>
       <c r="D56" t="n">
-        <v>10.89</v>
+        <v>11.11</v>
       </c>
       <c r="E56" t="n">
-        <v>10.89</v>
+        <v>11.11</v>
       </c>
       <c r="F56" t="n">
-        <v>97431.45146483013</v>
+        <v>46</v>
       </c>
       <c r="G56" t="n">
-        <v>-2949952.227156925</v>
+        <v>-3546973.894624641</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,10 +2635,15 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2370,10 +2662,10 @@
         <v>11</v>
       </c>
       <c r="F57" t="n">
-        <v>304.6286</v>
+        <v>46211.4787</v>
       </c>
       <c r="G57" t="n">
-        <v>-2949647.598556926</v>
+        <v>-3593185.373324641</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,32 +2675,37 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="C58" t="n">
-        <v>11</v>
+        <v>11.12</v>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>11.12</v>
       </c>
       <c r="E58" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="F58" t="n">
-        <v>61415.2745</v>
+        <v>15830.83211748287</v>
       </c>
       <c r="G58" t="n">
-        <v>-2949647.598556926</v>
+        <v>-3577354.541207158</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,32 +2715,37 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.05</v>
+        <v>11.12</v>
       </c>
       <c r="C59" t="n">
-        <v>11.05</v>
+        <v>11.12</v>
       </c>
       <c r="D59" t="n">
-        <v>11.05</v>
+        <v>11.12</v>
       </c>
       <c r="E59" t="n">
-        <v>11.05</v>
+        <v>11.12</v>
       </c>
       <c r="F59" t="n">
-        <v>46</v>
+        <v>17942.5115</v>
       </c>
       <c r="G59" t="n">
-        <v>-2949601.598556926</v>
+        <v>-3577354.541207158</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,32 +2755,37 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>10.91</v>
+        <v>11.12</v>
       </c>
       <c r="C60" t="n">
-        <v>10.9</v>
+        <v>11.12</v>
       </c>
       <c r="D60" t="n">
-        <v>10.91</v>
+        <v>11.12</v>
       </c>
       <c r="E60" t="n">
-        <v>10.9</v>
+        <v>11.12</v>
       </c>
       <c r="F60" t="n">
-        <v>182961.3217</v>
+        <v>13007.0507</v>
       </c>
       <c r="G60" t="n">
-        <v>-3132562.920256926</v>
+        <v>-3577354.541207158</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,172 +2795,205 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.05</v>
+        <v>10.91</v>
       </c>
       <c r="C61" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="E61" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="F61" t="n">
+        <v>36399.1944</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-3613753.735607157</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
         <v>11.12</v>
       </c>
-      <c r="D61" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="E61" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1698.3488</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-3130864.571456926</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.12</v>
+        <v>11.11</v>
       </c>
       <c r="C62" t="n">
-        <v>11.4</v>
+        <v>11.11</v>
       </c>
       <c r="D62" t="n">
-        <v>11.4</v>
+        <v>11.11</v>
       </c>
       <c r="E62" t="n">
-        <v>11.12</v>
+        <v>11.11</v>
       </c>
       <c r="F62" t="n">
-        <v>2981.009230175438</v>
+        <v>46</v>
       </c>
       <c r="G62" t="n">
-        <v>-3127883.56222675</v>
+        <v>-3613707.735607157</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>10.91</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.2</v>
+        <v>11.03</v>
       </c>
       <c r="C63" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>11.2</v>
+        <v>11.03</v>
       </c>
       <c r="E63" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F63" t="n">
-        <v>1750.7715</v>
+        <v>13076.2691</v>
       </c>
       <c r="G63" t="n">
-        <v>-3129634.33372675</v>
+        <v>-3626784.004707158</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>11.11</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.19</v>
+        <v>11.11</v>
       </c>
       <c r="C64" t="n">
-        <v>11.19</v>
+        <v>11.11</v>
       </c>
       <c r="D64" t="n">
-        <v>11.19</v>
+        <v>11.11</v>
       </c>
       <c r="E64" t="n">
-        <v>11.19</v>
+        <v>11.11</v>
       </c>
       <c r="F64" t="n">
-        <v>40000</v>
+        <v>46</v>
       </c>
       <c r="G64" t="n">
-        <v>-3169634.33372675</v>
+        <v>-3626738.004707158</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>11</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.05</v>
+        <v>11</v>
       </c>
       <c r="C65" t="n">
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>11.05</v>
+        <v>11</v>
       </c>
       <c r="E65" t="n">
         <v>11</v>
       </c>
       <c r="F65" t="n">
-        <v>3688.3379</v>
+        <v>35155.3094</v>
       </c>
       <c r="G65" t="n">
-        <v>-3173322.67162675</v>
+        <v>-3661893.314107158</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,10 +3003,15 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2676,19 +3021,19 @@
         <v>11</v>
       </c>
       <c r="C66" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="D66" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="E66" t="n">
         <v>11</v>
       </c>
       <c r="F66" t="n">
-        <v>6995.295</v>
+        <v>7539.99456930693</v>
       </c>
       <c r="G66" t="n">
-        <v>-3173322.67162675</v>
+        <v>-3654353.319537851</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,32 +3043,37 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="C67" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="D67" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="E67" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="F67" t="n">
-        <v>913</v>
+        <v>245.9485</v>
       </c>
       <c r="G67" t="n">
-        <v>-3173322.67162675</v>
+        <v>-3654353.319537851</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,32 +3083,37 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.02</v>
+        <v>11.11</v>
       </c>
       <c r="C68" t="n">
-        <v>11.02</v>
+        <v>11.11</v>
       </c>
       <c r="D68" t="n">
-        <v>11.02</v>
+        <v>11.11</v>
       </c>
       <c r="E68" t="n">
-        <v>11.02</v>
+        <v>11.11</v>
       </c>
       <c r="F68" t="n">
-        <v>136.4493</v>
+        <v>241.5697</v>
       </c>
       <c r="G68" t="n">
-        <v>-3173186.22232675</v>
+        <v>-3654353.319537851</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,17 +3123,22 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.02</v>
+        <v>11.11</v>
       </c>
       <c r="C69" t="n">
         <v>11.11</v>
@@ -2787,13 +3147,13 @@
         <v>11.11</v>
       </c>
       <c r="E69" t="n">
-        <v>11.02</v>
+        <v>11.11</v>
       </c>
       <c r="F69" t="n">
-        <v>3668.957959045905</v>
+        <v>43378.2121</v>
       </c>
       <c r="G69" t="n">
-        <v>-3169517.264367704</v>
+        <v>-3654353.319537851</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,32 +3163,37 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.03</v>
+        <v>11.11</v>
       </c>
       <c r="C70" t="n">
-        <v>11.03</v>
+        <v>11.11</v>
       </c>
       <c r="D70" t="n">
-        <v>11.03</v>
+        <v>11.11</v>
       </c>
       <c r="E70" t="n">
-        <v>11.03</v>
+        <v>11.11</v>
       </c>
       <c r="F70" t="n">
-        <v>1670.0686</v>
+        <v>3.0693069306931e-05</v>
       </c>
       <c r="G70" t="n">
-        <v>-3171187.332967704</v>
+        <v>-3654353.319537851</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,32 +3203,37 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.03</v>
+        <v>11.12</v>
       </c>
       <c r="C71" t="n">
-        <v>11.03</v>
+        <v>11.12</v>
       </c>
       <c r="D71" t="n">
-        <v>11.03</v>
+        <v>11.12</v>
       </c>
       <c r="E71" t="n">
-        <v>11.03</v>
+        <v>11.12</v>
       </c>
       <c r="F71" t="n">
-        <v>519.926</v>
+        <v>15498.86002347122</v>
       </c>
       <c r="G71" t="n">
-        <v>-3171187.332967704</v>
+        <v>-3638854.45951438</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,32 +3243,37 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.11</v>
+        <v>11.13</v>
       </c>
       <c r="C72" t="n">
-        <v>11.11</v>
+        <v>11.13</v>
       </c>
       <c r="D72" t="n">
-        <v>11.11</v>
+        <v>11.13</v>
       </c>
       <c r="E72" t="n">
-        <v>11.11</v>
+        <v>11.13</v>
       </c>
       <c r="F72" t="n">
-        <v>46</v>
+        <v>2375.6362</v>
       </c>
       <c r="G72" t="n">
-        <v>-3171141.332967704</v>
+        <v>-3636478.82331438</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,32 +3283,37 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.11</v>
+        <v>11.13</v>
       </c>
       <c r="C73" t="n">
-        <v>11.11</v>
+        <v>11.13</v>
       </c>
       <c r="D73" t="n">
-        <v>11.11</v>
+        <v>11.13</v>
       </c>
       <c r="E73" t="n">
-        <v>11.11</v>
+        <v>11.13</v>
       </c>
       <c r="F73" t="n">
-        <v>23484.3835</v>
+        <v>13801.0094</v>
       </c>
       <c r="G73" t="n">
-        <v>-3171141.332967704</v>
+        <v>-3636478.82331438</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,32 +3323,37 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.03</v>
+        <v>11.13</v>
       </c>
       <c r="C74" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D74" t="n">
-        <v>11.03</v>
+        <v>11.13</v>
       </c>
       <c r="E74" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>5875.5307</v>
+        <v>109585.6522</v>
       </c>
       <c r="G74" t="n">
-        <v>-3177016.863667704</v>
+        <v>-3746064.47551438</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,32 +3363,37 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="C75" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="D75" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="E75" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="F75" t="n">
-        <v>1487.4661</v>
+        <v>45</v>
       </c>
       <c r="G75" t="n">
-        <v>-3177016.863667704</v>
+        <v>-3746019.47551438</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,32 +3403,37 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10.76</v>
+        <v>11.2</v>
       </c>
       <c r="C76" t="n">
-        <v>10.76</v>
+        <v>11.2</v>
       </c>
       <c r="D76" t="n">
-        <v>10.76</v>
+        <v>11.2</v>
       </c>
       <c r="E76" t="n">
-        <v>10.76</v>
+        <v>11.2</v>
       </c>
       <c r="F76" t="n">
-        <v>33984.022</v>
+        <v>34955.3773</v>
       </c>
       <c r="G76" t="n">
-        <v>-3211000.885667704</v>
+        <v>-3746019.47551438</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,32 +3443,37 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10.75</v>
+        <v>11.22</v>
       </c>
       <c r="C77" t="n">
-        <v>10.75</v>
+        <v>11.22</v>
       </c>
       <c r="D77" t="n">
-        <v>10.75</v>
+        <v>11.22</v>
       </c>
       <c r="E77" t="n">
-        <v>10.75</v>
+        <v>11.22</v>
       </c>
       <c r="F77" t="n">
-        <v>1395.3488</v>
+        <v>968.1084</v>
       </c>
       <c r="G77" t="n">
-        <v>-3212396.234467704</v>
+        <v>-3745051.36711438</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,32 +3483,37 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10.65</v>
+        <v>11.42</v>
       </c>
       <c r="C78" t="n">
-        <v>10.65</v>
+        <v>11.42</v>
       </c>
       <c r="D78" t="n">
-        <v>10.65</v>
+        <v>11.42</v>
       </c>
       <c r="E78" t="n">
-        <v>10.65</v>
+        <v>11.42</v>
       </c>
       <c r="F78" t="n">
-        <v>33886.3641</v>
+        <v>44</v>
       </c>
       <c r="G78" t="n">
-        <v>-3246282.598567704</v>
+        <v>-3745007.36711438</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,32 +3523,37 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10.63</v>
+        <v>11.23</v>
       </c>
       <c r="C79" t="n">
-        <v>10.63</v>
+        <v>11.46</v>
       </c>
       <c r="D79" t="n">
-        <v>10.63</v>
+        <v>11.46</v>
       </c>
       <c r="E79" t="n">
-        <v>10.63</v>
+        <v>11.23</v>
       </c>
       <c r="F79" t="n">
-        <v>33430.734</v>
+        <v>99184.1669122164</v>
       </c>
       <c r="G79" t="n">
-        <v>-3279713.332567704</v>
+        <v>-3645823.200202164</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,32 +3563,37 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>10.79</v>
+        <v>11.42</v>
       </c>
       <c r="C80" t="n">
-        <v>10.86</v>
+        <v>11.42</v>
       </c>
       <c r="D80" t="n">
-        <v>10.86</v>
+        <v>11.46</v>
       </c>
       <c r="E80" t="n">
-        <v>10.79</v>
+        <v>11.42</v>
       </c>
       <c r="F80" t="n">
-        <v>25892.7816</v>
+        <v>60229.1153</v>
       </c>
       <c r="G80" t="n">
-        <v>-3253820.550967704</v>
+        <v>-3706052.315502164</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,32 +3603,37 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>10.86</v>
+        <v>11.23</v>
       </c>
       <c r="C81" t="n">
-        <v>10.99</v>
+        <v>11.23</v>
       </c>
       <c r="D81" t="n">
-        <v>10.99</v>
+        <v>11.23</v>
       </c>
       <c r="E81" t="n">
-        <v>10.86</v>
+        <v>11.23</v>
       </c>
       <c r="F81" t="n">
-        <v>2992.482821929027</v>
+        <v>85640.9184</v>
       </c>
       <c r="G81" t="n">
-        <v>-3250828.068145775</v>
+        <v>-3791693.233902164</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,32 +3643,37 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>10.98</v>
+        <v>11.41</v>
       </c>
       <c r="C82" t="n">
-        <v>10.99</v>
+        <v>11.41</v>
       </c>
       <c r="D82" t="n">
-        <v>10.99</v>
+        <v>11.41</v>
       </c>
       <c r="E82" t="n">
-        <v>10.98</v>
+        <v>11.41</v>
       </c>
       <c r="F82" t="n">
-        <v>37273.96017807097</v>
+        <v>44</v>
       </c>
       <c r="G82" t="n">
-        <v>-3250828.068145775</v>
+        <v>-3791649.233902164</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,32 +3683,37 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="C83" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="E83" t="n">
         <v>11</v>
       </c>
-      <c r="C83" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="D83" t="n">
-        <v>11</v>
-      </c>
-      <c r="E83" t="n">
-        <v>10.99</v>
-      </c>
       <c r="F83" t="n">
-        <v>12716.0714</v>
+        <v>28277.387</v>
       </c>
       <c r="G83" t="n">
-        <v>-3250828.068145775</v>
+        <v>-3819926.620902164</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,32 +3723,37 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10.99</v>
+        <v>11.3</v>
       </c>
       <c r="C84" t="n">
-        <v>10.98</v>
+        <v>11.2</v>
       </c>
       <c r="D84" t="n">
-        <v>11.01</v>
+        <v>11.4</v>
       </c>
       <c r="E84" t="n">
-        <v>10.98</v>
+        <v>11.2</v>
       </c>
       <c r="F84" t="n">
-        <v>163449.499</v>
+        <v>5985.967063157895</v>
       </c>
       <c r="G84" t="n">
-        <v>-3414277.567145775</v>
+        <v>-3813940.653839006</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,32 +3763,37 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.01</v>
+        <v>11.1</v>
       </c>
       <c r="C85" t="n">
-        <v>11.01</v>
+        <v>11.1</v>
       </c>
       <c r="D85" t="n">
-        <v>11.01</v>
+        <v>11.1</v>
       </c>
       <c r="E85" t="n">
-        <v>11.01</v>
+        <v>11.1</v>
       </c>
       <c r="F85" t="n">
-        <v>50</v>
+        <v>88190.65180000001</v>
       </c>
       <c r="G85" t="n">
-        <v>-3414227.567145775</v>
+        <v>-3902131.305639006</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,114 +3803,117 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10.98</v>
+        <v>11.3</v>
       </c>
       <c r="C86" t="n">
-        <v>10.98</v>
+        <v>11.3</v>
       </c>
       <c r="D86" t="n">
-        <v>10.98</v>
+        <v>11.3</v>
       </c>
       <c r="E86" t="n">
-        <v>10.98</v>
+        <v>11.3</v>
       </c>
       <c r="F86" t="n">
-        <v>9546.526121929026</v>
+        <v>45</v>
       </c>
       <c r="G86" t="n">
-        <v>-3423774.093267704</v>
+        <v>-3902086.305639006</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K86" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10.97</v>
+        <v>11.3</v>
       </c>
       <c r="C87" t="n">
-        <v>10.97</v>
+        <v>11.3</v>
       </c>
       <c r="D87" t="n">
-        <v>10.97</v>
+        <v>11.3</v>
       </c>
       <c r="E87" t="n">
-        <v>10.97</v>
+        <v>11.3</v>
       </c>
       <c r="F87" t="n">
-        <v>60682.3441</v>
+        <v>2311.9488</v>
       </c>
       <c r="G87" t="n">
-        <v>-3484456.437367704</v>
+        <v>-3902086.305639006</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="K87" t="n">
-        <v>11.01</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>10.85</v>
+        <v>11.33</v>
       </c>
       <c r="C88" t="n">
-        <v>10.85</v>
+        <v>11.4</v>
       </c>
       <c r="D88" t="n">
-        <v>10.85</v>
+        <v>11.4</v>
       </c>
       <c r="E88" t="n">
-        <v>10.85</v>
+        <v>11.33</v>
       </c>
       <c r="F88" t="n">
-        <v>63594.206</v>
+        <v>2598.2055</v>
       </c>
       <c r="G88" t="n">
-        <v>-3548050.643367704</v>
+        <v>-3899488.100139006</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3479,295 +3922,274 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>11.01</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10.81</v>
+        <v>11.37</v>
       </c>
       <c r="C89" t="n">
-        <v>10.81</v>
+        <v>11.37</v>
       </c>
       <c r="D89" t="n">
-        <v>10.81</v>
+        <v>11.37</v>
       </c>
       <c r="E89" t="n">
-        <v>10.81</v>
+        <v>11.37</v>
       </c>
       <c r="F89" t="n">
-        <v>11073.1496</v>
+        <v>910</v>
       </c>
       <c r="G89" t="n">
-        <v>-3559123.792967704</v>
+        <v>-3900398.100139006</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="K89" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>10.81</v>
+        <v>11.4</v>
       </c>
       <c r="C90" t="n">
-        <v>10.81</v>
+        <v>11.41</v>
       </c>
       <c r="D90" t="n">
-        <v>10.81</v>
+        <v>11.41</v>
       </c>
       <c r="E90" t="n">
-        <v>10.81</v>
+        <v>11.4</v>
       </c>
       <c r="F90" t="n">
-        <v>2097.6926</v>
+        <v>25992.2682</v>
       </c>
       <c r="G90" t="n">
-        <v>-3559123.792967704</v>
+        <v>-3874405.831939006</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="K90" t="n">
-        <v>10.85</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.01</v>
+        <v>11.37</v>
       </c>
       <c r="C91" t="n">
-        <v>11.01</v>
+        <v>11.37</v>
       </c>
       <c r="D91" t="n">
-        <v>11.01</v>
+        <v>11.37</v>
       </c>
       <c r="E91" t="n">
-        <v>11.01</v>
+        <v>11.37</v>
       </c>
       <c r="F91" t="n">
-        <v>46</v>
+        <v>411696.5925</v>
       </c>
       <c r="G91" t="n">
-        <v>-3559077.792967704</v>
+        <v>-4286102.424439006</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="K91" t="n">
-        <v>10.85</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>10.81</v>
+        <v>11.39</v>
       </c>
       <c r="C92" t="n">
-        <v>10.81</v>
+        <v>11.4</v>
       </c>
       <c r="D92" t="n">
-        <v>10.81</v>
+        <v>11.4</v>
       </c>
       <c r="E92" t="n">
-        <v>10.81</v>
+        <v>11.39</v>
       </c>
       <c r="F92" t="n">
-        <v>1612.9032</v>
+        <v>1271.026884649123</v>
       </c>
       <c r="G92" t="n">
-        <v>-3560690.696167704</v>
+        <v>-4284831.397554358</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K92" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.01</v>
+        <v>11.4</v>
       </c>
       <c r="C93" t="n">
-        <v>11.01</v>
+        <v>11.4</v>
       </c>
       <c r="D93" t="n">
-        <v>11.01</v>
+        <v>11.4</v>
       </c>
       <c r="E93" t="n">
-        <v>11.01</v>
+        <v>11.4</v>
       </c>
       <c r="F93" t="n">
-        <v>5682.205</v>
+        <v>13529.13341535088</v>
       </c>
       <c r="G93" t="n">
-        <v>-3555008.491167704</v>
+        <v>-4284831.397554358</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="K93" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.01</v>
+        <v>11.4</v>
       </c>
       <c r="C94" t="n">
-        <v>11.01</v>
+        <v>11.4</v>
       </c>
       <c r="D94" t="n">
-        <v>11.01</v>
+        <v>11.4</v>
       </c>
       <c r="E94" t="n">
-        <v>11.01</v>
+        <v>11.4</v>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>86470.86658464912</v>
       </c>
       <c r="G94" t="n">
-        <v>-3555008.491167704</v>
+        <v>-4284831.397554358</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K94" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.01</v>
+        <v>11.35</v>
       </c>
       <c r="C95" t="n">
-        <v>11.1</v>
+        <v>11.35</v>
       </c>
       <c r="D95" t="n">
-        <v>11.1</v>
+        <v>11.35</v>
       </c>
       <c r="E95" t="n">
-        <v>11.01</v>
+        <v>11.35</v>
       </c>
       <c r="F95" t="n">
-        <v>7988.596543063063</v>
+        <v>1884.9422</v>
       </c>
       <c r="G95" t="n">
-        <v>-3547019.894624641</v>
+        <v>-4286716.339754358</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3775,34 +4197,35 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.1</v>
+        <v>11.29</v>
       </c>
       <c r="C96" t="n">
-        <v>11.1</v>
+        <v>11.35</v>
       </c>
       <c r="D96" t="n">
-        <v>11.1</v>
+        <v>11.35</v>
       </c>
       <c r="E96" t="n">
-        <v>11.1</v>
+        <v>11.29</v>
       </c>
       <c r="F96" t="n">
-        <v>11340.64575693694</v>
+        <v>98645</v>
       </c>
       <c r="G96" t="n">
-        <v>-3547019.894624641</v>
+        <v>-4286716.339754358</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3810,34 +4233,35 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.1</v>
+        <v>11.29</v>
       </c>
       <c r="C97" t="n">
-        <v>11.1</v>
+        <v>11.01</v>
       </c>
       <c r="D97" t="n">
-        <v>11.1</v>
+        <v>11.29</v>
       </c>
       <c r="E97" t="n">
-        <v>11.1</v>
+        <v>11.01</v>
       </c>
       <c r="F97" t="n">
-        <v>52550</v>
+        <v>19440.649</v>
       </c>
       <c r="G97" t="n">
-        <v>-3547019.894624641</v>
+        <v>-4306156.988754358</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3845,28 +4269,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.11</v>
+        <v>11.29</v>
       </c>
       <c r="C98" t="n">
-        <v>11.11</v>
+        <v>11.29</v>
       </c>
       <c r="D98" t="n">
-        <v>11.11</v>
+        <v>11.29</v>
       </c>
       <c r="E98" t="n">
-        <v>11.11</v>
+        <v>11.29</v>
       </c>
       <c r="F98" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G98" t="n">
-        <v>-3546973.894624641</v>
+        <v>-4306111.988754358</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3880,34 +4305,35 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11</v>
+        <v>11.29</v>
       </c>
       <c r="C99" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="D99" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="E99" t="n">
-        <v>11</v>
+        <v>11.29</v>
       </c>
       <c r="F99" t="n">
-        <v>46211.4787</v>
+        <v>602.0367733628318</v>
       </c>
       <c r="G99" t="n">
-        <v>-3593185.373324641</v>
+        <v>-4305509.951980995</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3915,34 +4341,35 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.11</v>
+        <v>11.19</v>
       </c>
       <c r="C100" t="n">
-        <v>11.12</v>
+        <v>11.1</v>
       </c>
       <c r="D100" t="n">
-        <v>11.12</v>
+        <v>11.19</v>
       </c>
       <c r="E100" t="n">
-        <v>11.11</v>
+        <v>11.1</v>
       </c>
       <c r="F100" t="n">
-        <v>15830.83211748287</v>
+        <v>79257.6863</v>
       </c>
       <c r="G100" t="n">
-        <v>-3577354.541207158</v>
+        <v>-4384767.638280995</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3950,34 +4377,35 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.12</v>
+        <v>11.3</v>
       </c>
       <c r="C101" t="n">
-        <v>11.12</v>
+        <v>11.3</v>
       </c>
       <c r="D101" t="n">
-        <v>11.12</v>
+        <v>11.3</v>
       </c>
       <c r="E101" t="n">
-        <v>11.12</v>
+        <v>11.3</v>
       </c>
       <c r="F101" t="n">
-        <v>17942.5115</v>
+        <v>50</v>
       </c>
       <c r="G101" t="n">
-        <v>-3577354.541207158</v>
+        <v>-4384717.638280995</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -3985,34 +4413,35 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.12</v>
+        <v>11.1</v>
       </c>
       <c r="C102" t="n">
-        <v>11.12</v>
+        <v>11.1</v>
       </c>
       <c r="D102" t="n">
-        <v>11.12</v>
+        <v>11.1</v>
       </c>
       <c r="E102" t="n">
-        <v>11.12</v>
+        <v>11.1</v>
       </c>
       <c r="F102" t="n">
-        <v>13007.0507</v>
+        <v>5000</v>
       </c>
       <c r="G102" t="n">
-        <v>-3577354.541207158</v>
+        <v>-4389717.638280995</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4020,34 +4449,35 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>10.91</v>
+        <v>11.1</v>
       </c>
       <c r="C103" t="n">
-        <v>10.91</v>
+        <v>11.01</v>
       </c>
       <c r="D103" t="n">
-        <v>10.91</v>
+        <v>11.1</v>
       </c>
       <c r="E103" t="n">
-        <v>10.91</v>
+        <v>11.01</v>
       </c>
       <c r="F103" t="n">
-        <v>36399.1944</v>
+        <v>15043.3329</v>
       </c>
       <c r="G103" t="n">
-        <v>-3613753.735607157</v>
+        <v>-4404760.971180995</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4055,34 +4485,35 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.11</v>
+        <v>11.01</v>
       </c>
       <c r="C104" t="n">
-        <v>11.11</v>
+        <v>11.01</v>
       </c>
       <c r="D104" t="n">
-        <v>11.11</v>
+        <v>11.01</v>
       </c>
       <c r="E104" t="n">
-        <v>11.11</v>
+        <v>11.01</v>
       </c>
       <c r="F104" t="n">
-        <v>46</v>
+        <v>51834.007</v>
       </c>
       <c r="G104" t="n">
-        <v>-3613707.735607157</v>
+        <v>-4404760.971180995</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4090,34 +4521,35 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.03</v>
+        <v>11.2</v>
       </c>
       <c r="C105" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D105" t="n">
-        <v>11.03</v>
+        <v>11.2</v>
       </c>
       <c r="E105" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F105" t="n">
-        <v>13076.2691</v>
+        <v>45</v>
       </c>
       <c r="G105" t="n">
-        <v>-3626784.004707158</v>
+        <v>-4404715.971180995</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4125,34 +4557,35 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.11</v>
+        <v>11.01</v>
       </c>
       <c r="C106" t="n">
-        <v>11.11</v>
+        <v>11</v>
       </c>
       <c r="D106" t="n">
-        <v>11.11</v>
+        <v>11.01</v>
       </c>
       <c r="E106" t="n">
-        <v>11.11</v>
+        <v>11</v>
       </c>
       <c r="F106" t="n">
-        <v>46</v>
+        <v>272490.1864</v>
       </c>
       <c r="G106" t="n">
-        <v>-3626738.004707158</v>
+        <v>-4677206.157580995</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4160,34 +4593,35 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11</v>
+        <v>11.22</v>
       </c>
       <c r="C107" t="n">
-        <v>11</v>
+        <v>11.22</v>
       </c>
       <c r="D107" t="n">
-        <v>11</v>
+        <v>11.22</v>
       </c>
       <c r="E107" t="n">
-        <v>11</v>
+        <v>11.22</v>
       </c>
       <c r="F107" t="n">
-        <v>35155.3094</v>
+        <v>45</v>
       </c>
       <c r="G107" t="n">
-        <v>-3661893.314107158</v>
+        <v>-4677161.157580995</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4195,28 +4629,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11</v>
+        <v>11.01</v>
       </c>
       <c r="C108" t="n">
-        <v>11.11</v>
+        <v>11.22</v>
       </c>
       <c r="D108" t="n">
-        <v>11.11</v>
+        <v>11.22</v>
       </c>
       <c r="E108" t="n">
-        <v>11</v>
+        <v>11.01</v>
       </c>
       <c r="F108" t="n">
-        <v>7539.99456930693</v>
+        <v>67755.6225</v>
       </c>
       <c r="G108" t="n">
-        <v>-3654353.319537851</v>
+        <v>-4677161.157580995</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4230,34 +4665,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.11</v>
+        <v>11.01</v>
       </c>
       <c r="C109" t="n">
-        <v>11.11</v>
+        <v>11.01</v>
       </c>
       <c r="D109" t="n">
-        <v>11.11</v>
+        <v>11.01</v>
       </c>
       <c r="E109" t="n">
-        <v>11.11</v>
+        <v>11.01</v>
       </c>
       <c r="F109" t="n">
-        <v>245.9485</v>
+        <v>57554.6823</v>
       </c>
       <c r="G109" t="n">
-        <v>-3654353.319537851</v>
+        <v>-4734715.839880995</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4265,28 +4701,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.11</v>
+        <v>11.22</v>
       </c>
       <c r="C110" t="n">
-        <v>11.11</v>
+        <v>11.22</v>
       </c>
       <c r="D110" t="n">
-        <v>11.11</v>
+        <v>11.22</v>
       </c>
       <c r="E110" t="n">
-        <v>11.11</v>
+        <v>11.22</v>
       </c>
       <c r="F110" t="n">
-        <v>241.5697</v>
+        <v>45</v>
       </c>
       <c r="G110" t="n">
-        <v>-3654353.319537851</v>
+        <v>-4734670.839880995</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4300,28 +4737,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.11</v>
+        <v>11.02</v>
       </c>
       <c r="C111" t="n">
-        <v>11.11</v>
+        <v>11.02</v>
       </c>
       <c r="D111" t="n">
-        <v>11.11</v>
+        <v>11.02</v>
       </c>
       <c r="E111" t="n">
-        <v>11.11</v>
+        <v>11.02</v>
       </c>
       <c r="F111" t="n">
-        <v>43378.2121</v>
+        <v>22053</v>
       </c>
       <c r="G111" t="n">
-        <v>-3654353.319537851</v>
+        <v>-4756723.839880995</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4335,28 +4773,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.11</v>
+        <v>11.22</v>
       </c>
       <c r="C112" t="n">
-        <v>11.11</v>
+        <v>11.22</v>
       </c>
       <c r="D112" t="n">
-        <v>11.11</v>
+        <v>11.22</v>
       </c>
       <c r="E112" t="n">
-        <v>11.11</v>
+        <v>11.22</v>
       </c>
       <c r="F112" t="n">
-        <v>3.0693069306931e-05</v>
+        <v>45</v>
       </c>
       <c r="G112" t="n">
-        <v>-3654353.319537851</v>
+        <v>-4756678.839880995</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4370,28 +4809,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.12</v>
+        <v>11.22</v>
       </c>
       <c r="C113" t="n">
-        <v>11.12</v>
+        <v>11.41</v>
       </c>
       <c r="D113" t="n">
-        <v>11.12</v>
+        <v>11.41</v>
       </c>
       <c r="E113" t="n">
-        <v>11.12</v>
+        <v>11.22</v>
       </c>
       <c r="F113" t="n">
-        <v>15498.86002347122</v>
+        <v>49528.77782515337</v>
       </c>
       <c r="G113" t="n">
-        <v>-3638854.45951438</v>
+        <v>-4707150.062055842</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4405,34 +4845,35 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.13</v>
+        <v>11.33</v>
       </c>
       <c r="C114" t="n">
-        <v>11.13</v>
+        <v>11.33</v>
       </c>
       <c r="D114" t="n">
-        <v>11.13</v>
+        <v>11.33</v>
       </c>
       <c r="E114" t="n">
-        <v>11.13</v>
+        <v>11.33</v>
       </c>
       <c r="F114" t="n">
-        <v>2375.6362</v>
+        <v>3341.5367</v>
       </c>
       <c r="G114" t="n">
-        <v>-3636478.82331438</v>
+        <v>-4710491.598755842</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4440,34 +4881,35 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.13</v>
+        <v>11.41</v>
       </c>
       <c r="C115" t="n">
-        <v>11.13</v>
+        <v>11.41</v>
       </c>
       <c r="D115" t="n">
-        <v>11.13</v>
+        <v>11.41</v>
       </c>
       <c r="E115" t="n">
-        <v>11.13</v>
+        <v>11.41</v>
       </c>
       <c r="F115" t="n">
-        <v>13801.0094</v>
+        <v>44</v>
       </c>
       <c r="G115" t="n">
-        <v>-3636478.82331438</v>
+        <v>-4710447.598755842</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4475,34 +4917,35 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.13</v>
+        <v>11.21</v>
       </c>
       <c r="C116" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D116" t="n">
-        <v>11.13</v>
+        <v>11.21</v>
       </c>
       <c r="E116" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F116" t="n">
-        <v>109585.6522</v>
+        <v>50705.8971</v>
       </c>
       <c r="G116" t="n">
-        <v>-3746064.47551438</v>
+        <v>-4761153.495855842</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4510,34 +4953,35 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="C117" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="D117" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="E117" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="F117" t="n">
         <v>45</v>
       </c>
       <c r="G117" t="n">
-        <v>-3746019.47551438</v>
+        <v>-4761108.495855842</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4545,34 +4989,35 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C118" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="D118" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="E118" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F118" t="n">
-        <v>34955.3773</v>
+        <v>4159.6879</v>
       </c>
       <c r="G118" t="n">
-        <v>-3746019.47551438</v>
+        <v>-4765268.183755842</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4580,34 +5025,35 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.22</v>
+        <v>11.29</v>
       </c>
       <c r="C119" t="n">
-        <v>11.22</v>
+        <v>11.29</v>
       </c>
       <c r="D119" t="n">
-        <v>11.22</v>
+        <v>11.29</v>
       </c>
       <c r="E119" t="n">
-        <v>11.22</v>
+        <v>11.29</v>
       </c>
       <c r="F119" t="n">
-        <v>968.1084</v>
+        <v>45</v>
       </c>
       <c r="G119" t="n">
-        <v>-3745051.36711438</v>
+        <v>-4765223.183755842</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4615,34 +5061,35 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.42</v>
+        <v>11.29</v>
       </c>
       <c r="C120" t="n">
-        <v>11.42</v>
+        <v>11.29</v>
       </c>
       <c r="D120" t="n">
-        <v>11.42</v>
+        <v>11.29</v>
       </c>
       <c r="E120" t="n">
-        <v>11.42</v>
+        <v>11.29</v>
       </c>
       <c r="F120" t="n">
-        <v>44</v>
+        <v>2000</v>
       </c>
       <c r="G120" t="n">
-        <v>-3745007.36711438</v>
+        <v>-4765223.183755842</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4650,34 +5097,35 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.23</v>
+        <v>11.29</v>
       </c>
       <c r="C121" t="n">
-        <v>11.46</v>
+        <v>11.41</v>
       </c>
       <c r="D121" t="n">
-        <v>11.46</v>
+        <v>11.41</v>
       </c>
       <c r="E121" t="n">
-        <v>11.23</v>
+        <v>11.29</v>
       </c>
       <c r="F121" t="n">
-        <v>99184.1669122164</v>
+        <v>11433.56888369851</v>
       </c>
       <c r="G121" t="n">
-        <v>-3645823.200202164</v>
+        <v>-4753789.614872144</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4685,28 +5133,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.42</v>
+        <v>11.41</v>
       </c>
       <c r="C122" t="n">
-        <v>11.42</v>
+        <v>11.41</v>
       </c>
       <c r="D122" t="n">
-        <v>11.46</v>
+        <v>11.41</v>
       </c>
       <c r="E122" t="n">
-        <v>11.42</v>
+        <v>11.41</v>
       </c>
       <c r="F122" t="n">
-        <v>60229.1153</v>
+        <v>10000</v>
       </c>
       <c r="G122" t="n">
-        <v>-3706052.315502164</v>
+        <v>-4753789.614872144</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4720,34 +5169,35 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.23</v>
+        <v>11.41</v>
       </c>
       <c r="C123" t="n">
-        <v>11.23</v>
+        <v>11.41</v>
       </c>
       <c r="D123" t="n">
-        <v>11.23</v>
+        <v>11.41</v>
       </c>
       <c r="E123" t="n">
-        <v>11.23</v>
+        <v>11.41</v>
       </c>
       <c r="F123" t="n">
-        <v>85640.9184</v>
+        <v>30000</v>
       </c>
       <c r="G123" t="n">
-        <v>-3791693.233902164</v>
+        <v>-4753789.614872144</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4755,34 +5205,35 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.41</v>
+        <v>11.3</v>
       </c>
       <c r="C124" t="n">
-        <v>11.41</v>
+        <v>11.4</v>
       </c>
       <c r="D124" t="n">
-        <v>11.41</v>
+        <v>11.4</v>
       </c>
       <c r="E124" t="n">
-        <v>11.41</v>
+        <v>11.3</v>
       </c>
       <c r="F124" t="n">
-        <v>44</v>
+        <v>50000</v>
       </c>
       <c r="G124" t="n">
-        <v>-3791649.233902164</v>
+        <v>-4803789.614872144</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4790,34 +5241,35 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.23</v>
+        <v>11.2</v>
       </c>
       <c r="C125" t="n">
-        <v>11.1</v>
+        <v>11.12</v>
       </c>
       <c r="D125" t="n">
-        <v>11.23</v>
+        <v>11.2</v>
       </c>
       <c r="E125" t="n">
-        <v>11</v>
+        <v>11.12</v>
       </c>
       <c r="F125" t="n">
-        <v>28277.387</v>
+        <v>24304</v>
       </c>
       <c r="G125" t="n">
-        <v>-3819926.620902164</v>
+        <v>-4828093.614872144</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4825,34 +5277,35 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.3</v>
+        <v>11.12</v>
       </c>
       <c r="C126" t="n">
-        <v>11.2</v>
+        <v>11.12</v>
       </c>
       <c r="D126" t="n">
-        <v>11.4</v>
+        <v>11.12</v>
       </c>
       <c r="E126" t="n">
-        <v>11.2</v>
+        <v>11.12</v>
       </c>
       <c r="F126" t="n">
-        <v>5985.967063157895</v>
+        <v>813.6612</v>
       </c>
       <c r="G126" t="n">
-        <v>-3813940.653839006</v>
+        <v>-4828093.614872144</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4860,28 +5313,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="C127" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="D127" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="E127" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="F127" t="n">
-        <v>88190.65180000001</v>
+        <v>45</v>
       </c>
       <c r="G127" t="n">
-        <v>-3902131.305639006</v>
+        <v>-4828048.614872144</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4895,28 +5349,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="C128" t="n">
-        <v>11.3</v>
+        <v>11.48</v>
       </c>
       <c r="D128" t="n">
-        <v>11.3</v>
+        <v>11.48</v>
       </c>
       <c r="E128" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="F128" t="n">
-        <v>45</v>
+        <v>100622.9794</v>
       </c>
       <c r="G128" t="n">
-        <v>-3902086.305639006</v>
+        <v>-4727425.635472144</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4930,28 +5385,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.3</v>
+        <v>11.49</v>
       </c>
       <c r="C129" t="n">
-        <v>11.3</v>
+        <v>11.75</v>
       </c>
       <c r="D129" t="n">
-        <v>11.3</v>
+        <v>11.75</v>
       </c>
       <c r="E129" t="n">
-        <v>11.3</v>
+        <v>11.49</v>
       </c>
       <c r="F129" t="n">
-        <v>2311.9488</v>
+        <v>48408.1011</v>
       </c>
       <c r="G129" t="n">
-        <v>-3902086.305639006</v>
+        <v>-4679017.534372144</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4965,28 +5421,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.33</v>
+        <v>11.75</v>
       </c>
       <c r="C130" t="n">
-        <v>11.4</v>
+        <v>11.89</v>
       </c>
       <c r="D130" t="n">
-        <v>11.4</v>
+        <v>11.89</v>
       </c>
       <c r="E130" t="n">
-        <v>11.33</v>
+        <v>11.75</v>
       </c>
       <c r="F130" t="n">
-        <v>2598.2055</v>
+        <v>187466.1749</v>
       </c>
       <c r="G130" t="n">
-        <v>-3899488.100139006</v>
+        <v>-4491551.359472144</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5000,34 +5457,35 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.37</v>
+        <v>11.81</v>
       </c>
       <c r="C131" t="n">
-        <v>11.37</v>
+        <v>11.42</v>
       </c>
       <c r="D131" t="n">
-        <v>11.37</v>
+        <v>11.81</v>
       </c>
       <c r="E131" t="n">
-        <v>11.37</v>
+        <v>11.42</v>
       </c>
       <c r="F131" t="n">
-        <v>910</v>
+        <v>100057</v>
       </c>
       <c r="G131" t="n">
-        <v>-3900398.100139006</v>
+        <v>-4591608.359472144</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5035,34 +5493,35 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="C132" t="n">
-        <v>11.41</v>
+        <v>11.81</v>
       </c>
       <c r="D132" t="n">
-        <v>11.41</v>
+        <v>11.81</v>
       </c>
       <c r="E132" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="F132" t="n">
-        <v>25992.2682</v>
+        <v>8998.993</v>
       </c>
       <c r="G132" t="n">
-        <v>-3874405.831939006</v>
+        <v>-4582609.366472145</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5070,34 +5529,35 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11.37</v>
+        <v>11.2</v>
       </c>
       <c r="C133" t="n">
-        <v>11.37</v>
+        <v>11.2</v>
       </c>
       <c r="D133" t="n">
-        <v>11.37</v>
+        <v>11.2</v>
       </c>
       <c r="E133" t="n">
-        <v>11.37</v>
+        <v>11.2</v>
       </c>
       <c r="F133" t="n">
-        <v>411696.5925</v>
+        <v>4903.406</v>
       </c>
       <c r="G133" t="n">
-        <v>-4286102.424439006</v>
+        <v>-4587512.772472145</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5105,34 +5565,35 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.39</v>
+        <v>11.74</v>
       </c>
       <c r="C134" t="n">
-        <v>11.4</v>
+        <v>11.74</v>
       </c>
       <c r="D134" t="n">
-        <v>11.4</v>
+        <v>11.74</v>
       </c>
       <c r="E134" t="n">
-        <v>11.39</v>
+        <v>11.74</v>
       </c>
       <c r="F134" t="n">
-        <v>1271.026884649123</v>
+        <v>43</v>
       </c>
       <c r="G134" t="n">
-        <v>-4284831.397554358</v>
+        <v>-4587469.772472145</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5140,34 +5601,35 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.4</v>
+        <v>11.69</v>
       </c>
       <c r="C135" t="n">
-        <v>11.4</v>
+        <v>11.69</v>
       </c>
       <c r="D135" t="n">
-        <v>11.4</v>
+        <v>11.69</v>
       </c>
       <c r="E135" t="n">
-        <v>11.4</v>
+        <v>11.69</v>
       </c>
       <c r="F135" t="n">
-        <v>13529.13341535088</v>
+        <v>4800.0057</v>
       </c>
       <c r="G135" t="n">
-        <v>-4284831.397554358</v>
+        <v>-4592269.778172145</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5175,34 +5637,35 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.4</v>
+        <v>11.22</v>
       </c>
       <c r="C136" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="D136" t="n">
-        <v>11.4</v>
+        <v>11.22</v>
       </c>
       <c r="E136" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="F136" t="n">
-        <v>86470.86658464912</v>
+        <v>5044.7801</v>
       </c>
       <c r="G136" t="n">
-        <v>-4284831.397554358</v>
+        <v>-4597314.558272145</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5210,34 +5673,35 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.35</v>
+        <v>11.2</v>
       </c>
       <c r="C137" t="n">
-        <v>11.35</v>
+        <v>11.2</v>
       </c>
       <c r="D137" t="n">
-        <v>11.35</v>
+        <v>11.2</v>
       </c>
       <c r="E137" t="n">
-        <v>11.35</v>
+        <v>11.2</v>
       </c>
       <c r="F137" t="n">
-        <v>1884.9422</v>
+        <v>4132.5253</v>
       </c>
       <c r="G137" t="n">
-        <v>-4286716.339754358</v>
+        <v>-4597314.558272145</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5245,34 +5709,35 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.29</v>
+        <v>11.6</v>
       </c>
       <c r="C138" t="n">
-        <v>11.35</v>
+        <v>11.6</v>
       </c>
       <c r="D138" t="n">
-        <v>11.35</v>
+        <v>11.6</v>
       </c>
       <c r="E138" t="n">
-        <v>11.29</v>
+        <v>11.6</v>
       </c>
       <c r="F138" t="n">
-        <v>98645</v>
+        <v>44</v>
       </c>
       <c r="G138" t="n">
-        <v>-4286716.339754358</v>
+        <v>-4597270.558272145</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5280,34 +5745,35 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.29</v>
+        <v>11.4</v>
       </c>
       <c r="C139" t="n">
-        <v>11.01</v>
+        <v>11.4</v>
       </c>
       <c r="D139" t="n">
-        <v>11.29</v>
+        <v>11.4</v>
       </c>
       <c r="E139" t="n">
-        <v>11.01</v>
+        <v>11.4</v>
       </c>
       <c r="F139" t="n">
-        <v>19440.649</v>
+        <v>50</v>
       </c>
       <c r="G139" t="n">
-        <v>-4306156.988754358</v>
+        <v>-4597320.558272145</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5315,34 +5781,35 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>11.29</v>
+        <v>11.25</v>
       </c>
       <c r="C140" t="n">
-        <v>11.29</v>
+        <v>11.25</v>
       </c>
       <c r="D140" t="n">
-        <v>11.29</v>
+        <v>11.25</v>
       </c>
       <c r="E140" t="n">
-        <v>11.29</v>
+        <v>11.25</v>
       </c>
       <c r="F140" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G140" t="n">
-        <v>-4306111.988754358</v>
+        <v>-4597370.558272145</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5350,34 +5817,35 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>11.29</v>
+        <v>11.25</v>
       </c>
       <c r="C141" t="n">
-        <v>11.3</v>
+        <v>11.25</v>
       </c>
       <c r="D141" t="n">
-        <v>11.3</v>
+        <v>11.25</v>
       </c>
       <c r="E141" t="n">
-        <v>11.29</v>
+        <v>11.25</v>
       </c>
       <c r="F141" t="n">
-        <v>602.0367733628318</v>
+        <v>4413.7444</v>
       </c>
       <c r="G141" t="n">
-        <v>-4305509.951980995</v>
+        <v>-4597370.558272145</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5385,28 +5853,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>11.19</v>
+        <v>11.25</v>
       </c>
       <c r="C142" t="n">
-        <v>11.1</v>
+        <v>11.25</v>
       </c>
       <c r="D142" t="n">
-        <v>11.19</v>
+        <v>11.25</v>
       </c>
       <c r="E142" t="n">
-        <v>11.1</v>
+        <v>11.25</v>
       </c>
       <c r="F142" t="n">
-        <v>79257.6863</v>
+        <v>9395.6546</v>
       </c>
       <c r="G142" t="n">
-        <v>-4384767.638280995</v>
+        <v>-4597370.558272145</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5420,6 +5889,7 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5438,16 +5908,16 @@
         <v>11.3</v>
       </c>
       <c r="F143" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G143" t="n">
-        <v>-4384717.638280995</v>
+        <v>-4597325.558272145</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5455,34 +5925,35 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>11.1</v>
+        <v>11.23</v>
       </c>
       <c r="C144" t="n">
-        <v>11.1</v>
+        <v>11.15</v>
       </c>
       <c r="D144" t="n">
-        <v>11.1</v>
+        <v>11.23</v>
       </c>
       <c r="E144" t="n">
-        <v>11.1</v>
+        <v>11.15</v>
       </c>
       <c r="F144" t="n">
-        <v>5000</v>
+        <v>26896</v>
       </c>
       <c r="G144" t="n">
-        <v>-4389717.638280995</v>
+        <v>-4624221.558272145</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -5490,28 +5961,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11.1</v>
+        <v>11.17</v>
       </c>
       <c r="C145" t="n">
-        <v>11.01</v>
+        <v>11.16</v>
       </c>
       <c r="D145" t="n">
-        <v>11.1</v>
+        <v>11.17</v>
       </c>
       <c r="E145" t="n">
-        <v>11.01</v>
+        <v>11.16</v>
       </c>
       <c r="F145" t="n">
-        <v>15043.3329</v>
+        <v>89451.44620000001</v>
       </c>
       <c r="G145" t="n">
-        <v>-4404760.971180995</v>
+        <v>-4534770.112072145</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5525,28 +5997,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.01</v>
+        <v>11.15</v>
       </c>
       <c r="C146" t="n">
-        <v>11.01</v>
+        <v>11.15</v>
       </c>
       <c r="D146" t="n">
-        <v>11.01</v>
+        <v>11.15</v>
       </c>
       <c r="E146" t="n">
-        <v>11.01</v>
+        <v>11.15</v>
       </c>
       <c r="F146" t="n">
-        <v>51834.007</v>
+        <v>96532.1586</v>
       </c>
       <c r="G146" t="n">
-        <v>-4404760.971180995</v>
+        <v>-4631302.270672144</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5560,28 +6033,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.2</v>
+        <v>11.14</v>
       </c>
       <c r="C147" t="n">
-        <v>11.2</v>
+        <v>11.14</v>
       </c>
       <c r="D147" t="n">
-        <v>11.2</v>
+        <v>11.14</v>
       </c>
       <c r="E147" t="n">
-        <v>11.2</v>
+        <v>11.14</v>
       </c>
       <c r="F147" t="n">
-        <v>45</v>
+        <v>16446.0373</v>
       </c>
       <c r="G147" t="n">
-        <v>-4404715.971180995</v>
+        <v>-4647748.307972144</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5595,28 +6069,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>11.01</v>
+        <v>11.12</v>
       </c>
       <c r="C148" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="D148" t="n">
-        <v>11.01</v>
+        <v>11.12</v>
       </c>
       <c r="E148" t="n">
-        <v>11</v>
+        <v>11.11</v>
       </c>
       <c r="F148" t="n">
-        <v>272490.1864</v>
+        <v>101256.1889</v>
       </c>
       <c r="G148" t="n">
-        <v>-4677206.157580995</v>
+        <v>-4749004.496872145</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5630,28 +6105,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>11.22</v>
+        <v>11.12</v>
       </c>
       <c r="C149" t="n">
-        <v>11.22</v>
+        <v>11.12</v>
       </c>
       <c r="D149" t="n">
-        <v>11.22</v>
+        <v>11.12</v>
       </c>
       <c r="E149" t="n">
-        <v>11.22</v>
+        <v>11.12</v>
       </c>
       <c r="F149" t="n">
-        <v>45</v>
+        <v>3238.9695</v>
       </c>
       <c r="G149" t="n">
-        <v>-4677161.157580995</v>
+        <v>-4745765.527372145</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5665,28 +6141,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>11.01</v>
+        <v>11.14</v>
       </c>
       <c r="C150" t="n">
-        <v>11.22</v>
+        <v>11.15</v>
       </c>
       <c r="D150" t="n">
-        <v>11.22</v>
+        <v>11.15</v>
       </c>
       <c r="E150" t="n">
-        <v>11.01</v>
+        <v>11.14</v>
       </c>
       <c r="F150" t="n">
-        <v>67755.6225</v>
+        <v>39514.7735</v>
       </c>
       <c r="G150" t="n">
-        <v>-4677161.157580995</v>
+        <v>-4706250.753872145</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5700,28 +6177,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>11.01</v>
+        <v>11.15</v>
       </c>
       <c r="C151" t="n">
-        <v>11.01</v>
+        <v>11.15</v>
       </c>
       <c r="D151" t="n">
-        <v>11.01</v>
+        <v>11.15</v>
       </c>
       <c r="E151" t="n">
-        <v>11.01</v>
+        <v>11.15</v>
       </c>
       <c r="F151" t="n">
-        <v>57554.6823</v>
+        <v>100</v>
       </c>
       <c r="G151" t="n">
-        <v>-4734715.839880995</v>
+        <v>-4706250.753872145</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5735,28 +6213,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>11.22</v>
+        <v>11.15</v>
       </c>
       <c r="C152" t="n">
-        <v>11.22</v>
+        <v>11.15</v>
       </c>
       <c r="D152" t="n">
-        <v>11.22</v>
+        <v>11.15</v>
       </c>
       <c r="E152" t="n">
-        <v>11.22</v>
+        <v>11.15</v>
       </c>
       <c r="F152" t="n">
-        <v>45</v>
+        <v>100000</v>
       </c>
       <c r="G152" t="n">
-        <v>-4734670.839880995</v>
+        <v>-4706250.753872145</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5770,28 +6249,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>11.02</v>
+        <v>11.15</v>
       </c>
       <c r="C153" t="n">
-        <v>11.02</v>
+        <v>11.15</v>
       </c>
       <c r="D153" t="n">
-        <v>11.02</v>
+        <v>11.15</v>
       </c>
       <c r="E153" t="n">
-        <v>11.02</v>
+        <v>11.15</v>
       </c>
       <c r="F153" t="n">
-        <v>22053</v>
+        <v>18887.5964</v>
       </c>
       <c r="G153" t="n">
-        <v>-4756723.839880995</v>
+        <v>-4706250.753872145</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5805,28 +6285,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11.22</v>
+        <v>11.15</v>
       </c>
       <c r="C154" t="n">
-        <v>11.22</v>
+        <v>11.16</v>
       </c>
       <c r="D154" t="n">
-        <v>11.22</v>
+        <v>11.16</v>
       </c>
       <c r="E154" t="n">
-        <v>11.22</v>
+        <v>11.15</v>
       </c>
       <c r="F154" t="n">
-        <v>45</v>
+        <v>58799.8431</v>
       </c>
       <c r="G154" t="n">
-        <v>-4756678.839880995</v>
+        <v>-4647450.910772145</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5840,1476 +6321,7 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="C155" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="D155" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="E155" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="F155" t="n">
-        <v>49528.77782515337</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-4707150.062055842</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="C156" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="D156" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="E156" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="F156" t="n">
-        <v>3341.5367</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-4710491.598755842</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="C157" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="D157" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="E157" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="F157" t="n">
-        <v>44</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-4710447.598755842</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="C158" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D158" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="E158" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F158" t="n">
-        <v>50705.8971</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-4761153.495855842</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C159" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D159" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E159" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F159" t="n">
-        <v>45</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-4761108.495855842</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C160" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D160" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E160" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F160" t="n">
-        <v>4159.6879</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-4765268.183755842</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="C161" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="D161" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="E161" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="F161" t="n">
-        <v>45</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-4765223.183755842</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="C162" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="D162" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="E162" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-4765223.183755842</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="C163" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="D163" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="E163" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="F163" t="n">
-        <v>11433.56888369851</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-4753789.614872144</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="C164" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="D164" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="E164" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="F164" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-4753789.614872144</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="C165" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="D165" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="E165" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="F165" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-4753789.614872144</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C166" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D166" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E166" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F166" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-4803789.614872144</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C167" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="D167" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E167" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="F167" t="n">
-        <v>24304</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-4828093.614872144</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="C168" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="D168" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="E168" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="F168" t="n">
-        <v>813.6612</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-4828093.614872144</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C169" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D169" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E169" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F169" t="n">
-        <v>45</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-4828048.614872144</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C170" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="D170" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="E170" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F170" t="n">
-        <v>100622.9794</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-4727425.635472144</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="C171" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="D171" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="E171" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="F171" t="n">
-        <v>48408.1011</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-4679017.534372144</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="C172" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D172" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E172" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="F172" t="n">
-        <v>187466.1749</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-4491551.359472144</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="C173" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="D173" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="E173" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="F173" t="n">
-        <v>100057</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-4591608.359472144</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C174" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="D174" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="E174" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F174" t="n">
-        <v>8998.993</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-4582609.366472145</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C175" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D175" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E175" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F175" t="n">
-        <v>4903.406</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-4587512.772472145</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="C176" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="D176" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="E176" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="F176" t="n">
-        <v>43</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-4587469.772472145</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C177" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D177" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E177" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F177" t="n">
-        <v>4800.0057</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-4592269.778172145</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="C178" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D178" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="E178" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F178" t="n">
-        <v>5044.7801</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-4597314.558272145</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C179" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D179" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E179" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F179" t="n">
-        <v>4132.5253</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-4597314.558272145</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C180" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D180" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E180" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F180" t="n">
-        <v>44</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-4597270.558272145</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C181" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D181" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E181" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F181" t="n">
-        <v>50</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-4597320.558272145</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="C182" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="D182" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="E182" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F182" t="n">
-        <v>50</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-4597370.558272145</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="C183" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="D183" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="E183" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F183" t="n">
-        <v>4413.7444</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-4597370.558272145</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="C184" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="D184" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="E184" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F184" t="n">
-        <v>9395.6546</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-4597370.558272145</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C185" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D185" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E185" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F185" t="n">
-        <v>45</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-4597325.558272145</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="C186" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="D186" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="E186" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="F186" t="n">
-        <v>26896</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-4624221.558272145</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="C187" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="D187" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="E187" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="F187" t="n">
-        <v>89451.44620000001</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-4534770.112072145</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="C188" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="D188" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="E188" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="F188" t="n">
-        <v>96532.1586</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-4631302.270672144</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="C189" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="D189" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="E189" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="F189" t="n">
-        <v>16446.0373</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-4647748.307972144</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="C190" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="D190" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="E190" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="F190" t="n">
-        <v>101256.1889</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-4749004.496872145</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="C191" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="D191" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="E191" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="F191" t="n">
-        <v>3238.9695</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-4745765.527372145</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="C192" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="D192" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="E192" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="F192" t="n">
-        <v>39514.7735</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-4706250.753872145</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="C193" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="D193" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="E193" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="F193" t="n">
-        <v>100</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-4706250.753872145</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="C194" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="D194" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="E194" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="F194" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-4706250.753872145</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="C195" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="D195" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="E195" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="F195" t="n">
-        <v>18887.5964</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-4706250.753872145</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="C196" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="D196" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="E196" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="F196" t="n">
-        <v>58799.8431</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-4647450.910772145</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
+      <c r="N154" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest TRV.xlsx
+++ b/BackTest/2020-01-16 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:N225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.52</v>
+        <v>11.22</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7</v>
+        <v>11.19</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7</v>
+        <v>11.22</v>
       </c>
       <c r="E2" t="n">
-        <v>10.52</v>
+        <v>11.19</v>
       </c>
       <c r="F2" t="n">
-        <v>4870.271</v>
+        <v>104453.7657</v>
       </c>
       <c r="G2" t="n">
-        <v>-2960951.824092095</v>
+        <v>-615074.5081094711</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,38 +474,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.7</v>
+        <v>11.22</v>
       </c>
       <c r="C3" t="n">
-        <v>10.81</v>
+        <v>11.22</v>
       </c>
       <c r="D3" t="n">
-        <v>10.81</v>
+        <v>11.22</v>
       </c>
       <c r="E3" t="n">
-        <v>10.7</v>
+        <v>11.22</v>
       </c>
       <c r="F3" t="n">
-        <v>4024.1667</v>
+        <v>45</v>
       </c>
       <c r="G3" t="n">
-        <v>-2956927.657392095</v>
+        <v>-615029.5081094711</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -516,38 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.81</v>
+        <v>11.22</v>
       </c>
       <c r="C4" t="n">
-        <v>10.81</v>
+        <v>11.22</v>
       </c>
       <c r="D4" t="n">
-        <v>10.81</v>
+        <v>11.22</v>
       </c>
       <c r="E4" t="n">
-        <v>10.81</v>
+        <v>11.22</v>
       </c>
       <c r="F4" t="n">
-        <v>1000</v>
+        <v>20832.3813</v>
       </c>
       <c r="G4" t="n">
-        <v>-2956927.657392095</v>
+        <v>-615029.5081094711</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,38 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.75</v>
+        <v>11.29</v>
       </c>
       <c r="C5" t="n">
-        <v>10.75</v>
+        <v>11.22</v>
       </c>
       <c r="D5" t="n">
-        <v>10.75</v>
+        <v>11.29</v>
       </c>
       <c r="E5" t="n">
-        <v>10.75</v>
+        <v>11.22</v>
       </c>
       <c r="F5" t="n">
-        <v>1395.3488</v>
+        <v>4887.5401</v>
       </c>
       <c r="G5" t="n">
-        <v>-2958323.006192095</v>
+        <v>-615029.5081094711</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -600,36 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.81</v>
+        <v>11.2</v>
       </c>
       <c r="C6" t="n">
-        <v>10.81</v>
+        <v>11.2</v>
       </c>
       <c r="D6" t="n">
-        <v>10.92</v>
+        <v>11.2</v>
       </c>
       <c r="E6" t="n">
-        <v>10.81</v>
+        <v>11.2</v>
       </c>
       <c r="F6" t="n">
-        <v>42915.0581</v>
+        <v>15645.3398</v>
       </c>
       <c r="G6" t="n">
-        <v>-2915407.948092095</v>
+        <v>-630674.847909471</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -640,38 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.91</v>
+        <v>11.22</v>
       </c>
       <c r="C7" t="n">
-        <v>10.91</v>
+        <v>11.22</v>
       </c>
       <c r="D7" t="n">
-        <v>10.91</v>
+        <v>11.22</v>
       </c>
       <c r="E7" t="n">
-        <v>10.91</v>
+        <v>11.22</v>
       </c>
       <c r="F7" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" t="n">
-        <v>-2915361.948092095</v>
+        <v>-630629.847909471</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -682,36 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D8" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="E8" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F8" t="n">
-        <v>14200</v>
+        <v>10012.7328</v>
       </c>
       <c r="G8" t="n">
-        <v>-2929561.948092095</v>
+        <v>-640642.580709471</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -722,36 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10.6</v>
+        <v>11.22</v>
       </c>
       <c r="C9" t="n">
-        <v>10.6</v>
+        <v>11.22</v>
       </c>
       <c r="D9" t="n">
-        <v>10.6</v>
+        <v>11.22</v>
       </c>
       <c r="E9" t="n">
-        <v>10.6</v>
+        <v>11.22</v>
       </c>
       <c r="F9" t="n">
-        <v>1805.1065</v>
+        <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>-2931367.054592095</v>
+        <v>-640597.580709471</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -762,36 +726,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="C10" t="n">
-        <v>10.89</v>
+        <v>11.2</v>
       </c>
       <c r="D10" t="n">
-        <v>10.89</v>
+        <v>11.2</v>
       </c>
       <c r="E10" t="n">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="F10" t="n">
-        <v>8466.96473516988</v>
+        <v>20852.9847</v>
       </c>
       <c r="G10" t="n">
-        <v>-2922900.089856925</v>
+        <v>-661450.565409471</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -802,36 +762,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10.8</v>
+        <v>11.19</v>
       </c>
       <c r="C11" t="n">
-        <v>10.8</v>
+        <v>11.08</v>
       </c>
       <c r="D11" t="n">
-        <v>10.8</v>
+        <v>11.19</v>
       </c>
       <c r="E11" t="n">
-        <v>10.8</v>
+        <v>11.08</v>
       </c>
       <c r="F11" t="n">
-        <v>46180.9374</v>
+        <v>112580.6701</v>
       </c>
       <c r="G11" t="n">
-        <v>-2969081.027256926</v>
+        <v>-774031.235509471</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -842,36 +798,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10.8</v>
+        <v>11.05</v>
       </c>
       <c r="C12" t="n">
-        <v>10.88</v>
+        <v>11.05</v>
       </c>
       <c r="D12" t="n">
-        <v>10.88</v>
+        <v>11.05</v>
       </c>
       <c r="E12" t="n">
-        <v>10.8</v>
+        <v>11.05</v>
       </c>
       <c r="F12" t="n">
-        <v>19000</v>
+        <v>1646.0574</v>
       </c>
       <c r="G12" t="n">
-        <v>-2950081.027256926</v>
+        <v>-775677.2929094711</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -882,36 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10.89</v>
+        <v>11.2</v>
       </c>
       <c r="C13" t="n">
-        <v>10.89</v>
+        <v>11.2</v>
       </c>
       <c r="D13" t="n">
-        <v>10.89</v>
+        <v>11.2</v>
       </c>
       <c r="E13" t="n">
-        <v>10.89</v>
+        <v>11.2</v>
       </c>
       <c r="F13" t="n">
-        <v>128.8001</v>
+        <v>71.9816</v>
       </c>
       <c r="G13" t="n">
-        <v>-2949952.227156925</v>
+        <v>-775605.311309471</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -922,36 +870,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10.89</v>
+        <v>11.2</v>
       </c>
       <c r="C14" t="n">
-        <v>10.89</v>
+        <v>11.2</v>
       </c>
       <c r="D14" t="n">
-        <v>10.89</v>
+        <v>11.2</v>
       </c>
       <c r="E14" t="n">
-        <v>10.89</v>
+        <v>11.2</v>
       </c>
       <c r="F14" t="n">
-        <v>97431.45146483013</v>
+        <v>28882.2782</v>
       </c>
       <c r="G14" t="n">
-        <v>-2949952.227156925</v>
+        <v>-775605.311309471</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -962,36 +906,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>11.06</v>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>11.06</v>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>11.06</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>11.06</v>
       </c>
       <c r="F15" t="n">
-        <v>304.6286</v>
+        <v>47727.6716</v>
       </c>
       <c r="G15" t="n">
-        <v>-2949647.598556926</v>
+        <v>-823332.982909471</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1002,36 +942,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>11.06</v>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>11.06</v>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>11.06</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>11.06</v>
       </c>
       <c r="F16" t="n">
-        <v>61415.2745</v>
+        <v>3119.9925</v>
       </c>
       <c r="G16" t="n">
-        <v>-2949647.598556926</v>
+        <v>-823332.982909471</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1042,36 +978,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="C17" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="D17" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="E17" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="F17" t="n">
-        <v>46</v>
+        <v>12646.7997</v>
       </c>
       <c r="G17" t="n">
-        <v>-2949601.598556926</v>
+        <v>-823332.982909471</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1082,36 +1014,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>10.91</v>
+        <v>11.06</v>
       </c>
       <c r="C18" t="n">
-        <v>10.9</v>
+        <v>11.06</v>
       </c>
       <c r="D18" t="n">
-        <v>10.91</v>
+        <v>11.06</v>
       </c>
       <c r="E18" t="n">
-        <v>10.9</v>
+        <v>11.06</v>
       </c>
       <c r="F18" t="n">
-        <v>182961.3217</v>
+        <v>64294.7065</v>
       </c>
       <c r="G18" t="n">
-        <v>-3132562.920256926</v>
+        <v>-823332.982909471</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1122,36 +1050,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="C19" t="n">
-        <v>11.12</v>
+        <v>11.06</v>
       </c>
       <c r="D19" t="n">
-        <v>11.12</v>
+        <v>11.06</v>
       </c>
       <c r="E19" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="F19" t="n">
-        <v>1698.3488</v>
+        <v>30927.6472</v>
       </c>
       <c r="G19" t="n">
-        <v>-3130864.571456926</v>
+        <v>-823332.982909471</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1162,36 +1086,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.12</v>
+        <v>11.06</v>
       </c>
       <c r="C20" t="n">
-        <v>11.4</v>
+        <v>11.06</v>
       </c>
       <c r="D20" t="n">
-        <v>11.4</v>
+        <v>11.06</v>
       </c>
       <c r="E20" t="n">
-        <v>11.12</v>
+        <v>11.06</v>
       </c>
       <c r="F20" t="n">
-        <v>2981.009230175438</v>
+        <v>85499.44500000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-3127883.56222675</v>
+        <v>-823332.982909471</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1202,36 +1122,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.2</v>
+        <v>11.05</v>
       </c>
       <c r="C21" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>11.2</v>
+        <v>11.05</v>
       </c>
       <c r="E21" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F21" t="n">
-        <v>1750.7715</v>
+        <v>845903.0817</v>
       </c>
       <c r="G21" t="n">
-        <v>-3129634.33372675</v>
+        <v>-1669236.064609471</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1242,36 +1158,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.19</v>
+        <v>10.9</v>
       </c>
       <c r="C22" t="n">
-        <v>11.19</v>
+        <v>10.7</v>
       </c>
       <c r="D22" t="n">
-        <v>11.19</v>
+        <v>10.9</v>
       </c>
       <c r="E22" t="n">
-        <v>11.19</v>
+        <v>10.7</v>
       </c>
       <c r="F22" t="n">
-        <v>40000</v>
+        <v>426432.7897</v>
       </c>
       <c r="G22" t="n">
-        <v>-3169634.33372675</v>
+        <v>-2095668.854309471</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1282,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="C23" t="n">
         <v>11.05</v>
-      </c>
-      <c r="C23" t="n">
-        <v>11</v>
       </c>
       <c r="D23" t="n">
         <v>11.05</v>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="F23" t="n">
-        <v>3688.3379</v>
+        <v>9052.191617375565</v>
       </c>
       <c r="G23" t="n">
-        <v>-3173322.67162675</v>
+        <v>-2086616.662692096</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1307,11 +1219,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1322,36 +1230,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="F24" t="n">
-        <v>6995.295</v>
+        <v>1358.4249</v>
       </c>
       <c r="G24" t="n">
-        <v>-3173322.67162675</v>
+        <v>-2087975.087592096</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1374,10 +1278,10 @@
         <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>913</v>
+        <v>7430.1123</v>
       </c>
       <c r="G25" t="n">
-        <v>-3173322.67162675</v>
+        <v>-2080544.975292096</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1387,11 +1291,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1414,10 +1314,10 @@
         <v>11.02</v>
       </c>
       <c r="F26" t="n">
-        <v>136.4493</v>
+        <v>155.3991</v>
       </c>
       <c r="G26" t="n">
-        <v>-3173186.22232675</v>
+        <v>-2080389.576192096</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1427,11 +1327,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1442,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.02</v>
+        <v>10.99</v>
       </c>
       <c r="C27" t="n">
-        <v>11.11</v>
+        <v>10.99</v>
       </c>
       <c r="D27" t="n">
-        <v>11.11</v>
+        <v>10.99</v>
       </c>
       <c r="E27" t="n">
-        <v>11.02</v>
+        <v>10.99</v>
       </c>
       <c r="F27" t="n">
-        <v>3668.957959045905</v>
+        <v>764.2359</v>
       </c>
       <c r="G27" t="n">
-        <v>-3169517.264367704</v>
+        <v>-2081153.812092096</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1467,11 +1363,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.03</v>
+        <v>10.99</v>
       </c>
       <c r="C28" t="n">
-        <v>11.03</v>
+        <v>10.81</v>
       </c>
       <c r="D28" t="n">
-        <v>11.03</v>
+        <v>10.99</v>
       </c>
       <c r="E28" t="n">
-        <v>11.03</v>
+        <v>10.81</v>
       </c>
       <c r="F28" t="n">
-        <v>1670.0686</v>
+        <v>143023.6436</v>
       </c>
       <c r="G28" t="n">
-        <v>-3171187.332967704</v>
+        <v>-2224177.455692096</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1507,11 +1399,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1522,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.03</v>
+        <v>10.8</v>
       </c>
       <c r="C29" t="n">
-        <v>11.03</v>
+        <v>10.7</v>
       </c>
       <c r="D29" t="n">
-        <v>11.03</v>
+        <v>10.8</v>
       </c>
       <c r="E29" t="n">
-        <v>11.03</v>
+        <v>10.7</v>
       </c>
       <c r="F29" t="n">
-        <v>519.926</v>
+        <v>107887.1942</v>
       </c>
       <c r="G29" t="n">
-        <v>-3171187.332967704</v>
+        <v>-2332064.649892095</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1547,11 +1435,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1562,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.11</v>
+        <v>10.8</v>
       </c>
       <c r="C30" t="n">
-        <v>11.11</v>
+        <v>10.8</v>
       </c>
       <c r="D30" t="n">
-        <v>11.11</v>
+        <v>10.8</v>
       </c>
       <c r="E30" t="n">
-        <v>11.11</v>
+        <v>10.8</v>
       </c>
       <c r="F30" t="n">
-        <v>46</v>
+        <v>6287.1266</v>
       </c>
       <c r="G30" t="n">
-        <v>-3171141.332967704</v>
+        <v>-2325777.523292095</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1587,11 +1471,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1602,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.11</v>
+        <v>10.8</v>
       </c>
       <c r="C31" t="n">
-        <v>11.11</v>
+        <v>10.8</v>
       </c>
       <c r="D31" t="n">
-        <v>11.11</v>
+        <v>10.8</v>
       </c>
       <c r="E31" t="n">
-        <v>11.11</v>
+        <v>10.8</v>
       </c>
       <c r="F31" t="n">
-        <v>23484.3835</v>
+        <v>4100</v>
       </c>
       <c r="G31" t="n">
-        <v>-3171141.332967704</v>
+        <v>-2325777.523292095</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1627,11 +1507,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1642,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.03</v>
+        <v>10.7</v>
       </c>
       <c r="C32" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="D32" t="n">
-        <v>11.03</v>
+        <v>10.7</v>
       </c>
       <c r="E32" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="F32" t="n">
-        <v>5875.5307</v>
+        <v>4706.5863</v>
       </c>
       <c r="G32" t="n">
-        <v>-3177016.863667704</v>
+        <v>-2330484.109592095</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1667,11 +1543,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1694,10 +1566,10 @@
         <v>10.8</v>
       </c>
       <c r="F33" t="n">
-        <v>1487.4661</v>
+        <v>80.6151</v>
       </c>
       <c r="G33" t="n">
-        <v>-3177016.863667704</v>
+        <v>-2330403.494492095</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1707,11 +1579,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1722,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10.76</v>
+        <v>10.8</v>
       </c>
       <c r="C34" t="n">
-        <v>10.76</v>
+        <v>10.8</v>
       </c>
       <c r="D34" t="n">
-        <v>10.76</v>
+        <v>10.8</v>
       </c>
       <c r="E34" t="n">
-        <v>10.76</v>
+        <v>10.8</v>
       </c>
       <c r="F34" t="n">
-        <v>33984.022</v>
+        <v>46282.5805</v>
       </c>
       <c r="G34" t="n">
-        <v>-3211000.885667704</v>
+        <v>-2330403.494492095</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1747,11 +1615,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1762,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>10.75</v>
+        <v>10.8</v>
       </c>
       <c r="C35" t="n">
-        <v>10.75</v>
+        <v>10.8</v>
       </c>
       <c r="D35" t="n">
-        <v>10.75</v>
+        <v>10.8</v>
       </c>
       <c r="E35" t="n">
-        <v>10.75</v>
+        <v>10.8</v>
       </c>
       <c r="F35" t="n">
-        <v>1395.3488</v>
+        <v>70520.5006</v>
       </c>
       <c r="G35" t="n">
-        <v>-3212396.234467704</v>
+        <v>-2330403.494492095</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1787,11 +1651,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1802,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10.65</v>
+        <v>10.8</v>
       </c>
       <c r="C36" t="n">
-        <v>10.65</v>
+        <v>10.81</v>
       </c>
       <c r="D36" t="n">
-        <v>10.65</v>
+        <v>10.81</v>
       </c>
       <c r="E36" t="n">
-        <v>10.65</v>
+        <v>10.8</v>
       </c>
       <c r="F36" t="n">
-        <v>33886.3641</v>
+        <v>127082.6956</v>
       </c>
       <c r="G36" t="n">
-        <v>-3246282.598567704</v>
+        <v>-2203320.798892095</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1827,11 +1687,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>10.63</v>
+        <v>10.8</v>
       </c>
       <c r="C37" t="n">
-        <v>10.63</v>
+        <v>10.8</v>
       </c>
       <c r="D37" t="n">
-        <v>10.63</v>
+        <v>10.8</v>
       </c>
       <c r="E37" t="n">
-        <v>10.63</v>
+        <v>10.8</v>
       </c>
       <c r="F37" t="n">
-        <v>33430.734</v>
+        <v>4496.104</v>
       </c>
       <c r="G37" t="n">
-        <v>-3279713.332567704</v>
+        <v>-2207816.902892095</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1867,11 +1723,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1882,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>10.79</v>
+        <v>10.7</v>
       </c>
       <c r="C38" t="n">
-        <v>10.86</v>
+        <v>10.51</v>
       </c>
       <c r="D38" t="n">
-        <v>10.86</v>
+        <v>10.7</v>
       </c>
       <c r="E38" t="n">
-        <v>10.79</v>
+        <v>10.51</v>
       </c>
       <c r="F38" t="n">
-        <v>25892.7816</v>
+        <v>117833.0631</v>
       </c>
       <c r="G38" t="n">
-        <v>-3253820.550967704</v>
+        <v>-2325649.965992095</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1907,11 +1759,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1922,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10.86</v>
+        <v>10.79</v>
       </c>
       <c r="C39" t="n">
-        <v>10.99</v>
+        <v>10.79</v>
       </c>
       <c r="D39" t="n">
-        <v>10.99</v>
+        <v>10.79</v>
       </c>
       <c r="E39" t="n">
-        <v>10.86</v>
+        <v>10.79</v>
       </c>
       <c r="F39" t="n">
-        <v>2992.482821929027</v>
+        <v>47</v>
       </c>
       <c r="G39" t="n">
-        <v>-3250828.068145775</v>
+        <v>-2325602.965992095</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1947,11 +1795,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1962,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10.98</v>
+        <v>10.79</v>
       </c>
       <c r="C40" t="n">
-        <v>10.99</v>
+        <v>10.79</v>
       </c>
       <c r="D40" t="n">
-        <v>10.99</v>
+        <v>10.79</v>
       </c>
       <c r="E40" t="n">
-        <v>10.98</v>
+        <v>10.79</v>
       </c>
       <c r="F40" t="n">
-        <v>37273.96017807097</v>
+        <v>47.7684</v>
       </c>
       <c r="G40" t="n">
-        <v>-3250828.068145775</v>
+        <v>-2325602.965992095</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1987,11 +1831,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2002,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C41" t="n">
-        <v>10.99</v>
+        <v>10.8</v>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="E41" t="n">
-        <v>10.99</v>
+        <v>10.8</v>
       </c>
       <c r="F41" t="n">
-        <v>12716.0714</v>
+        <v>47</v>
       </c>
       <c r="G41" t="n">
-        <v>-3250828.068145775</v>
+        <v>-2325555.965992095</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2027,11 +1867,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2042,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10.99</v>
+        <v>10.8</v>
       </c>
       <c r="C42" t="n">
-        <v>10.98</v>
+        <v>10.8</v>
       </c>
       <c r="D42" t="n">
-        <v>11.01</v>
+        <v>10.8</v>
       </c>
       <c r="E42" t="n">
-        <v>10.98</v>
+        <v>10.8</v>
       </c>
       <c r="F42" t="n">
-        <v>163449.499</v>
+        <v>9236.134599999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-3414277.567145775</v>
+        <v>-2325555.965992095</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2067,11 +1903,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2082,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.01</v>
+        <v>10.8</v>
       </c>
       <c r="C43" t="n">
-        <v>11.01</v>
+        <v>10.8</v>
       </c>
       <c r="D43" t="n">
-        <v>11.01</v>
+        <v>10.8</v>
       </c>
       <c r="E43" t="n">
-        <v>11.01</v>
+        <v>10.8</v>
       </c>
       <c r="F43" t="n">
-        <v>50</v>
+        <v>4618.0844</v>
       </c>
       <c r="G43" t="n">
-        <v>-3414227.567145775</v>
+        <v>-2325555.965992095</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2107,11 +1939,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2122,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10.98</v>
+        <v>10.75</v>
       </c>
       <c r="C44" t="n">
-        <v>10.98</v>
+        <v>10.75</v>
       </c>
       <c r="D44" t="n">
-        <v>10.98</v>
+        <v>10.75</v>
       </c>
       <c r="E44" t="n">
-        <v>10.98</v>
+        <v>10.75</v>
       </c>
       <c r="F44" t="n">
-        <v>9546.526121929026</v>
+        <v>1612.2626</v>
       </c>
       <c r="G44" t="n">
-        <v>-3423774.093267704</v>
+        <v>-2327168.228592095</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2147,11 +1975,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2162,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10.97</v>
+        <v>10.74</v>
       </c>
       <c r="C45" t="n">
-        <v>10.97</v>
+        <v>10.71</v>
       </c>
       <c r="D45" t="n">
-        <v>10.97</v>
+        <v>10.74</v>
       </c>
       <c r="E45" t="n">
-        <v>10.97</v>
+        <v>10.71</v>
       </c>
       <c r="F45" t="n">
-        <v>60682.3441</v>
+        <v>191</v>
       </c>
       <c r="G45" t="n">
-        <v>-3484456.437367704</v>
+        <v>-2327359.228592095</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2187,11 +2011,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>10.85</v>
+        <v>10.6</v>
       </c>
       <c r="C46" t="n">
-        <v>10.85</v>
+        <v>10.6</v>
       </c>
       <c r="D46" t="n">
-        <v>10.85</v>
+        <v>10.6</v>
       </c>
       <c r="E46" t="n">
-        <v>10.85</v>
+        <v>10.6</v>
       </c>
       <c r="F46" t="n">
-        <v>63594.206</v>
+        <v>1219.354</v>
       </c>
       <c r="G46" t="n">
-        <v>-3548050.643367704</v>
+        <v>-2328578.582592095</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2227,11 +2047,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2242,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>10.81</v>
+        <v>10.74</v>
       </c>
       <c r="C47" t="n">
-        <v>10.81</v>
+        <v>10.74</v>
       </c>
       <c r="D47" t="n">
-        <v>10.81</v>
+        <v>10.74</v>
       </c>
       <c r="E47" t="n">
-        <v>10.81</v>
+        <v>10.74</v>
       </c>
       <c r="F47" t="n">
-        <v>11073.1496</v>
+        <v>47</v>
       </c>
       <c r="G47" t="n">
-        <v>-3559123.792967704</v>
+        <v>-2328531.582592095</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2267,11 +2083,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2282,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>10.81</v>
+        <v>10.6</v>
       </c>
       <c r="C48" t="n">
-        <v>10.81</v>
+        <v>10.51</v>
       </c>
       <c r="D48" t="n">
-        <v>10.81</v>
+        <v>10.6</v>
       </c>
       <c r="E48" t="n">
-        <v>10.81</v>
+        <v>10.51</v>
       </c>
       <c r="F48" t="n">
-        <v>2097.6926</v>
+        <v>55817.2994</v>
       </c>
       <c r="G48" t="n">
-        <v>-3559123.792967704</v>
+        <v>-2384348.881992095</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2307,11 +2119,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2322,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.01</v>
+        <v>10.6</v>
       </c>
       <c r="C49" t="n">
-        <v>11.01</v>
+        <v>10.6</v>
       </c>
       <c r="D49" t="n">
-        <v>11.01</v>
+        <v>10.6</v>
       </c>
       <c r="E49" t="n">
-        <v>11.01</v>
+        <v>10.6</v>
       </c>
       <c r="F49" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G49" t="n">
-        <v>-3559077.792967704</v>
+        <v>-2384300.881992095</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2347,11 +2155,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2362,38 +2166,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>10.81</v>
+        <v>10.6</v>
       </c>
       <c r="C50" t="n">
-        <v>10.81</v>
+        <v>10.6</v>
       </c>
       <c r="D50" t="n">
-        <v>10.81</v>
+        <v>10.6</v>
       </c>
       <c r="E50" t="n">
-        <v>10.81</v>
+        <v>10.6</v>
       </c>
       <c r="F50" t="n">
-        <v>1612.9032</v>
+        <v>53500</v>
       </c>
       <c r="G50" t="n">
-        <v>-3560690.696167704</v>
+        <v>-2384300.881992095</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>11.01</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2404,38 +2202,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.01</v>
+        <v>10.53</v>
       </c>
       <c r="C51" t="n">
-        <v>11.01</v>
+        <v>10.52</v>
       </c>
       <c r="D51" t="n">
-        <v>11.01</v>
+        <v>10.53</v>
       </c>
       <c r="E51" t="n">
-        <v>11.01</v>
+        <v>10.52</v>
       </c>
       <c r="F51" t="n">
-        <v>5682.205</v>
+        <v>138223.3086</v>
       </c>
       <c r="G51" t="n">
-        <v>-3555008.491167704</v>
+        <v>-2522524.190592095</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>10.81</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2446,38 +2238,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.01</v>
+        <v>10.52</v>
       </c>
       <c r="C52" t="n">
-        <v>11.01</v>
+        <v>10.47</v>
       </c>
       <c r="D52" t="n">
-        <v>11.01</v>
+        <v>10.52</v>
       </c>
       <c r="E52" t="n">
-        <v>11.01</v>
+        <v>10.47</v>
       </c>
       <c r="F52" t="n">
-        <v>250</v>
+        <v>148601.4378</v>
       </c>
       <c r="G52" t="n">
-        <v>-3555008.491167704</v>
+        <v>-2671125.628392095</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>11.01</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2488,38 +2274,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.01</v>
+        <v>10.47</v>
       </c>
       <c r="C53" t="n">
-        <v>11.1</v>
+        <v>10.52</v>
       </c>
       <c r="D53" t="n">
-        <v>11.1</v>
+        <v>10.52</v>
       </c>
       <c r="E53" t="n">
-        <v>11.01</v>
+        <v>10.47</v>
       </c>
       <c r="F53" t="n">
-        <v>7988.596543063063</v>
+        <v>2430</v>
       </c>
       <c r="G53" t="n">
-        <v>-3547019.894624641</v>
+        <v>-2668695.628392095</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>11.01</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2530,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="C54" t="n">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="D54" t="n">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="E54" t="n">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="F54" t="n">
-        <v>11340.64575693694</v>
+        <v>10695.1135</v>
       </c>
       <c r="G54" t="n">
-        <v>-3547019.894624641</v>
+        <v>-2679390.741892095</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2555,11 +2335,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2570,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="C55" t="n">
-        <v>11.1</v>
+        <v>10.2</v>
       </c>
       <c r="D55" t="n">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="E55" t="n">
-        <v>11.1</v>
+        <v>10.2</v>
       </c>
       <c r="F55" t="n">
-        <v>52550</v>
+        <v>376636.1759</v>
       </c>
       <c r="G55" t="n">
-        <v>-3547019.894624641</v>
+        <v>-3056026.917792095</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2595,11 +2371,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2610,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.11</v>
+        <v>10.3</v>
       </c>
       <c r="C56" t="n">
-        <v>11.11</v>
+        <v>10.3</v>
       </c>
       <c r="D56" t="n">
-        <v>11.11</v>
+        <v>10.3</v>
       </c>
       <c r="E56" t="n">
-        <v>11.11</v>
+        <v>10.3</v>
       </c>
       <c r="F56" t="n">
-        <v>46</v>
+        <v>11712.4513</v>
       </c>
       <c r="G56" t="n">
-        <v>-3546973.894624641</v>
+        <v>-3044314.466492095</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2635,11 +2407,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2650,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11</v>
+        <v>10.51</v>
       </c>
       <c r="C57" t="n">
-        <v>11</v>
+        <v>10.51</v>
       </c>
       <c r="D57" t="n">
-        <v>11</v>
+        <v>10.51</v>
       </c>
       <c r="E57" t="n">
-        <v>11</v>
+        <v>10.51</v>
       </c>
       <c r="F57" t="n">
-        <v>46211.4787</v>
+        <v>48</v>
       </c>
       <c r="G57" t="n">
-        <v>-3593185.373324641</v>
+        <v>-3044266.466492095</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2675,11 +2443,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2690,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.11</v>
+        <v>10.51</v>
       </c>
       <c r="C58" t="n">
-        <v>11.12</v>
+        <v>10.51</v>
       </c>
       <c r="D58" t="n">
-        <v>11.12</v>
+        <v>10.51</v>
       </c>
       <c r="E58" t="n">
-        <v>11.11</v>
+        <v>10.51</v>
       </c>
       <c r="F58" t="n">
-        <v>15830.83211748287</v>
+        <v>342.8631</v>
       </c>
       <c r="G58" t="n">
-        <v>-3577354.541207158</v>
+        <v>-3044266.466492095</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2715,11 +2479,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2730,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.12</v>
+        <v>10.31</v>
       </c>
       <c r="C59" t="n">
-        <v>11.12</v>
+        <v>10.3</v>
       </c>
       <c r="D59" t="n">
-        <v>11.12</v>
+        <v>10.31</v>
       </c>
       <c r="E59" t="n">
-        <v>11.12</v>
+        <v>10.3</v>
       </c>
       <c r="F59" t="n">
-        <v>17942.5115</v>
+        <v>48787.2143</v>
       </c>
       <c r="G59" t="n">
-        <v>-3577354.541207158</v>
+        <v>-3093053.680792095</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2755,11 +2515,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2770,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.12</v>
+        <v>10.3</v>
       </c>
       <c r="C60" t="n">
-        <v>11.12</v>
+        <v>10.31</v>
       </c>
       <c r="D60" t="n">
-        <v>11.12</v>
+        <v>10.31</v>
       </c>
       <c r="E60" t="n">
-        <v>11.12</v>
+        <v>10.3</v>
       </c>
       <c r="F60" t="n">
-        <v>13007.0507</v>
+        <v>5810</v>
       </c>
       <c r="G60" t="n">
-        <v>-3577354.541207158</v>
+        <v>-3087243.680792095</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2795,11 +2551,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2810,38 +2562,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10.91</v>
+        <v>10.13</v>
       </c>
       <c r="C61" t="n">
-        <v>10.91</v>
+        <v>10.06</v>
       </c>
       <c r="D61" t="n">
-        <v>10.91</v>
+        <v>10.13</v>
       </c>
       <c r="E61" t="n">
-        <v>10.91</v>
+        <v>10.06</v>
       </c>
       <c r="F61" t="n">
-        <v>36399.1944</v>
+        <v>15954.8934</v>
       </c>
       <c r="G61" t="n">
-        <v>-3613753.735607157</v>
+        <v>-3103198.574192095</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>11.12</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2852,38 +2598,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.11</v>
+        <v>10.06</v>
       </c>
       <c r="C62" t="n">
-        <v>11.11</v>
+        <v>10.04</v>
       </c>
       <c r="D62" t="n">
-        <v>11.11</v>
+        <v>10.06</v>
       </c>
       <c r="E62" t="n">
-        <v>11.11</v>
+        <v>10.04</v>
       </c>
       <c r="F62" t="n">
-        <v>46</v>
+        <v>82935.5632</v>
       </c>
       <c r="G62" t="n">
-        <v>-3613707.735607157</v>
+        <v>-3186134.137392095</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>10.91</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2894,38 +2634,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.03</v>
+        <v>10.05</v>
       </c>
       <c r="C63" t="n">
-        <v>11</v>
+        <v>10.06</v>
       </c>
       <c r="D63" t="n">
-        <v>11.03</v>
+        <v>10.06</v>
       </c>
       <c r="E63" t="n">
-        <v>11</v>
+        <v>10.05</v>
       </c>
       <c r="F63" t="n">
-        <v>13076.2691</v>
+        <v>57304.2794</v>
       </c>
       <c r="G63" t="n">
-        <v>-3626784.004707158</v>
+        <v>-3128829.857992095</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>11.11</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2936,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.11</v>
+        <v>10.13</v>
       </c>
       <c r="C64" t="n">
-        <v>11.11</v>
+        <v>10.13</v>
       </c>
       <c r="D64" t="n">
-        <v>11.11</v>
+        <v>10.13</v>
       </c>
       <c r="E64" t="n">
-        <v>11.11</v>
+        <v>10.13</v>
       </c>
       <c r="F64" t="n">
-        <v>46</v>
+        <v>155804.0828</v>
       </c>
       <c r="G64" t="n">
-        <v>-3626738.004707158</v>
+        <v>-2973025.775192095</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -2960,14 +2694,12 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>11</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>10.06</v>
+      </c>
+      <c r="K64" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2978,34 +2710,38 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11</v>
+        <v>10.06</v>
       </c>
       <c r="C65" t="n">
-        <v>11</v>
+        <v>10.06</v>
       </c>
       <c r="D65" t="n">
-        <v>11</v>
+        <v>10.06</v>
       </c>
       <c r="E65" t="n">
-        <v>11</v>
+        <v>10.06</v>
       </c>
       <c r="F65" t="n">
-        <v>35155.3094</v>
+        <v>11452.683</v>
       </c>
       <c r="G65" t="n">
-        <v>-3661893.314107158</v>
+        <v>-2984478.458192096</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="K65" t="n">
+        <v>10.06</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -3018,34 +2754,38 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11</v>
+        <v>10.12</v>
       </c>
       <c r="C66" t="n">
-        <v>11.11</v>
+        <v>10.12</v>
       </c>
       <c r="D66" t="n">
-        <v>11.11</v>
+        <v>10.12</v>
       </c>
       <c r="E66" t="n">
-        <v>11</v>
+        <v>10.12</v>
       </c>
       <c r="F66" t="n">
-        <v>7539.99456930693</v>
+        <v>10033.2902</v>
       </c>
       <c r="G66" t="n">
-        <v>-3654353.319537851</v>
+        <v>-2974445.167992095</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="K66" t="n">
+        <v>10.06</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -3058,36 +2798,36 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.11</v>
+        <v>10.12</v>
       </c>
       <c r="C67" t="n">
-        <v>11.11</v>
+        <v>10.12</v>
       </c>
       <c r="D67" t="n">
-        <v>11.11</v>
+        <v>10.12</v>
       </c>
       <c r="E67" t="n">
-        <v>11.11</v>
+        <v>10.12</v>
       </c>
       <c r="F67" t="n">
-        <v>245.9485</v>
+        <v>3063.3573</v>
       </c>
       <c r="G67" t="n">
-        <v>-3654353.319537851</v>
+        <v>-2974445.167992095</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="K67" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3098,34 +2838,38 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.11</v>
+        <v>10.12</v>
       </c>
       <c r="C68" t="n">
-        <v>11.11</v>
+        <v>10.12</v>
       </c>
       <c r="D68" t="n">
-        <v>11.11</v>
+        <v>10.12</v>
       </c>
       <c r="E68" t="n">
-        <v>11.11</v>
+        <v>10.12</v>
       </c>
       <c r="F68" t="n">
-        <v>241.5697</v>
+        <v>89927.9375</v>
       </c>
       <c r="G68" t="n">
-        <v>-3654353.319537851</v>
+        <v>-2974445.167992095</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="K68" t="n">
+        <v>10.12</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -3138,34 +2882,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.11</v>
+        <v>10.26</v>
       </c>
       <c r="C69" t="n">
-        <v>11.11</v>
+        <v>10.26</v>
       </c>
       <c r="D69" t="n">
-        <v>11.11</v>
+        <v>10.26</v>
       </c>
       <c r="E69" t="n">
-        <v>11.11</v>
+        <v>10.26</v>
       </c>
       <c r="F69" t="n">
-        <v>43378.2121</v>
+        <v>2721.4206</v>
       </c>
       <c r="G69" t="n">
-        <v>-3654353.319537851</v>
+        <v>-2971723.747392096</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="K69" t="n">
+        <v>10.12</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -3178,36 +2926,36 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.11</v>
+        <v>10.26</v>
       </c>
       <c r="C70" t="n">
-        <v>11.11</v>
+        <v>10.26</v>
       </c>
       <c r="D70" t="n">
-        <v>11.11</v>
+        <v>10.26</v>
       </c>
       <c r="E70" t="n">
-        <v>11.11</v>
+        <v>10.26</v>
       </c>
       <c r="F70" t="n">
-        <v>3.0693069306931e-05</v>
+        <v>14000</v>
       </c>
       <c r="G70" t="n">
-        <v>-3654353.319537851</v>
+        <v>-2971723.747392096</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K70" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3218,34 +2966,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.12</v>
+        <v>10.26</v>
       </c>
       <c r="C71" t="n">
-        <v>11.12</v>
+        <v>10.34</v>
       </c>
       <c r="D71" t="n">
-        <v>11.12</v>
+        <v>10.34</v>
       </c>
       <c r="E71" t="n">
-        <v>11.12</v>
+        <v>10.26</v>
       </c>
       <c r="F71" t="n">
-        <v>15498.86002347122</v>
+        <v>5852.6523</v>
       </c>
       <c r="G71" t="n">
-        <v>-3638854.45951438</v>
+        <v>-2965871.095092095</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K71" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -3258,31 +3010,35 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.13</v>
+        <v>10.52</v>
       </c>
       <c r="C72" t="n">
-        <v>11.13</v>
+        <v>10.52</v>
       </c>
       <c r="D72" t="n">
-        <v>11.13</v>
+        <v>10.52</v>
       </c>
       <c r="E72" t="n">
-        <v>11.13</v>
+        <v>10.52</v>
       </c>
       <c r="F72" t="n">
-        <v>2375.6362</v>
+        <v>49</v>
       </c>
       <c r="G72" t="n">
-        <v>-3636478.82331438</v>
+        <v>-2965822.095092095</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="K72" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,22 +3054,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.13</v>
+        <v>10.52</v>
       </c>
       <c r="C73" t="n">
-        <v>11.13</v>
+        <v>10.7</v>
       </c>
       <c r="D73" t="n">
-        <v>11.13</v>
+        <v>10.7</v>
       </c>
       <c r="E73" t="n">
-        <v>11.13</v>
+        <v>10.52</v>
       </c>
       <c r="F73" t="n">
-        <v>13801.0094</v>
+        <v>4870.271</v>
       </c>
       <c r="G73" t="n">
-        <v>-3636478.82331438</v>
+        <v>-2960951.824092095</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3322,7 +3078,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3338,22 +3096,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.13</v>
+        <v>10.7</v>
       </c>
       <c r="C74" t="n">
-        <v>11</v>
+        <v>10.81</v>
       </c>
       <c r="D74" t="n">
-        <v>11.13</v>
+        <v>10.81</v>
       </c>
       <c r="E74" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="F74" t="n">
-        <v>109585.6522</v>
+        <v>4024.1667</v>
       </c>
       <c r="G74" t="n">
-        <v>-3746064.47551438</v>
+        <v>-2956927.657392095</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3362,7 +3120,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3378,22 +3138,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.2</v>
+        <v>10.81</v>
       </c>
       <c r="C75" t="n">
-        <v>11.2</v>
+        <v>10.81</v>
       </c>
       <c r="D75" t="n">
-        <v>11.2</v>
+        <v>10.81</v>
       </c>
       <c r="E75" t="n">
-        <v>11.2</v>
+        <v>10.81</v>
       </c>
       <c r="F75" t="n">
-        <v>45</v>
+        <v>1000</v>
       </c>
       <c r="G75" t="n">
-        <v>-3746019.47551438</v>
+        <v>-2956927.657392095</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3402,7 +3162,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3418,22 +3180,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.2</v>
+        <v>10.75</v>
       </c>
       <c r="C76" t="n">
-        <v>11.2</v>
+        <v>10.75</v>
       </c>
       <c r="D76" t="n">
-        <v>11.2</v>
+        <v>10.75</v>
       </c>
       <c r="E76" t="n">
-        <v>11.2</v>
+        <v>10.75</v>
       </c>
       <c r="F76" t="n">
-        <v>34955.3773</v>
+        <v>1395.3488</v>
       </c>
       <c r="G76" t="n">
-        <v>-3746019.47551438</v>
+        <v>-2958323.006192095</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3442,7 +3204,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3458,22 +3222,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.22</v>
+        <v>10.81</v>
       </c>
       <c r="C77" t="n">
-        <v>11.22</v>
+        <v>10.81</v>
       </c>
       <c r="D77" t="n">
-        <v>11.22</v>
+        <v>10.92</v>
       </c>
       <c r="E77" t="n">
-        <v>11.22</v>
+        <v>10.81</v>
       </c>
       <c r="F77" t="n">
-        <v>968.1084</v>
+        <v>42915.0581</v>
       </c>
       <c r="G77" t="n">
-        <v>-3745051.36711438</v>
+        <v>-2915407.948092095</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3482,7 +3246,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3498,22 +3264,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.42</v>
+        <v>10.91</v>
       </c>
       <c r="C78" t="n">
-        <v>11.42</v>
+        <v>10.91</v>
       </c>
       <c r="D78" t="n">
-        <v>11.42</v>
+        <v>10.91</v>
       </c>
       <c r="E78" t="n">
-        <v>11.42</v>
+        <v>10.91</v>
       </c>
       <c r="F78" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G78" t="n">
-        <v>-3745007.36711438</v>
+        <v>-2915361.948092095</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3522,7 +3288,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3538,22 +3306,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.23</v>
+        <v>10.9</v>
       </c>
       <c r="C79" t="n">
-        <v>11.46</v>
+        <v>10.9</v>
       </c>
       <c r="D79" t="n">
-        <v>11.46</v>
+        <v>10.9</v>
       </c>
       <c r="E79" t="n">
-        <v>11.23</v>
+        <v>10.9</v>
       </c>
       <c r="F79" t="n">
-        <v>99184.1669122164</v>
+        <v>14200</v>
       </c>
       <c r="G79" t="n">
-        <v>-3645823.200202164</v>
+        <v>-2929561.948092095</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3562,7 +3330,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3578,22 +3348,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.42</v>
+        <v>10.6</v>
       </c>
       <c r="C80" t="n">
-        <v>11.42</v>
+        <v>10.6</v>
       </c>
       <c r="D80" t="n">
-        <v>11.46</v>
+        <v>10.6</v>
       </c>
       <c r="E80" t="n">
-        <v>11.42</v>
+        <v>10.6</v>
       </c>
       <c r="F80" t="n">
-        <v>60229.1153</v>
+        <v>1805.1065</v>
       </c>
       <c r="G80" t="n">
-        <v>-3706052.315502164</v>
+        <v>-2931367.054592095</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3602,7 +3372,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3618,22 +3390,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.23</v>
+        <v>10.6</v>
       </c>
       <c r="C81" t="n">
-        <v>11.23</v>
+        <v>10.89</v>
       </c>
       <c r="D81" t="n">
-        <v>11.23</v>
+        <v>10.89</v>
       </c>
       <c r="E81" t="n">
-        <v>11.23</v>
+        <v>10.6</v>
       </c>
       <c r="F81" t="n">
-        <v>85640.9184</v>
+        <v>8466.96473516988</v>
       </c>
       <c r="G81" t="n">
-        <v>-3791693.233902164</v>
+        <v>-2922900.089856925</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3642,7 +3414,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3658,22 +3432,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.41</v>
+        <v>10.8</v>
       </c>
       <c r="C82" t="n">
-        <v>11.41</v>
+        <v>10.8</v>
       </c>
       <c r="D82" t="n">
-        <v>11.41</v>
+        <v>10.8</v>
       </c>
       <c r="E82" t="n">
-        <v>11.41</v>
+        <v>10.8</v>
       </c>
       <c r="F82" t="n">
-        <v>44</v>
+        <v>46180.9374</v>
       </c>
       <c r="G82" t="n">
-        <v>-3791649.233902164</v>
+        <v>-2969081.027256926</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3682,7 +3456,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3698,22 +3474,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.23</v>
+        <v>10.8</v>
       </c>
       <c r="C83" t="n">
-        <v>11.1</v>
+        <v>10.88</v>
       </c>
       <c r="D83" t="n">
-        <v>11.23</v>
+        <v>10.88</v>
       </c>
       <c r="E83" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F83" t="n">
-        <v>28277.387</v>
+        <v>19000</v>
       </c>
       <c r="G83" t="n">
-        <v>-3819926.620902164</v>
+        <v>-2950081.027256926</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3722,7 +3498,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3738,22 +3516,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.3</v>
+        <v>10.89</v>
       </c>
       <c r="C84" t="n">
-        <v>11.2</v>
+        <v>10.89</v>
       </c>
       <c r="D84" t="n">
-        <v>11.4</v>
+        <v>10.89</v>
       </c>
       <c r="E84" t="n">
-        <v>11.2</v>
+        <v>10.89</v>
       </c>
       <c r="F84" t="n">
-        <v>5985.967063157895</v>
+        <v>128.8001</v>
       </c>
       <c r="G84" t="n">
-        <v>-3813940.653839006</v>
+        <v>-2949952.227156925</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3762,7 +3540,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3778,22 +3558,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.1</v>
+        <v>10.89</v>
       </c>
       <c r="C85" t="n">
-        <v>11.1</v>
+        <v>10.89</v>
       </c>
       <c r="D85" t="n">
-        <v>11.1</v>
+        <v>10.89</v>
       </c>
       <c r="E85" t="n">
-        <v>11.1</v>
+        <v>10.89</v>
       </c>
       <c r="F85" t="n">
-        <v>88190.65180000001</v>
+        <v>97431.45146483013</v>
       </c>
       <c r="G85" t="n">
-        <v>-3902131.305639006</v>
+        <v>-2949952.227156925</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3802,7 +3582,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3818,22 +3600,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="C86" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="E86" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="F86" t="n">
-        <v>45</v>
+        <v>304.6286</v>
       </c>
       <c r="G86" t="n">
-        <v>-3902086.305639006</v>
+        <v>-2949647.598556926</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3842,7 +3624,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3858,22 +3642,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="E87" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="F87" t="n">
-        <v>2311.9488</v>
+        <v>61415.2745</v>
       </c>
       <c r="G87" t="n">
-        <v>-3902086.305639006</v>
+        <v>-2949647.598556926</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3882,7 +3666,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3898,22 +3684,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.33</v>
+        <v>11.05</v>
       </c>
       <c r="C88" t="n">
-        <v>11.4</v>
+        <v>11.05</v>
       </c>
       <c r="D88" t="n">
-        <v>11.4</v>
+        <v>11.05</v>
       </c>
       <c r="E88" t="n">
-        <v>11.33</v>
+        <v>11.05</v>
       </c>
       <c r="F88" t="n">
-        <v>2598.2055</v>
+        <v>46</v>
       </c>
       <c r="G88" t="n">
-        <v>-3899488.100139006</v>
+        <v>-2949601.598556926</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3922,7 +3708,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3938,22 +3726,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.37</v>
+        <v>10.91</v>
       </c>
       <c r="C89" t="n">
-        <v>11.37</v>
+        <v>10.9</v>
       </c>
       <c r="D89" t="n">
-        <v>11.37</v>
+        <v>10.91</v>
       </c>
       <c r="E89" t="n">
-        <v>11.37</v>
+        <v>10.9</v>
       </c>
       <c r="F89" t="n">
-        <v>910</v>
+        <v>182961.3217</v>
       </c>
       <c r="G89" t="n">
-        <v>-3900398.100139006</v>
+        <v>-3132562.920256926</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3962,7 +3750,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3978,22 +3768,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.4</v>
+        <v>11.05</v>
       </c>
       <c r="C90" t="n">
-        <v>11.41</v>
+        <v>11.12</v>
       </c>
       <c r="D90" t="n">
-        <v>11.41</v>
+        <v>11.12</v>
       </c>
       <c r="E90" t="n">
-        <v>11.4</v>
+        <v>11.05</v>
       </c>
       <c r="F90" t="n">
-        <v>25992.2682</v>
+        <v>1698.3488</v>
       </c>
       <c r="G90" t="n">
-        <v>-3874405.831939006</v>
+        <v>-3130864.571456926</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4002,7 +3792,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4018,22 +3810,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.37</v>
+        <v>11.12</v>
       </c>
       <c r="C91" t="n">
-        <v>11.37</v>
+        <v>11.4</v>
       </c>
       <c r="D91" t="n">
-        <v>11.37</v>
+        <v>11.4</v>
       </c>
       <c r="E91" t="n">
-        <v>11.37</v>
+        <v>11.12</v>
       </c>
       <c r="F91" t="n">
-        <v>411696.5925</v>
+        <v>2981.009230175438</v>
       </c>
       <c r="G91" t="n">
-        <v>-4286102.424439006</v>
+        <v>-3127883.56222675</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4042,7 +3834,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4058,37 +3852,41 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.39</v>
+        <v>11.2</v>
       </c>
       <c r="C92" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="D92" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="E92" t="n">
-        <v>11.39</v>
+        <v>11.2</v>
       </c>
       <c r="F92" t="n">
-        <v>1271.026884649123</v>
+        <v>1750.7715</v>
       </c>
       <c r="G92" t="n">
-        <v>-4284831.397554358</v>
+        <v>-3129634.33372675</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>10.26</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
       <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -4096,32 +3894,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.4</v>
+        <v>11.19</v>
       </c>
       <c r="C93" t="n">
-        <v>11.4</v>
+        <v>11.19</v>
       </c>
       <c r="D93" t="n">
-        <v>11.4</v>
+        <v>11.19</v>
       </c>
       <c r="E93" t="n">
-        <v>11.4</v>
+        <v>11.19</v>
       </c>
       <c r="F93" t="n">
-        <v>13529.13341535088</v>
+        <v>40000</v>
       </c>
       <c r="G93" t="n">
-        <v>-4284831.397554358</v>
+        <v>-3169634.33372675</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4132,32 +3936,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.4</v>
+        <v>11.05</v>
       </c>
       <c r="C94" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="D94" t="n">
-        <v>11.4</v>
+        <v>11.05</v>
       </c>
       <c r="E94" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="F94" t="n">
-        <v>86470.86658464912</v>
+        <v>3688.3379</v>
       </c>
       <c r="G94" t="n">
-        <v>-4284831.397554358</v>
+        <v>-3173322.67162675</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4168,32 +3978,38 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.35</v>
+        <v>11</v>
       </c>
       <c r="C95" t="n">
-        <v>11.35</v>
+        <v>11</v>
       </c>
       <c r="D95" t="n">
-        <v>11.35</v>
+        <v>11</v>
       </c>
       <c r="E95" t="n">
-        <v>11.35</v>
+        <v>11</v>
       </c>
       <c r="F95" t="n">
-        <v>1884.9422</v>
+        <v>6995.295</v>
       </c>
       <c r="G95" t="n">
-        <v>-4286716.339754358</v>
+        <v>-3173322.67162675</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4204,32 +4020,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.29</v>
+        <v>11</v>
       </c>
       <c r="C96" t="n">
-        <v>11.35</v>
+        <v>11</v>
       </c>
       <c r="D96" t="n">
-        <v>11.35</v>
+        <v>11</v>
       </c>
       <c r="E96" t="n">
-        <v>11.29</v>
+        <v>11</v>
       </c>
       <c r="F96" t="n">
-        <v>98645</v>
+        <v>913</v>
       </c>
       <c r="G96" t="n">
-        <v>-4286716.339754358</v>
+        <v>-3173322.67162675</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4240,32 +4062,38 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.29</v>
+        <v>11.02</v>
       </c>
       <c r="C97" t="n">
-        <v>11.01</v>
+        <v>11.02</v>
       </c>
       <c r="D97" t="n">
-        <v>11.29</v>
+        <v>11.02</v>
       </c>
       <c r="E97" t="n">
-        <v>11.01</v>
+        <v>11.02</v>
       </c>
       <c r="F97" t="n">
-        <v>19440.649</v>
+        <v>136.4493</v>
       </c>
       <c r="G97" t="n">
-        <v>-4306156.988754358</v>
+        <v>-3173186.22232675</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4276,22 +4104,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.29</v>
+        <v>11.02</v>
       </c>
       <c r="C98" t="n">
-        <v>11.29</v>
+        <v>11.11</v>
       </c>
       <c r="D98" t="n">
-        <v>11.29</v>
+        <v>11.11</v>
       </c>
       <c r="E98" t="n">
-        <v>11.29</v>
+        <v>11.02</v>
       </c>
       <c r="F98" t="n">
-        <v>45</v>
+        <v>3668.957959045905</v>
       </c>
       <c r="G98" t="n">
-        <v>-4306111.988754358</v>
+        <v>-3169517.264367704</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4300,8 +4128,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4312,32 +4146,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.29</v>
+        <v>11.03</v>
       </c>
       <c r="C99" t="n">
-        <v>11.3</v>
+        <v>11.03</v>
       </c>
       <c r="D99" t="n">
-        <v>11.3</v>
+        <v>11.03</v>
       </c>
       <c r="E99" t="n">
-        <v>11.29</v>
+        <v>11.03</v>
       </c>
       <c r="F99" t="n">
-        <v>602.0367733628318</v>
+        <v>1670.0686</v>
       </c>
       <c r="G99" t="n">
-        <v>-4305509.951980995</v>
+        <v>-3171187.332967704</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4348,32 +4188,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.19</v>
+        <v>11.03</v>
       </c>
       <c r="C100" t="n">
-        <v>11.1</v>
+        <v>11.03</v>
       </c>
       <c r="D100" t="n">
-        <v>11.19</v>
+        <v>11.03</v>
       </c>
       <c r="E100" t="n">
-        <v>11.1</v>
+        <v>11.03</v>
       </c>
       <c r="F100" t="n">
-        <v>79257.6863</v>
+        <v>519.926</v>
       </c>
       <c r="G100" t="n">
-        <v>-4384767.638280995</v>
+        <v>-3171187.332967704</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4384,32 +4230,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.3</v>
+        <v>11.11</v>
       </c>
       <c r="C101" t="n">
-        <v>11.3</v>
+        <v>11.11</v>
       </c>
       <c r="D101" t="n">
-        <v>11.3</v>
+        <v>11.11</v>
       </c>
       <c r="E101" t="n">
-        <v>11.3</v>
+        <v>11.11</v>
       </c>
       <c r="F101" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G101" t="n">
-        <v>-4384717.638280995</v>
+        <v>-3171141.332967704</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4420,32 +4272,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.1</v>
+        <v>11.11</v>
       </c>
       <c r="C102" t="n">
-        <v>11.1</v>
+        <v>11.11</v>
       </c>
       <c r="D102" t="n">
-        <v>11.1</v>
+        <v>11.11</v>
       </c>
       <c r="E102" t="n">
-        <v>11.1</v>
+        <v>11.11</v>
       </c>
       <c r="F102" t="n">
-        <v>5000</v>
+        <v>23484.3835</v>
       </c>
       <c r="G102" t="n">
-        <v>-4389717.638280995</v>
+        <v>-3171141.332967704</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4456,32 +4314,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.1</v>
+        <v>11.03</v>
       </c>
       <c r="C103" t="n">
-        <v>11.01</v>
+        <v>10.8</v>
       </c>
       <c r="D103" t="n">
-        <v>11.1</v>
+        <v>11.03</v>
       </c>
       <c r="E103" t="n">
-        <v>11.01</v>
+        <v>10.8</v>
       </c>
       <c r="F103" t="n">
-        <v>15043.3329</v>
+        <v>5875.5307</v>
       </c>
       <c r="G103" t="n">
-        <v>-4404760.971180995</v>
+        <v>-3177016.863667704</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4492,32 +4356,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.01</v>
+        <v>10.8</v>
       </c>
       <c r="C104" t="n">
-        <v>11.01</v>
+        <v>10.8</v>
       </c>
       <c r="D104" t="n">
-        <v>11.01</v>
+        <v>10.8</v>
       </c>
       <c r="E104" t="n">
-        <v>11.01</v>
+        <v>10.8</v>
       </c>
       <c r="F104" t="n">
-        <v>51834.007</v>
+        <v>1487.4661</v>
       </c>
       <c r="G104" t="n">
-        <v>-4404760.971180995</v>
+        <v>-3177016.863667704</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4528,32 +4398,40 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.2</v>
+        <v>10.76</v>
       </c>
       <c r="C105" t="n">
-        <v>11.2</v>
+        <v>10.76</v>
       </c>
       <c r="D105" t="n">
-        <v>11.2</v>
+        <v>10.76</v>
       </c>
       <c r="E105" t="n">
-        <v>11.2</v>
+        <v>10.76</v>
       </c>
       <c r="F105" t="n">
-        <v>45</v>
+        <v>33984.022</v>
       </c>
       <c r="G105" t="n">
-        <v>-4404715.971180995</v>
+        <v>-3211000.885667704</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K105" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4564,32 +4442,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.01</v>
+        <v>10.75</v>
       </c>
       <c r="C106" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="D106" t="n">
-        <v>11.01</v>
+        <v>10.75</v>
       </c>
       <c r="E106" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="F106" t="n">
-        <v>272490.1864</v>
+        <v>1395.3488</v>
       </c>
       <c r="G106" t="n">
-        <v>-4677206.157580995</v>
+        <v>-3212396.234467704</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="K106" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4600,32 +4486,40 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.22</v>
+        <v>10.65</v>
       </c>
       <c r="C107" t="n">
-        <v>11.22</v>
+        <v>10.65</v>
       </c>
       <c r="D107" t="n">
-        <v>11.22</v>
+        <v>10.65</v>
       </c>
       <c r="E107" t="n">
-        <v>11.22</v>
+        <v>10.65</v>
       </c>
       <c r="F107" t="n">
-        <v>45</v>
+        <v>33886.3641</v>
       </c>
       <c r="G107" t="n">
-        <v>-4677161.157580995</v>
+        <v>-3246282.598567704</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="K107" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4636,32 +4530,40 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.01</v>
+        <v>10.63</v>
       </c>
       <c r="C108" t="n">
-        <v>11.22</v>
+        <v>10.63</v>
       </c>
       <c r="D108" t="n">
-        <v>11.22</v>
+        <v>10.63</v>
       </c>
       <c r="E108" t="n">
-        <v>11.01</v>
+        <v>10.63</v>
       </c>
       <c r="F108" t="n">
-        <v>67755.6225</v>
+        <v>33430.734</v>
       </c>
       <c r="G108" t="n">
-        <v>-4677161.157580995</v>
+        <v>-3279713.332567704</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K108" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4672,32 +4574,40 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.01</v>
+        <v>10.79</v>
       </c>
       <c r="C109" t="n">
-        <v>11.01</v>
+        <v>10.86</v>
       </c>
       <c r="D109" t="n">
-        <v>11.01</v>
+        <v>10.86</v>
       </c>
       <c r="E109" t="n">
-        <v>11.01</v>
+        <v>10.79</v>
       </c>
       <c r="F109" t="n">
-        <v>57554.6823</v>
+        <v>25892.7816</v>
       </c>
       <c r="G109" t="n">
-        <v>-4734715.839880995</v>
+        <v>-3253820.550967704</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="K109" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4708,32 +4618,40 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.22</v>
+        <v>10.86</v>
       </c>
       <c r="C110" t="n">
-        <v>11.22</v>
+        <v>10.99</v>
       </c>
       <c r="D110" t="n">
-        <v>11.22</v>
+        <v>10.99</v>
       </c>
       <c r="E110" t="n">
-        <v>11.22</v>
+        <v>10.86</v>
       </c>
       <c r="F110" t="n">
-        <v>45</v>
+        <v>2992.482821929027</v>
       </c>
       <c r="G110" t="n">
-        <v>-4734670.839880995</v>
+        <v>-3250828.068145775</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="K110" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4744,22 +4662,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.02</v>
+        <v>10.98</v>
       </c>
       <c r="C111" t="n">
-        <v>11.02</v>
+        <v>10.99</v>
       </c>
       <c r="D111" t="n">
-        <v>11.02</v>
+        <v>10.99</v>
       </c>
       <c r="E111" t="n">
-        <v>11.02</v>
+        <v>10.98</v>
       </c>
       <c r="F111" t="n">
-        <v>22053</v>
+        <v>37273.96017807097</v>
       </c>
       <c r="G111" t="n">
-        <v>-4756723.839880995</v>
+        <v>-3250828.068145775</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4768,8 +4686,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4780,22 +4704,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.22</v>
+        <v>11</v>
       </c>
       <c r="C112" t="n">
-        <v>11.22</v>
+        <v>10.99</v>
       </c>
       <c r="D112" t="n">
-        <v>11.22</v>
+        <v>11</v>
       </c>
       <c r="E112" t="n">
-        <v>11.22</v>
+        <v>10.99</v>
       </c>
       <c r="F112" t="n">
-        <v>45</v>
+        <v>12716.0714</v>
       </c>
       <c r="G112" t="n">
-        <v>-4756678.839880995</v>
+        <v>-3250828.068145775</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4804,8 +4728,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4816,22 +4746,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.22</v>
+        <v>10.99</v>
       </c>
       <c r="C113" t="n">
-        <v>11.41</v>
+        <v>10.98</v>
       </c>
       <c r="D113" t="n">
-        <v>11.41</v>
+        <v>11.01</v>
       </c>
       <c r="E113" t="n">
-        <v>11.22</v>
+        <v>10.98</v>
       </c>
       <c r="F113" t="n">
-        <v>49528.77782515337</v>
+        <v>163449.499</v>
       </c>
       <c r="G113" t="n">
-        <v>-4707150.062055842</v>
+        <v>-3414277.567145775</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4840,8 +4770,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4852,32 +4788,38 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.33</v>
+        <v>11.01</v>
       </c>
       <c r="C114" t="n">
-        <v>11.33</v>
+        <v>11.01</v>
       </c>
       <c r="D114" t="n">
-        <v>11.33</v>
+        <v>11.01</v>
       </c>
       <c r="E114" t="n">
-        <v>11.33</v>
+        <v>11.01</v>
       </c>
       <c r="F114" t="n">
-        <v>3341.5367</v>
+        <v>50</v>
       </c>
       <c r="G114" t="n">
-        <v>-4710491.598755842</v>
+        <v>-3414227.567145775</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4888,32 +4830,38 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.41</v>
+        <v>10.98</v>
       </c>
       <c r="C115" t="n">
-        <v>11.41</v>
+        <v>10.98</v>
       </c>
       <c r="D115" t="n">
-        <v>11.41</v>
+        <v>10.98</v>
       </c>
       <c r="E115" t="n">
-        <v>11.41</v>
+        <v>10.98</v>
       </c>
       <c r="F115" t="n">
-        <v>44</v>
+        <v>9546.526121929026</v>
       </c>
       <c r="G115" t="n">
-        <v>-4710447.598755842</v>
+        <v>-3423774.093267704</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4924,32 +4872,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.21</v>
+        <v>10.97</v>
       </c>
       <c r="C116" t="n">
-        <v>11.1</v>
+        <v>10.97</v>
       </c>
       <c r="D116" t="n">
-        <v>11.21</v>
+        <v>10.97</v>
       </c>
       <c r="E116" t="n">
-        <v>11.1</v>
+        <v>10.97</v>
       </c>
       <c r="F116" t="n">
-        <v>50705.8971</v>
+        <v>60682.3441</v>
       </c>
       <c r="G116" t="n">
-        <v>-4761153.495855842</v>
+        <v>-3484456.437367704</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4960,32 +4914,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.3</v>
+        <v>10.85</v>
       </c>
       <c r="C117" t="n">
-        <v>11.3</v>
+        <v>10.85</v>
       </c>
       <c r="D117" t="n">
-        <v>11.3</v>
+        <v>10.85</v>
       </c>
       <c r="E117" t="n">
-        <v>11.3</v>
+        <v>10.85</v>
       </c>
       <c r="F117" t="n">
-        <v>45</v>
+        <v>63594.206</v>
       </c>
       <c r="G117" t="n">
-        <v>-4761108.495855842</v>
+        <v>-3548050.643367704</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4996,32 +4956,40 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.1</v>
+        <v>10.81</v>
       </c>
       <c r="C118" t="n">
-        <v>11.1</v>
+        <v>10.81</v>
       </c>
       <c r="D118" t="n">
-        <v>11.1</v>
+        <v>10.81</v>
       </c>
       <c r="E118" t="n">
-        <v>11.1</v>
+        <v>10.81</v>
       </c>
       <c r="F118" t="n">
-        <v>4159.6879</v>
+        <v>11073.1496</v>
       </c>
       <c r="G118" t="n">
-        <v>-4765268.183755842</v>
+        <v>-3559123.792967704</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="K118" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5032,32 +5000,40 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.29</v>
+        <v>10.81</v>
       </c>
       <c r="C119" t="n">
-        <v>11.29</v>
+        <v>10.81</v>
       </c>
       <c r="D119" t="n">
-        <v>11.29</v>
+        <v>10.81</v>
       </c>
       <c r="E119" t="n">
-        <v>11.29</v>
+        <v>10.81</v>
       </c>
       <c r="F119" t="n">
-        <v>45</v>
+        <v>2097.6926</v>
       </c>
       <c r="G119" t="n">
-        <v>-4765223.183755842</v>
+        <v>-3559123.792967704</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="K119" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5068,32 +5044,40 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.29</v>
+        <v>11.01</v>
       </c>
       <c r="C120" t="n">
-        <v>11.29</v>
+        <v>11.01</v>
       </c>
       <c r="D120" t="n">
-        <v>11.29</v>
+        <v>11.01</v>
       </c>
       <c r="E120" t="n">
-        <v>11.29</v>
+        <v>11.01</v>
       </c>
       <c r="F120" t="n">
-        <v>2000</v>
+        <v>46</v>
       </c>
       <c r="G120" t="n">
-        <v>-4765223.183755842</v>
+        <v>-3559077.792967704</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="K120" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5104,32 +5088,40 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.29</v>
+        <v>10.81</v>
       </c>
       <c r="C121" t="n">
-        <v>11.41</v>
+        <v>10.81</v>
       </c>
       <c r="D121" t="n">
-        <v>11.41</v>
+        <v>10.81</v>
       </c>
       <c r="E121" t="n">
-        <v>11.29</v>
+        <v>10.81</v>
       </c>
       <c r="F121" t="n">
-        <v>11433.56888369851</v>
+        <v>1612.9032</v>
       </c>
       <c r="G121" t="n">
-        <v>-4753789.614872144</v>
+        <v>-3560690.696167704</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K121" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5140,32 +5132,40 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.41</v>
+        <v>11.01</v>
       </c>
       <c r="C122" t="n">
-        <v>11.41</v>
+        <v>11.01</v>
       </c>
       <c r="D122" t="n">
-        <v>11.41</v>
+        <v>11.01</v>
       </c>
       <c r="E122" t="n">
-        <v>11.41</v>
+        <v>11.01</v>
       </c>
       <c r="F122" t="n">
-        <v>10000</v>
+        <v>5682.205</v>
       </c>
       <c r="G122" t="n">
-        <v>-4753789.614872144</v>
+        <v>-3555008.491167704</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="K122" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5176,32 +5176,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.41</v>
+        <v>11.01</v>
       </c>
       <c r="C123" t="n">
-        <v>11.41</v>
+        <v>11.01</v>
       </c>
       <c r="D123" t="n">
-        <v>11.41</v>
+        <v>11.01</v>
       </c>
       <c r="E123" t="n">
-        <v>11.41</v>
+        <v>11.01</v>
       </c>
       <c r="F123" t="n">
-        <v>30000</v>
+        <v>250</v>
       </c>
       <c r="G123" t="n">
-        <v>-4753789.614872144</v>
+        <v>-3555008.491167704</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5212,32 +5218,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.3</v>
+        <v>11.01</v>
       </c>
       <c r="C124" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="D124" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="E124" t="n">
-        <v>11.3</v>
+        <v>11.01</v>
       </c>
       <c r="F124" t="n">
-        <v>50000</v>
+        <v>7988.596543063063</v>
       </c>
       <c r="G124" t="n">
-        <v>-4803789.614872144</v>
+        <v>-3547019.894624641</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5248,32 +5260,38 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C125" t="n">
-        <v>11.12</v>
+        <v>11.1</v>
       </c>
       <c r="D125" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="E125" t="n">
-        <v>11.12</v>
+        <v>11.1</v>
       </c>
       <c r="F125" t="n">
-        <v>24304</v>
+        <v>11340.64575693694</v>
       </c>
       <c r="G125" t="n">
-        <v>-4828093.614872144</v>
+        <v>-3547019.894624641</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5284,32 +5302,38 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.12</v>
+        <v>11.1</v>
       </c>
       <c r="C126" t="n">
-        <v>11.12</v>
+        <v>11.1</v>
       </c>
       <c r="D126" t="n">
-        <v>11.12</v>
+        <v>11.1</v>
       </c>
       <c r="E126" t="n">
-        <v>11.12</v>
+        <v>11.1</v>
       </c>
       <c r="F126" t="n">
-        <v>813.6612</v>
+        <v>52550</v>
       </c>
       <c r="G126" t="n">
-        <v>-4828093.614872144</v>
+        <v>-3547019.894624641</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5320,22 +5344,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.3</v>
+        <v>11.11</v>
       </c>
       <c r="C127" t="n">
-        <v>11.3</v>
+        <v>11.11</v>
       </c>
       <c r="D127" t="n">
-        <v>11.3</v>
+        <v>11.11</v>
       </c>
       <c r="E127" t="n">
-        <v>11.3</v>
+        <v>11.11</v>
       </c>
       <c r="F127" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G127" t="n">
-        <v>-4828048.614872144</v>
+        <v>-3546973.894624641</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5344,8 +5368,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5356,22 +5386,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C128" t="n">
-        <v>11.48</v>
+        <v>11</v>
       </c>
       <c r="D128" t="n">
-        <v>11.48</v>
+        <v>11</v>
       </c>
       <c r="E128" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F128" t="n">
-        <v>100622.9794</v>
+        <v>46211.4787</v>
       </c>
       <c r="G128" t="n">
-        <v>-4727425.635472144</v>
+        <v>-3593185.373324641</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5380,8 +5410,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5392,22 +5428,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.49</v>
+        <v>11.11</v>
       </c>
       <c r="C129" t="n">
-        <v>11.75</v>
+        <v>11.12</v>
       </c>
       <c r="D129" t="n">
-        <v>11.75</v>
+        <v>11.12</v>
       </c>
       <c r="E129" t="n">
-        <v>11.49</v>
+        <v>11.11</v>
       </c>
       <c r="F129" t="n">
-        <v>48408.1011</v>
+        <v>15830.83211748287</v>
       </c>
       <c r="G129" t="n">
-        <v>-4679017.534372144</v>
+        <v>-3577354.541207158</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5416,8 +5452,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5428,22 +5470,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.75</v>
+        <v>11.12</v>
       </c>
       <c r="C130" t="n">
-        <v>11.89</v>
+        <v>11.12</v>
       </c>
       <c r="D130" t="n">
-        <v>11.89</v>
+        <v>11.12</v>
       </c>
       <c r="E130" t="n">
-        <v>11.75</v>
+        <v>11.12</v>
       </c>
       <c r="F130" t="n">
-        <v>187466.1749</v>
+        <v>17942.5115</v>
       </c>
       <c r="G130" t="n">
-        <v>-4491551.359472144</v>
+        <v>-3577354.541207158</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5452,8 +5494,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5464,32 +5512,38 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.81</v>
+        <v>11.12</v>
       </c>
       <c r="C131" t="n">
-        <v>11.42</v>
+        <v>11.12</v>
       </c>
       <c r="D131" t="n">
-        <v>11.81</v>
+        <v>11.12</v>
       </c>
       <c r="E131" t="n">
-        <v>11.42</v>
+        <v>11.12</v>
       </c>
       <c r="F131" t="n">
-        <v>100057</v>
+        <v>13007.0507</v>
       </c>
       <c r="G131" t="n">
-        <v>-4591608.359472144</v>
+        <v>-3577354.541207158</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5500,32 +5554,38 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.2</v>
+        <v>10.91</v>
       </c>
       <c r="C132" t="n">
-        <v>11.81</v>
+        <v>10.91</v>
       </c>
       <c r="D132" t="n">
-        <v>11.81</v>
+        <v>10.91</v>
       </c>
       <c r="E132" t="n">
-        <v>11.2</v>
+        <v>10.91</v>
       </c>
       <c r="F132" t="n">
-        <v>8998.993</v>
+        <v>36399.1944</v>
       </c>
       <c r="G132" t="n">
-        <v>-4582609.366472145</v>
+        <v>-3613753.735607157</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5536,32 +5596,38 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11.2</v>
+        <v>11.11</v>
       </c>
       <c r="C133" t="n">
-        <v>11.2</v>
+        <v>11.11</v>
       </c>
       <c r="D133" t="n">
-        <v>11.2</v>
+        <v>11.11</v>
       </c>
       <c r="E133" t="n">
-        <v>11.2</v>
+        <v>11.11</v>
       </c>
       <c r="F133" t="n">
-        <v>4903.406</v>
+        <v>46</v>
       </c>
       <c r="G133" t="n">
-        <v>-4587512.772472145</v>
+        <v>-3613707.735607157</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5572,32 +5638,38 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.74</v>
+        <v>11.03</v>
       </c>
       <c r="C134" t="n">
-        <v>11.74</v>
+        <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>11.74</v>
+        <v>11.03</v>
       </c>
       <c r="E134" t="n">
-        <v>11.74</v>
+        <v>11</v>
       </c>
       <c r="F134" t="n">
-        <v>43</v>
+        <v>13076.2691</v>
       </c>
       <c r="G134" t="n">
-        <v>-4587469.772472145</v>
+        <v>-3626784.004707158</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5608,32 +5680,38 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.69</v>
+        <v>11.11</v>
       </c>
       <c r="C135" t="n">
-        <v>11.69</v>
+        <v>11.11</v>
       </c>
       <c r="D135" t="n">
-        <v>11.69</v>
+        <v>11.11</v>
       </c>
       <c r="E135" t="n">
-        <v>11.69</v>
+        <v>11.11</v>
       </c>
       <c r="F135" t="n">
-        <v>4800.0057</v>
+        <v>46</v>
       </c>
       <c r="G135" t="n">
-        <v>-4592269.778172145</v>
+        <v>-3626738.004707158</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5644,32 +5722,38 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.22</v>
+        <v>11</v>
       </c>
       <c r="C136" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D136" t="n">
-        <v>11.22</v>
+        <v>11</v>
       </c>
       <c r="E136" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F136" t="n">
-        <v>5044.7801</v>
+        <v>35155.3094</v>
       </c>
       <c r="G136" t="n">
-        <v>-4597314.558272145</v>
+        <v>-3661893.314107158</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5680,32 +5764,38 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C137" t="n">
-        <v>11.2</v>
+        <v>11.11</v>
       </c>
       <c r="D137" t="n">
-        <v>11.2</v>
+        <v>11.11</v>
       </c>
       <c r="E137" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F137" t="n">
-        <v>4132.5253</v>
+        <v>7539.99456930693</v>
       </c>
       <c r="G137" t="n">
-        <v>-4597314.558272145</v>
+        <v>-3654353.319537851</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5716,32 +5806,38 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.6</v>
+        <v>11.11</v>
       </c>
       <c r="C138" t="n">
-        <v>11.6</v>
+        <v>11.11</v>
       </c>
       <c r="D138" t="n">
-        <v>11.6</v>
+        <v>11.11</v>
       </c>
       <c r="E138" t="n">
-        <v>11.6</v>
+        <v>11.11</v>
       </c>
       <c r="F138" t="n">
-        <v>44</v>
+        <v>245.9485</v>
       </c>
       <c r="G138" t="n">
-        <v>-4597270.558272145</v>
+        <v>-3654353.319537851</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5752,32 +5848,38 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.4</v>
+        <v>11.11</v>
       </c>
       <c r="C139" t="n">
-        <v>11.4</v>
+        <v>11.11</v>
       </c>
       <c r="D139" t="n">
-        <v>11.4</v>
+        <v>11.11</v>
       </c>
       <c r="E139" t="n">
-        <v>11.4</v>
+        <v>11.11</v>
       </c>
       <c r="F139" t="n">
-        <v>50</v>
+        <v>241.5697</v>
       </c>
       <c r="G139" t="n">
-        <v>-4597320.558272145</v>
+        <v>-3654353.319537851</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5788,32 +5890,38 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>11.25</v>
+        <v>11.11</v>
       </c>
       <c r="C140" t="n">
-        <v>11.25</v>
+        <v>11.11</v>
       </c>
       <c r="D140" t="n">
-        <v>11.25</v>
+        <v>11.11</v>
       </c>
       <c r="E140" t="n">
-        <v>11.25</v>
+        <v>11.11</v>
       </c>
       <c r="F140" t="n">
-        <v>50</v>
+        <v>43378.2121</v>
       </c>
       <c r="G140" t="n">
-        <v>-4597370.558272145</v>
+        <v>-3654353.319537851</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5824,32 +5932,38 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>11.25</v>
+        <v>11.11</v>
       </c>
       <c r="C141" t="n">
-        <v>11.25</v>
+        <v>11.11</v>
       </c>
       <c r="D141" t="n">
-        <v>11.25</v>
+        <v>11.11</v>
       </c>
       <c r="E141" t="n">
-        <v>11.25</v>
+        <v>11.11</v>
       </c>
       <c r="F141" t="n">
-        <v>4413.7444</v>
+        <v>3.0693069306931e-05</v>
       </c>
       <c r="G141" t="n">
-        <v>-4597370.558272145</v>
+        <v>-3654353.319537851</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5860,22 +5974,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>11.25</v>
+        <v>11.12</v>
       </c>
       <c r="C142" t="n">
-        <v>11.25</v>
+        <v>11.12</v>
       </c>
       <c r="D142" t="n">
-        <v>11.25</v>
+        <v>11.12</v>
       </c>
       <c r="E142" t="n">
-        <v>11.25</v>
+        <v>11.12</v>
       </c>
       <c r="F142" t="n">
-        <v>9395.6546</v>
+        <v>15498.86002347122</v>
       </c>
       <c r="G142" t="n">
-        <v>-4597370.558272145</v>
+        <v>-3638854.45951438</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5884,8 +5998,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5896,32 +6016,38 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>11.3</v>
+        <v>11.13</v>
       </c>
       <c r="C143" t="n">
-        <v>11.3</v>
+        <v>11.13</v>
       </c>
       <c r="D143" t="n">
-        <v>11.3</v>
+        <v>11.13</v>
       </c>
       <c r="E143" t="n">
-        <v>11.3</v>
+        <v>11.13</v>
       </c>
       <c r="F143" t="n">
-        <v>45</v>
+        <v>2375.6362</v>
       </c>
       <c r="G143" t="n">
-        <v>-4597325.558272145</v>
+        <v>-3636478.82331438</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5932,32 +6058,38 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>11.23</v>
+        <v>11.13</v>
       </c>
       <c r="C144" t="n">
-        <v>11.15</v>
+        <v>11.13</v>
       </c>
       <c r="D144" t="n">
-        <v>11.23</v>
+        <v>11.13</v>
       </c>
       <c r="E144" t="n">
-        <v>11.15</v>
+        <v>11.13</v>
       </c>
       <c r="F144" t="n">
-        <v>26896</v>
+        <v>13801.0094</v>
       </c>
       <c r="G144" t="n">
-        <v>-4624221.558272145</v>
+        <v>-3636478.82331438</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5968,22 +6100,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11.17</v>
+        <v>11.13</v>
       </c>
       <c r="C145" t="n">
-        <v>11.16</v>
+        <v>11</v>
       </c>
       <c r="D145" t="n">
-        <v>11.17</v>
+        <v>11.13</v>
       </c>
       <c r="E145" t="n">
-        <v>11.16</v>
+        <v>11</v>
       </c>
       <c r="F145" t="n">
-        <v>89451.44620000001</v>
+        <v>109585.6522</v>
       </c>
       <c r="G145" t="n">
-        <v>-4534770.112072145</v>
+        <v>-3746064.47551438</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5992,8 +6124,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6004,22 +6142,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.15</v>
+        <v>11.2</v>
       </c>
       <c r="C146" t="n">
-        <v>11.15</v>
+        <v>11.2</v>
       </c>
       <c r="D146" t="n">
-        <v>11.15</v>
+        <v>11.2</v>
       </c>
       <c r="E146" t="n">
-        <v>11.15</v>
+        <v>11.2</v>
       </c>
       <c r="F146" t="n">
-        <v>96532.1586</v>
+        <v>45</v>
       </c>
       <c r="G146" t="n">
-        <v>-4631302.270672144</v>
+        <v>-3746019.47551438</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6028,8 +6166,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6040,22 +6184,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.14</v>
+        <v>11.2</v>
       </c>
       <c r="C147" t="n">
-        <v>11.14</v>
+        <v>11.2</v>
       </c>
       <c r="D147" t="n">
-        <v>11.14</v>
+        <v>11.2</v>
       </c>
       <c r="E147" t="n">
-        <v>11.14</v>
+        <v>11.2</v>
       </c>
       <c r="F147" t="n">
-        <v>16446.0373</v>
+        <v>34955.3773</v>
       </c>
       <c r="G147" t="n">
-        <v>-4647748.307972144</v>
+        <v>-3746019.47551438</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6064,8 +6208,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6076,22 +6226,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>11.12</v>
+        <v>11.22</v>
       </c>
       <c r="C148" t="n">
-        <v>11.11</v>
+        <v>11.22</v>
       </c>
       <c r="D148" t="n">
-        <v>11.12</v>
+        <v>11.22</v>
       </c>
       <c r="E148" t="n">
-        <v>11.11</v>
+        <v>11.22</v>
       </c>
       <c r="F148" t="n">
-        <v>101256.1889</v>
+        <v>968.1084</v>
       </c>
       <c r="G148" t="n">
-        <v>-4749004.496872145</v>
+        <v>-3745051.36711438</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6100,8 +6250,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6112,22 +6268,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>11.12</v>
+        <v>11.42</v>
       </c>
       <c r="C149" t="n">
-        <v>11.12</v>
+        <v>11.42</v>
       </c>
       <c r="D149" t="n">
-        <v>11.12</v>
+        <v>11.42</v>
       </c>
       <c r="E149" t="n">
-        <v>11.12</v>
+        <v>11.42</v>
       </c>
       <c r="F149" t="n">
-        <v>3238.9695</v>
+        <v>44</v>
       </c>
       <c r="G149" t="n">
-        <v>-4745765.527372145</v>
+        <v>-3745007.36711438</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6136,8 +6292,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6148,22 +6310,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>11.14</v>
+        <v>11.23</v>
       </c>
       <c r="C150" t="n">
-        <v>11.15</v>
+        <v>11.46</v>
       </c>
       <c r="D150" t="n">
-        <v>11.15</v>
+        <v>11.46</v>
       </c>
       <c r="E150" t="n">
-        <v>11.14</v>
+        <v>11.23</v>
       </c>
       <c r="F150" t="n">
-        <v>39514.7735</v>
+        <v>99184.1669122164</v>
       </c>
       <c r="G150" t="n">
-        <v>-4706250.753872145</v>
+        <v>-3645823.200202164</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6172,8 +6334,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6184,22 +6352,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>11.15</v>
+        <v>11.42</v>
       </c>
       <c r="C151" t="n">
-        <v>11.15</v>
+        <v>11.42</v>
       </c>
       <c r="D151" t="n">
-        <v>11.15</v>
+        <v>11.46</v>
       </c>
       <c r="E151" t="n">
-        <v>11.15</v>
+        <v>11.42</v>
       </c>
       <c r="F151" t="n">
-        <v>100</v>
+        <v>60229.1153</v>
       </c>
       <c r="G151" t="n">
-        <v>-4706250.753872145</v>
+        <v>-3706052.315502164</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6208,8 +6376,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6220,22 +6394,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>11.15</v>
+        <v>11.23</v>
       </c>
       <c r="C152" t="n">
-        <v>11.15</v>
+        <v>11.23</v>
       </c>
       <c r="D152" t="n">
-        <v>11.15</v>
+        <v>11.23</v>
       </c>
       <c r="E152" t="n">
-        <v>11.15</v>
+        <v>11.23</v>
       </c>
       <c r="F152" t="n">
-        <v>100000</v>
+        <v>85640.9184</v>
       </c>
       <c r="G152" t="n">
-        <v>-4706250.753872145</v>
+        <v>-3791693.233902164</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6244,8 +6418,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6256,22 +6436,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>11.15</v>
+        <v>11.41</v>
       </c>
       <c r="C153" t="n">
-        <v>11.15</v>
+        <v>11.41</v>
       </c>
       <c r="D153" t="n">
-        <v>11.15</v>
+        <v>11.41</v>
       </c>
       <c r="E153" t="n">
-        <v>11.15</v>
+        <v>11.41</v>
       </c>
       <c r="F153" t="n">
-        <v>18887.5964</v>
+        <v>44</v>
       </c>
       <c r="G153" t="n">
-        <v>-4706250.753872145</v>
+        <v>-3791649.233902164</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6280,8 +6460,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6292,36 +6478,3024 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="C154" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="E154" t="n">
+        <v>11</v>
+      </c>
+      <c r="F154" t="n">
+        <v>28277.387</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-3819926.620902164</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E155" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5985.967063157895</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-3813940.653839006</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>88190.65180000001</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-3902131.305639006</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D157" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E157" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>45</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-3902086.305639006</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E158" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2311.9488</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-3902086.305639006</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="C159" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D159" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E159" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2598.2055</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-3899488.100139006</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="C160" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="D160" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="E160" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="F160" t="n">
+        <v>910</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-3900398.100139006</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="E161" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>25992.2682</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-3874405.831939006</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="C162" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="D162" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="E162" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="F162" t="n">
+        <v>411696.5925</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-4286102.424439006</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="C163" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E163" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1271.026884649123</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-4284831.397554358</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C164" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D164" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F164" t="n">
+        <v>13529.13341535088</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-4284831.397554358</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C165" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F165" t="n">
+        <v>86470.86658464912</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-4284831.397554358</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1884.9422</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-4286716.339754358</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="C167" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="E167" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="F167" t="n">
+        <v>98645</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-4286716.339754358</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="C168" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="E168" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19440.649</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-4306156.988754358</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="C169" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="D169" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="E169" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="F169" t="n">
+        <v>45</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-4306111.988754358</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="C170" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E170" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="F170" t="n">
+        <v>602.0367733628318</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-4305509.951980995</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="C171" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="E171" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>79257.6863</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-4384767.638280995</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C172" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D172" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E172" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F172" t="n">
+        <v>50</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-4384717.638280995</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D173" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-4389717.638280995</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="D174" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="F174" t="n">
+        <v>15043.3329</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-4404760.971180995</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="C175" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="D175" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="E175" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="F175" t="n">
+        <v>51834.007</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-4404760.971180995</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E176" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>45</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-4404715.971180995</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="C177" t="n">
+        <v>11</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="E177" t="n">
+        <v>11</v>
+      </c>
+      <c r="F177" t="n">
+        <v>272490.1864</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-4677206.157580995</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="C178" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="E178" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="F178" t="n">
+        <v>45</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-4677161.157580995</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="C179" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="D179" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="E179" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="F179" t="n">
+        <v>67755.6225</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-4677161.157580995</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="C180" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="E180" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="F180" t="n">
+        <v>57554.6823</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-4734715.839880995</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="C181" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="E181" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="F181" t="n">
+        <v>45</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-4734670.839880995</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="E182" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="F182" t="n">
+        <v>22053</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-4756723.839880995</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="C183" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="E183" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="F183" t="n">
+        <v>45</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-4756678.839880995</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="C184" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="D184" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="E184" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="F184" t="n">
+        <v>49528.77782515337</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-4707150.062055842</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="C185" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="D185" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="E185" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3341.5367</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-4710491.598755842</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="C186" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="D186" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="E186" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="F186" t="n">
+        <v>44</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-4710447.598755842</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="C187" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="E187" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F187" t="n">
+        <v>50705.8971</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-4761153.495855842</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C188" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D188" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E188" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F188" t="n">
+        <v>45</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-4761108.495855842</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>4159.6879</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-4765268.183755842</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="C190" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="D190" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="E190" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="F190" t="n">
+        <v>45</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-4765223.183755842</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="C191" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="D191" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="E191" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-4765223.183755842</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="C192" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="D192" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="E192" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="F192" t="n">
+        <v>11433.56888369851</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-4753789.614872144</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="C193" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="D193" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="E193" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="F193" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-4753789.614872144</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="C194" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="D194" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="E194" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="F194" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-4753789.614872144</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C195" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D195" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E195" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F195" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-4803789.614872144</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C196" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="D196" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E196" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="F196" t="n">
+        <v>24304</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-4828093.614872144</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="C197" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="D197" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="E197" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="F197" t="n">
+        <v>813.6612</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-4828093.614872144</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C198" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D198" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E198" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F198" t="n">
+        <v>45</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-4828048.614872144</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C199" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="D199" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="E199" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F199" t="n">
+        <v>100622.9794</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-4727425.635472144</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="C200" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D200" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E200" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="F200" t="n">
+        <v>48408.1011</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-4679017.534372144</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C201" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D201" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E201" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F201" t="n">
+        <v>187466.1749</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-4491551.359472144</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C202" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="D202" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E202" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="F202" t="n">
+        <v>100057</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-4591608.359472144</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C203" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D203" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E203" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F203" t="n">
+        <v>8998.993</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-4582609.366472145</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C204" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D204" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E204" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F204" t="n">
+        <v>4903.406</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-4587512.772472145</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C205" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="D205" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="E205" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F205" t="n">
+        <v>43</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-4587469.772472145</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C206" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D206" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E206" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F206" t="n">
+        <v>4800.0057</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-4592269.778172145</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="C207" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D207" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="E207" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F207" t="n">
+        <v>5044.7801</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-4597314.558272145</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C208" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D208" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E208" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F208" t="n">
+        <v>4132.5253</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-4597314.558272145</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C209" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D209" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E209" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F209" t="n">
+        <v>44</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-4597270.558272145</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C210" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D210" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E210" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F210" t="n">
+        <v>50</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-4597320.558272145</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="C211" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="D211" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="E211" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F211" t="n">
+        <v>50</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-4597370.558272145</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="C212" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="D212" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="E212" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F212" t="n">
+        <v>4413.7444</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-4597370.558272145</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="C213" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="D213" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="E213" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F213" t="n">
+        <v>9395.6546</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-4597370.558272145</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C214" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D214" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E214" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F214" t="n">
+        <v>45</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-4597325.558272145</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="C215" t="n">
         <v>11.15</v>
       </c>
-      <c r="C154" t="n">
+      <c r="D215" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="E215" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F215" t="n">
+        <v>26896</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-4624221.558272145</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="C216" t="n">
         <v>11.16</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D216" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="E216" t="n">
         <v>11.16</v>
       </c>
-      <c r="E154" t="n">
+      <c r="F216" t="n">
+        <v>89451.44620000001</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-4534770.112072145</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
         <v>11.15</v>
       </c>
-      <c r="F154" t="n">
+      <c r="C217" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="D217" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="E217" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F217" t="n">
+        <v>96532.1586</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-4631302.270672144</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="C218" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="D218" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="E218" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="F218" t="n">
+        <v>16446.0373</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-4647748.307972144</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="C219" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="D219" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="E219" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="F219" t="n">
+        <v>101256.1889</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-4749004.496872145</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="C220" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="D220" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="E220" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="F220" t="n">
+        <v>3238.9695</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-4745765.527372145</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="C221" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="D221" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="E221" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="F221" t="n">
+        <v>39514.7735</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-4706250.753872145</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="C222" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="D222" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="E222" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F222" t="n">
+        <v>100</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-4706250.753872145</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="C223" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="D223" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="E223" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F223" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-4706250.753872145</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="C224" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="D224" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="E224" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F224" t="n">
+        <v>18887.5964</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-4706250.753872145</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="C225" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="D225" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="E225" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F225" t="n">
         <v>58799.8431</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G225" t="n">
         <v>-4647450.910772145</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest TRV.xlsx
+++ b/BackTest/2020-01-16 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N225"/>
+  <dimension ref="A1:M225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-615074.5081094711</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-2087975.087592096</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-2080544.975292096</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-2325602.965992095</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-2327168.228592095</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,22 +2497,15 @@
         <v>-2973025.775192095</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="K64" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2728,282 +2530,251 @@
         <v>-2984478.458192096</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="C66" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="E66" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="F66" t="n">
+        <v>10033.2902</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-2974445.167992095</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" t="n">
         <v>10.06</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="J66" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="C67" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="E67" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3063.3573</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-2974445.167992095</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
         <v>10.12</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C68" t="n">
         <v>10.12</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D68" t="n">
         <v>10.12</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E68" t="n">
         <v>10.12</v>
       </c>
-      <c r="F66" t="n">
-        <v>10033.2902</v>
-      </c>
-      <c r="G66" t="n">
+      <c r="F68" t="n">
+        <v>89927.9375</v>
+      </c>
+      <c r="G68" t="n">
         <v>-2974445.167992095</v>
       </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+      <c r="I68" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="J68" t="n">
         <v>10.06</v>
       </c>
-      <c r="K66" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="C69" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="E69" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2721.4206</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-2971723.747392096</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="n">
         <v>10.12</v>
       </c>
-      <c r="C67" t="n">
+      <c r="J69" t="n">
         <v>10.12</v>
       </c>
-      <c r="D67" t="n">
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="C70" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="F70" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-2971723.747392096</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="J70" t="n">
         <v>10.12</v>
       </c>
-      <c r="E67" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="F67" t="n">
-        <v>3063.3573</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-2974445.167992095</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="K67" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="D68" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="F68" t="n">
-        <v>89927.9375</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-2974445.167992095</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="K68" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
         <v>10.26</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C71" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="D71" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="E71" t="n">
         <v>10.26</v>
       </c>
-      <c r="D69" t="n">
+      <c r="F71" t="n">
+        <v>5852.6523</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-2965871.095092095</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" t="n">
         <v>10.26</v>
       </c>
-      <c r="E69" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2721.4206</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-2971723.747392096</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
+      <c r="J71" t="n">
         <v>10.12</v>
       </c>
-      <c r="K69" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="D70" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="F70" t="n">
-        <v>14000</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-2971723.747392096</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K70" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="D71" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="F71" t="n">
-        <v>5852.6523</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-2965871.095092095</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K71" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3028,26 +2799,19 @@
         <v>-2965822.095092095</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>10.34</v>
       </c>
       <c r="J72" t="n">
         <v>10.34</v>
       </c>
-      <c r="K72" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3072,24 +2836,23 @@
         <v>-2960951.824092095</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L73" t="inlineStr">
+        <v>10.52</v>
+      </c>
+      <c r="J73" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3116,22 +2879,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3158,22 +2918,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3200,22 +2951,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3242,22 +2984,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3284,22 +3017,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3326,22 +3050,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3368,22 +3083,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3410,22 +3116,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3452,22 +3149,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3494,22 +3182,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3536,22 +3215,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3578,22 +3248,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3618,24 +3279,15 @@
         <v>-2949647.598556926</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3660,24 +3312,15 @@
         <v>-2949647.598556926</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3702,24 +3345,15 @@
         <v>-2949601.598556926</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3744,24 +3378,15 @@
         <v>-3132562.920256926</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3786,24 +3411,15 @@
         <v>-3130864.571456926</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3828,24 +3444,15 @@
         <v>-3127883.56222675</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3870,24 +3477,15 @@
         <v>-3129634.33372675</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3912,24 +3510,15 @@
         <v>-3169634.33372675</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3956,22 +3545,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3996,24 +3576,15 @@
         <v>-3173322.67162675</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4040,22 +3611,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4082,22 +3644,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4124,22 +3677,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4166,22 +3710,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4208,22 +3743,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4250,22 +3776,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4292,22 +3809,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4334,22 +3842,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4376,22 +3875,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4416,26 +3906,15 @@
         <v>-3211000.885667704</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K105" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4460,26 +3939,15 @@
         <v>-3212396.234467704</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="K106" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4504,26 +3972,15 @@
         <v>-3246282.598567704</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="K107" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4548,26 +4005,15 @@
         <v>-3279713.332567704</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K108" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4592,26 +4038,15 @@
         <v>-3253820.550967704</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="K109" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4636,26 +4071,15 @@
         <v>-3250828.068145775</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="K110" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4682,22 +4106,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4722,24 +4137,15 @@
         <v>-3250828.068145775</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4764,24 +4170,15 @@
         <v>-3414277.567145775</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4806,24 +4203,15 @@
         <v>-3414227.567145775</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4850,22 +4238,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4892,22 +4271,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4934,22 +4304,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4974,26 +4335,15 @@
         <v>-3559123.792967704</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="K118" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5018,26 +4368,15 @@
         <v>-3559123.792967704</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="K119" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5064,24 +4403,13 @@
       <c r="H120" t="n">
         <v>1</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="K120" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5108,24 +4436,13 @@
       <c r="H121" t="n">
         <v>1</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K121" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5152,24 +4469,13 @@
       <c r="H122" t="n">
         <v>1</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="K122" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5196,22 +4502,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5238,22 +4535,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5280,22 +4568,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5322,22 +4601,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5364,22 +4634,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5406,22 +4667,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5448,22 +4700,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5490,22 +4733,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5532,22 +4766,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5572,24 +4797,15 @@
         <v>-3613753.735607157</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5616,22 +4832,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5656,24 +4863,15 @@
         <v>-3626784.004707158</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5698,24 +4896,15 @@
         <v>-3626738.004707158</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5740,24 +4929,15 @@
         <v>-3661893.314107158</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5782,24 +4962,15 @@
         <v>-3654353.319537851</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5824,24 +4995,15 @@
         <v>-3654353.319537851</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5868,22 +5030,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5910,22 +5063,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5952,22 +5096,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5994,22 +5129,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6036,22 +5162,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6078,22 +5195,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6120,22 +5228,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6162,22 +5261,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6202,24 +5292,15 @@
         <v>-3746019.47551438</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6244,24 +5325,15 @@
         <v>-3745051.36711438</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6286,24 +5358,15 @@
         <v>-3745007.36711438</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6328,24 +5391,15 @@
         <v>-3645823.200202164</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6370,24 +5424,15 @@
         <v>-3706052.315502164</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6412,24 +5457,15 @@
         <v>-3791693.233902164</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6454,24 +5490,15 @@
         <v>-3791649.233902164</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6496,24 +5523,15 @@
         <v>-3819926.620902164</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6540,22 +5558,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6580,24 +5589,15 @@
         <v>-3902131.305639006</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6622,24 +5622,15 @@
         <v>-3902086.305639006</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6664,24 +5655,15 @@
         <v>-3902086.305639006</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6706,24 +5688,15 @@
         <v>-3899488.100139006</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6748,24 +5721,15 @@
         <v>-3900398.100139006</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6790,24 +5754,15 @@
         <v>-3874405.831939006</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6832,24 +5787,15 @@
         <v>-4286102.424439006</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6874,24 +5820,15 @@
         <v>-4284831.397554358</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6916,24 +5853,15 @@
         <v>-4284831.397554358</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6958,24 +5886,15 @@
         <v>-4284831.397554358</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7000,24 +5919,15 @@
         <v>-4286716.339754358</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7042,24 +5952,15 @@
         <v>-4286716.339754358</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7084,24 +5985,15 @@
         <v>-4306156.988754358</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7126,24 +6018,15 @@
         <v>-4306111.988754358</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7168,24 +6051,15 @@
         <v>-4305509.951980995</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7210,24 +6084,15 @@
         <v>-4384767.638280995</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7252,24 +6117,15 @@
         <v>-4384717.638280995</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7294,24 +6150,15 @@
         <v>-4389717.638280995</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7338,22 +6185,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7380,22 +6218,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7422,22 +6251,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7464,22 +6284,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7506,22 +6317,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7548,22 +6350,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7590,22 +6383,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7632,22 +6416,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7674,22 +6449,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7716,22 +6482,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7758,22 +6515,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7800,22 +6548,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7842,22 +6581,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7884,22 +6614,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7926,22 +6647,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7968,22 +6680,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8010,22 +6713,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8052,22 +6746,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8094,22 +6779,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8136,22 +6812,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8178,22 +6845,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8220,22 +6878,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8262,22 +6911,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8304,22 +6944,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8346,22 +6977,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8388,22 +7010,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8430,22 +7043,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8472,22 +7076,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8514,22 +7109,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8556,22 +7142,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8598,22 +7175,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8640,22 +7208,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8682,22 +7241,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8722,24 +7272,15 @@
         <v>-4597314.558272145</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8764,24 +7305,15 @@
         <v>-4597314.558272145</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8808,22 +7340,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8848,24 +7371,15 @@
         <v>-4597320.558272145</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8892,22 +7406,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8934,22 +7439,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8976,22 +7472,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9018,22 +7505,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9060,22 +7538,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9102,22 +7571,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9144,22 +7604,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9186,22 +7637,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9228,22 +7670,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9270,22 +7703,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9312,22 +7736,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9354,22 +7769,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9396,22 +7802,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9438,22 +7835,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9480,24 +7868,15 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest TRV.xlsx
+++ b/BackTest/2020-01-16 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-615074.5081094711</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-615029.5081094711</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-615029.5081094711</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-615029.5081094711</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-630674.847909471</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-630629.847909471</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-640642.580709471</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-640597.580709471</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-661450.565409471</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-774031.235509471</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-775677.2929094711</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-775605.311309471</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-775605.311309471</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1669236.064609471</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2095668.854309471</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2086616.662692096</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2087975.087592096</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2080544.975292096</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2080389.576192096</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2081153.812092096</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2224177.455692096</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2332064.649892095</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2325777.523292095</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2325777.523292095</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2330484.109592095</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2330403.494492095</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2330403.494492095</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2330403.494492095</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2203320.798892095</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2207816.902892095</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2325649.965992095</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2325602.965992095</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2325602.965992095</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2325555.965992095</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2325555.965992095</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2325555.965992095</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2327168.228592095</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2327359.228592095</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2328578.582592095</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2384300.881992095</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2563,14 +2563,10 @@
         <v>-2974445.167992095</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="J66" t="n">
-        <v>10.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2603,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2639,19 +2629,11 @@
         <v>-2974445.167992095</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="J68" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2680,14 +2662,10 @@
         <v>-2971723.747392096</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>10.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2717,19 +2695,11 @@
         <v>-2971723.747392096</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="J70" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2758,19 +2728,11 @@
         <v>-2965871.095092095</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="J71" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2799,14 +2761,10 @@
         <v>-2965822.095092095</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="J72" t="n">
-        <v>10.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2836,19 +2794,11 @@
         <v>-2960951.824092095</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="J73" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2880,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3279,7 +3223,7 @@
         <v>-2949647.598556926</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3312,7 +3256,7 @@
         <v>-2949647.598556926</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3345,7 +3289,7 @@
         <v>-2949601.598556926</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3378,7 +3322,7 @@
         <v>-3132562.920256926</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3411,7 +3355,7 @@
         <v>-3130864.571456926</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3444,7 +3388,7 @@
         <v>-3127883.56222675</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3477,7 +3421,7 @@
         <v>-3129634.33372675</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3510,7 +3454,7 @@
         <v>-3169634.33372675</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3576,7 +3520,7 @@
         <v>-3173322.67162675</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4005,10 +3949,14 @@
         <v>-3279713.332567704</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="J108" t="n">
+        <v>10.65</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
@@ -4038,11 +3986,19 @@
         <v>-3253820.550967704</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="J109" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4071,11 +4027,19 @@
         <v>-3250828.068145775</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="J110" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4104,11 +4068,19 @@
         <v>-3250828.068145775</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="J111" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4139,9 +4111,17 @@
       <c r="H112" t="n">
         <v>1</v>
       </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="J112" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4172,9 +4152,17 @@
       <c r="H113" t="n">
         <v>1</v>
       </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="J113" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4205,9 +4193,17 @@
       <c r="H114" t="n">
         <v>1</v>
       </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="J114" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4236,11 +4232,19 @@
         <v>-3423774.093267704</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="J115" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4269,11 +4273,19 @@
         <v>-3484456.437367704</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="J116" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4302,11 +4314,19 @@
         <v>-3548050.643367704</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J117" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4335,11 +4355,19 @@
         <v>-3559123.792967704</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="J118" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4368,11 +4396,19 @@
         <v>-3559123.792967704</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="J119" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4403,9 +4439,17 @@
       <c r="H120" t="n">
         <v>1</v>
       </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="J120" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4436,9 +4480,17 @@
       <c r="H121" t="n">
         <v>1</v>
       </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="J121" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4467,11 +4519,17 @@
         <v>-3555008.491167704</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4503,8 +4561,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4536,8 +4600,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4569,8 +4639,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4602,8 +4678,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4635,8 +4717,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4668,8 +4756,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4701,8 +4795,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4734,8 +4834,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4767,8 +4873,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4797,11 +4909,17 @@
         <v>-3613753.735607157</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4833,8 +4951,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4863,11 +4987,17 @@
         <v>-3626784.004707158</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4896,11 +5026,17 @@
         <v>-3626738.004707158</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4929,11 +5065,17 @@
         <v>-3661893.314107158</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4962,11 +5104,17 @@
         <v>-3654353.319537851</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4995,11 +5143,17 @@
         <v>-3654353.319537851</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5031,8 +5185,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5064,8 +5224,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5097,8 +5263,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5130,8 +5302,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5163,8 +5341,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5196,8 +5380,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5229,8 +5419,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5262,8 +5458,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5292,11 +5494,17 @@
         <v>-3746019.47551438</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5325,11 +5533,17 @@
         <v>-3745051.36711438</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5358,11 +5572,17 @@
         <v>-3745007.36711438</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5391,11 +5611,17 @@
         <v>-3645823.200202164</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5424,11 +5650,17 @@
         <v>-3706052.315502164</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5457,11 +5689,17 @@
         <v>-3791693.233902164</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5490,11 +5728,17 @@
         <v>-3791649.233902164</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5523,11 +5767,17 @@
         <v>-3819926.620902164</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5559,8 +5809,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5589,11 +5845,17 @@
         <v>-3902131.305639006</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5622,11 +5884,17 @@
         <v>-3902086.305639006</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5655,11 +5923,17 @@
         <v>-3902086.305639006</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5688,11 +5962,17 @@
         <v>-3899488.100139006</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5721,11 +6001,17 @@
         <v>-3900398.100139006</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5754,11 +6040,17 @@
         <v>-3874405.831939006</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5787,11 +6079,17 @@
         <v>-4286102.424439006</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5820,11 +6118,17 @@
         <v>-4284831.397554358</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5853,11 +6157,17 @@
         <v>-4284831.397554358</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5886,11 +6196,17 @@
         <v>-4284831.397554358</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5919,11 +6235,17 @@
         <v>-4286716.339754358</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5952,11 +6274,17 @@
         <v>-4286716.339754358</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5985,11 +6313,17 @@
         <v>-4306156.988754358</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6018,11 +6352,17 @@
         <v>-4306111.988754358</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6051,11 +6391,17 @@
         <v>-4305509.951980995</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6084,11 +6430,17 @@
         <v>-4384767.638280995</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6117,11 +6469,17 @@
         <v>-4384717.638280995</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6150,11 +6508,17 @@
         <v>-4389717.638280995</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6186,8 +6550,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6219,8 +6589,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6252,8 +6628,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6285,8 +6667,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6318,8 +6706,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6351,8 +6745,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6384,8 +6784,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6417,8 +6823,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6450,8 +6862,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6483,8 +6901,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6516,8 +6940,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6549,8 +6979,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6582,8 +7018,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6615,8 +7057,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6648,8 +7096,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6681,8 +7135,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6714,8 +7174,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6747,8 +7213,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6780,8 +7252,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6813,8 +7291,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6846,8 +7330,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6879,8 +7369,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6912,8 +7408,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6945,8 +7447,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6978,8 +7486,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7011,8 +7525,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7044,8 +7564,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7077,8 +7603,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7110,8 +7642,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7143,8 +7681,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7176,8 +7720,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7209,8 +7759,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7242,8 +7798,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7272,11 +7834,17 @@
         <v>-4597314.558272145</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7305,11 +7873,17 @@
         <v>-4597314.558272145</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7341,8 +7915,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7371,11 +7951,17 @@
         <v>-4597320.558272145</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7407,8 +7993,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7440,8 +8032,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7473,8 +8071,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7506,8 +8110,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7539,8 +8149,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7572,8 +8188,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7605,8 +8227,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7638,8 +8266,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7671,8 +8305,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7704,8 +8344,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7737,8 +8383,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7770,8 +8422,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7803,8 +8461,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7836,8 +8500,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7869,14 +8539,20 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
       <c r="M225" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest TRV.xlsx
+++ b/BackTest/2020-01-16 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-615074.5081094711</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-615029.5081094711</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-615029.5081094711</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-615029.5081094711</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-630674.847909471</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-630629.847909471</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-640642.580709471</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-640597.580709471</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-661450.565409471</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-774031.235509471</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-775677.2929094711</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-775605.311309471</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-775605.311309471</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1669236.064609471</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2095668.854309471</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2086616.662692096</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2087975.087592096</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2080544.975292096</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2080389.576192096</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2081153.812092096</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2224177.455692096</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2332064.649892095</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2325777.523292095</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2325777.523292095</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2330484.109592095</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2330403.494492095</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2330403.494492095</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2330403.494492095</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2203320.798892095</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2207816.902892095</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2325649.965992095</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2325602.965992095</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2325602.965992095</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2325555.965992095</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2325555.965992095</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2325555.965992095</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2327168.228592095</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2327359.228592095</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2328578.582592095</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2384300.881992095</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2497,10 +2497,14 @@
         <v>-2973025.775192095</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="J64" t="n">
+        <v>10.06</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
@@ -2530,11 +2534,19 @@
         <v>-2984478.458192096</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="J65" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2575,19 @@
         <v>-2974445.167992095</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="J66" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,10 +2616,14 @@
         <v>-2974445.167992095</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="J67" t="n">
+        <v>10.12</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
@@ -2629,11 +2653,19 @@
         <v>-2974445.167992095</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="J68" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2694,19 @@
         <v>-2971723.747392096</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="J69" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,10 +2735,14 @@
         <v>-2971723.747392096</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="J70" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
@@ -2728,11 +2772,19 @@
         <v>-2965871.095092095</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="J71" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2813,19 @@
         <v>-2965822.095092095</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="J72" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2857,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2896,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +2935,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +2974,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3013,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3052,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3091,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3130,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3169,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3208,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3247,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3286,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3325,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3364,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3403,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3442,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3481,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3520,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3559,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3598,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3637,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3676,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3715,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3754,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3793,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3832,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3871,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +3910,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3949,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3988,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4027,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4066,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4105,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4144,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4183,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,15 +4219,17 @@
         <v>-3279713.332567704</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>10.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+        <v>10.26</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,17 +4258,15 @@
         <v>-3253820.550967704</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>10.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>10.65</v>
+        <v>10.26</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -4027,17 +4297,15 @@
         <v>-3250828.068145775</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>10.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>10.65</v>
+        <v>10.26</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4068,17 +4336,15 @@
         <v>-3250828.068145775</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>10.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>10.65</v>
+        <v>10.26</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -4109,13 +4375,11 @@
         <v>-3250828.068145775</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>10.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>10.65</v>
+        <v>10.26</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4150,13 +4414,11 @@
         <v>-3414277.567145775</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>10.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>10.65</v>
+        <v>10.26</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4191,13 +4453,11 @@
         <v>-3414227.567145775</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>10.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>10.65</v>
+        <v>10.26</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4232,23 +4492,23 @@
         <v>-3423774.093267704</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>11.01</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>10.65</v>
+        <v>10.26</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>1.065175438596491</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1.124501992031873</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4273,19 +4533,11 @@
         <v>-3484456.437367704</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="J116" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4314,19 +4566,11 @@
         <v>-3548050.643367704</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="J117" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4355,19 +4599,11 @@
         <v>-3559123.792967704</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="J118" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4396,19 +4632,11 @@
         <v>-3559123.792967704</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="J119" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4437,19 +4665,11 @@
         <v>-3559077.792967704</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="J120" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4478,19 +4698,11 @@
         <v>-3560690.696167704</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="J121" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4522,14 +4734,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4561,14 +4767,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4600,14 +4800,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4639,14 +4833,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4678,14 +4866,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4717,14 +4899,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4756,14 +4932,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4795,14 +4965,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4834,14 +4998,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4873,14 +5031,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4912,14 +5064,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4951,14 +5097,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4990,14 +5130,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5029,14 +5163,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5068,14 +5196,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5107,14 +5229,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5146,14 +5262,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5185,14 +5295,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5224,14 +5328,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5263,14 +5361,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5302,14 +5394,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5341,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5380,14 +5460,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5419,14 +5493,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5458,14 +5526,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5497,14 +5559,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5536,14 +5592,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5575,14 +5625,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5614,14 +5658,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5653,14 +5691,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5692,14 +5724,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5731,14 +5757,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5770,14 +5790,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5809,14 +5823,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5848,14 +5856,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5887,14 +5889,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5926,14 +5922,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5965,14 +5955,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6004,14 +5988,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6043,14 +6021,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6082,14 +6054,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6121,14 +6087,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6160,14 +6120,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6199,14 +6153,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6238,14 +6186,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6277,14 +6219,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6316,14 +6252,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6355,14 +6285,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6394,14 +6318,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6433,14 +6351,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6472,14 +6384,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6511,14 +6417,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6550,14 +6450,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6589,14 +6483,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6628,14 +6516,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6667,14 +6549,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6706,14 +6582,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6745,14 +6615,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6784,14 +6648,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6823,14 +6681,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6862,14 +6714,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6901,14 +6747,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6940,14 +6780,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6979,14 +6813,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7018,14 +6846,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7057,14 +6879,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7096,14 +6912,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7135,14 +6945,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7174,14 +6978,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7213,14 +7011,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7252,14 +7044,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7291,14 +7077,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7330,14 +7110,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7369,14 +7143,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7408,14 +7176,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7447,14 +7209,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7486,14 +7242,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7525,14 +7275,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7564,14 +7308,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7603,14 +7341,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7642,14 +7374,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7681,14 +7407,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7720,14 +7440,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7759,14 +7473,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7798,14 +7506,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7837,14 +7539,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7876,14 +7572,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7915,14 +7605,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7954,14 +7638,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7993,14 +7671,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8032,14 +7704,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8071,14 +7737,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8110,14 +7770,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8149,14 +7803,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8188,14 +7836,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8227,14 +7869,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8266,14 +7902,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8305,14 +7935,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8344,14 +7968,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8383,14 +8001,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8422,14 +8034,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8461,14 +8067,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8500,14 +8100,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8539,20 +8133,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
       <c r="M225" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest TRV.xlsx
+++ b/BackTest/2020-01-16 BackTest TRV.xlsx
@@ -451,7 +451,7 @@
         <v>-615074.5081094711</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-615029.5081094711</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-615029.5081094711</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-615029.5081094711</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-630674.847909471</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-630629.847909471</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-640642.580709471</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-640597.580709471</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-661450.565409471</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-774031.235509471</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-775677.2929094711</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-775605.311309471</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -2497,14 +2497,10 @@
         <v>-2973025.775192095</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="J64" t="n">
-        <v>10.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
@@ -2534,19 +2530,11 @@
         <v>-2984478.458192096</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="J65" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2575,19 +2563,11 @@
         <v>-2974445.167992095</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="J66" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2813,11 +2793,9 @@
         <v>-2965822.095092095</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>10.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>10.26</v>
       </c>
@@ -3166,9 +3144,11 @@
         <v>-2922900.089856925</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10.6</v>
+      </c>
       <c r="J81" t="n">
         <v>10.26</v>
       </c>
@@ -3205,9 +3185,11 @@
         <v>-2969081.027256926</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10.89</v>
+      </c>
       <c r="J82" t="n">
         <v>10.26</v>
       </c>
@@ -3244,9 +3226,11 @@
         <v>-2950081.027256926</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>10.8</v>
+      </c>
       <c r="J83" t="n">
         <v>10.26</v>
       </c>
@@ -3283,9 +3267,11 @@
         <v>-2949952.227156925</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>10.88</v>
+      </c>
       <c r="J84" t="n">
         <v>10.26</v>
       </c>
@@ -3322,9 +3308,11 @@
         <v>-2949952.227156925</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>10.89</v>
+      </c>
       <c r="J85" t="n">
         <v>10.26</v>
       </c>
@@ -3361,9 +3349,11 @@
         <v>-2949647.598556926</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>10.89</v>
+      </c>
       <c r="J86" t="n">
         <v>10.26</v>
       </c>
@@ -3907,9 +3897,11 @@
         <v>-3171187.332967704</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>11.03</v>
+      </c>
       <c r="J100" t="n">
         <v>10.26</v>
       </c>
@@ -3946,9 +3938,11 @@
         <v>-3171141.332967704</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>11.03</v>
+      </c>
       <c r="J101" t="n">
         <v>10.26</v>
       </c>
@@ -4063,9 +4057,11 @@
         <v>-3177016.863667704</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>10.8</v>
+      </c>
       <c r="J104" t="n">
         <v>10.26</v>
       </c>
@@ -4102,9 +4098,11 @@
         <v>-3211000.885667704</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>10.8</v>
+      </c>
       <c r="J105" t="n">
         <v>10.26</v>
       </c>
@@ -4141,9 +4139,11 @@
         <v>-3212396.234467704</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>10.76</v>
+      </c>
       <c r="J106" t="n">
         <v>10.26</v>
       </c>
@@ -4180,9 +4180,11 @@
         <v>-3246282.598567704</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>10.75</v>
+      </c>
       <c r="J107" t="n">
         <v>10.26</v>
       </c>
@@ -4219,9 +4221,11 @@
         <v>-3279713.332567704</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J108" t="n">
         <v>10.26</v>
       </c>
@@ -4258,9 +4262,11 @@
         <v>-3253820.550967704</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>10.63</v>
+      </c>
       <c r="J109" t="n">
         <v>10.26</v>
       </c>
@@ -4297,9 +4303,11 @@
         <v>-3250828.068145775</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>10.86</v>
+      </c>
       <c r="J110" t="n">
         <v>10.26</v>
       </c>
@@ -4336,9 +4344,11 @@
         <v>-3250828.068145775</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>10.99</v>
+      </c>
       <c r="J111" t="n">
         <v>10.26</v>
       </c>
@@ -4375,9 +4385,11 @@
         <v>-3250828.068145775</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>10.99</v>
+      </c>
       <c r="J112" t="n">
         <v>10.26</v>
       </c>
@@ -4414,9 +4426,11 @@
         <v>-3414277.567145775</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>10.99</v>
+      </c>
       <c r="J113" t="n">
         <v>10.26</v>
       </c>
@@ -4453,9 +4467,11 @@
         <v>-3414227.567145775</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>10.98</v>
+      </c>
       <c r="J114" t="n">
         <v>10.26</v>
       </c>
@@ -4492,23 +4508,23 @@
         <v>-3423774.093267704</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>11.01</v>
+      </c>
       <c r="J115" t="n">
         <v>10.26</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.065175438596491</v>
-      </c>
-      <c r="M115" t="n">
-        <v>1.124501992031873</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4533,11 +4549,19 @@
         <v>-3484456.437367704</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="J116" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4566,11 +4590,19 @@
         <v>-3548050.643367704</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="J117" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4599,11 +4631,19 @@
         <v>-3559123.792967704</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="J118" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4632,11 +4672,19 @@
         <v>-3559123.792967704</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="J119" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4665,11 +4713,19 @@
         <v>-3559077.792967704</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="J120" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4698,11 +4754,19 @@
         <v>-3560690.696167704</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="J121" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4731,11 +4795,19 @@
         <v>-3555008.491167704</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="J122" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4764,11 +4836,19 @@
         <v>-3555008.491167704</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="J123" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4797,11 +4877,19 @@
         <v>-3547019.894624641</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="J124" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4830,11 +4918,19 @@
         <v>-3547019.894624641</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4866,8 +4962,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4899,8 +5001,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4932,8 +5040,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4965,8 +5079,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4998,8 +5118,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5031,8 +5157,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5064,8 +5196,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5094,11 +5232,19 @@
         <v>-3613707.735607157</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="J133" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5127,11 +5273,19 @@
         <v>-3626784.004707158</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="J134" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5160,11 +5314,19 @@
         <v>-3626738.004707158</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>11</v>
+      </c>
+      <c r="J135" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5196,8 +5358,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5229,8 +5397,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5262,8 +5436,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5295,8 +5475,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5328,8 +5514,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5358,11 +5550,19 @@
         <v>-3654353.319537851</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="J141" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5391,11 +5591,19 @@
         <v>-3638854.45951438</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="J142" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5424,11 +5632,19 @@
         <v>-3636478.82331438</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="J143" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5457,11 +5673,19 @@
         <v>-3636478.82331438</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="J144" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5490,11 +5714,19 @@
         <v>-3746064.47551438</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="J145" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5523,11 +5755,19 @@
         <v>-3746019.47551438</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>11</v>
+      </c>
+      <c r="J146" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5556,11 +5796,19 @@
         <v>-3746019.47551438</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J147" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5589,11 +5837,19 @@
         <v>-3745051.36711438</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J148" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5622,11 +5878,19 @@
         <v>-3745007.36711438</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="J149" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5658,8 +5922,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5688,15 +5958,23 @@
         <v>-3706052.315502164</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>1.108060428849903</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1.124501992031873</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5886,10 +6164,14 @@
         <v>-3902086.305639006</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
@@ -5919,11 +6201,19 @@
         <v>-3902086.305639006</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J158" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5952,11 +6242,19 @@
         <v>-3899488.100139006</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J159" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5985,10 +6283,14 @@
         <v>-3900398.100139006</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J160" t="n">
+        <v>11.4</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
@@ -6021,8 +6323,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6051,11 +6359,19 @@
         <v>-4286102.424439006</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="J162" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6087,8 +6403,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6117,11 +6439,19 @@
         <v>-4284831.397554358</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J164" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6150,11 +6480,19 @@
         <v>-4284831.397554358</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J165" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6183,11 +6521,19 @@
         <v>-4286716.339754358</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J166" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6219,8 +6565,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6249,11 +6601,19 @@
         <v>-4306156.988754358</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="J168" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6282,11 +6642,19 @@
         <v>-4306111.988754358</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="J169" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6315,11 +6683,19 @@
         <v>-4305509.951980995</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="J170" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6348,11 +6724,19 @@
         <v>-4384767.638280995</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J171" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6381,11 +6765,19 @@
         <v>-4384717.638280995</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6414,11 +6806,19 @@
         <v>-4389717.638280995</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J173" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6447,11 +6847,19 @@
         <v>-4404760.971180995</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6480,11 +6888,19 @@
         <v>-4404760.971180995</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="J175" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6513,11 +6929,19 @@
         <v>-4404715.971180995</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="J176" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6546,11 +6970,19 @@
         <v>-4677206.157580995</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J177" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6579,11 +7011,19 @@
         <v>-4677161.157580995</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>11</v>
+      </c>
+      <c r="J178" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6612,11 +7052,19 @@
         <v>-4677161.157580995</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="J179" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6645,11 +7093,19 @@
         <v>-4734715.839880995</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="J180" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6678,11 +7134,19 @@
         <v>-4734670.839880995</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="J181" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6711,11 +7175,19 @@
         <v>-4756723.839880995</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="J182" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6744,11 +7216,19 @@
         <v>-4756678.839880995</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="J183" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6777,11 +7257,19 @@
         <v>-4707150.062055842</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="J184" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6813,8 +7301,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6843,11 +7337,19 @@
         <v>-4710447.598755842</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="J186" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6879,8 +7381,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6912,8 +7420,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6945,8 +7459,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6975,11 +7495,19 @@
         <v>-4765223.183755842</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7008,11 +7536,19 @@
         <v>-4765223.183755842</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="J191" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7044,8 +7580,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7077,8 +7619,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7110,8 +7658,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7143,8 +7697,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7176,8 +7736,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7206,11 +7772,19 @@
         <v>-4828093.614872144</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="J197" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7239,11 +7813,19 @@
         <v>-4828048.614872144</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="J198" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7272,11 +7854,19 @@
         <v>-4727425.635472144</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J199" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7308,8 +7898,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7341,8 +7937,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7374,8 +7976,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7407,8 +8015,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7440,8 +8054,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7473,8 +8093,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7506,8 +8132,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7539,8 +8171,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7572,8 +8210,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7605,8 +8249,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7638,8 +8288,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7671,8 +8327,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7704,8 +8366,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7737,8 +8405,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7770,8 +8444,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7803,8 +8483,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7836,8 +8522,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7869,8 +8561,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7902,8 +8600,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7935,8 +8639,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7968,8 +8678,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8001,8 +8717,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8034,8 +8756,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8067,8 +8795,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8100,8 +8834,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8133,8 +8873,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-16 BackTest TRV.xlsx
+++ b/BackTest/2020-01-16 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M225"/>
+  <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>104453.7657</v>
       </c>
       <c r="G2" t="n">
-        <v>-615074.5081094711</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>45</v>
       </c>
       <c r="G3" t="n">
-        <v>-615029.5081094711</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>20832.3813</v>
       </c>
       <c r="G4" t="n">
-        <v>-615029.5081094711</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>4887.5401</v>
       </c>
       <c r="G5" t="n">
-        <v>-615029.5081094711</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>15645.3398</v>
       </c>
       <c r="G6" t="n">
-        <v>-630674.847909471</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>45</v>
       </c>
       <c r="G7" t="n">
-        <v>-630629.847909471</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>10012.7328</v>
       </c>
       <c r="G8" t="n">
-        <v>-640642.580709471</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>-640597.580709471</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>20852.9847</v>
       </c>
       <c r="G10" t="n">
-        <v>-661450.565409471</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>112580.6701</v>
       </c>
       <c r="G11" t="n">
-        <v>-774031.235509471</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1646.0574</v>
       </c>
       <c r="G12" t="n">
-        <v>-775677.2929094711</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>71.9816</v>
       </c>
       <c r="G13" t="n">
-        <v>-775605.311309471</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>28882.2782</v>
       </c>
       <c r="G14" t="n">
-        <v>-775605.311309471</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>47727.6716</v>
       </c>
       <c r="G15" t="n">
-        <v>-823332.982909471</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3119.9925</v>
       </c>
       <c r="G16" t="n">
-        <v>-823332.982909471</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>12646.7997</v>
       </c>
       <c r="G17" t="n">
-        <v>-823332.982909471</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>64294.7065</v>
       </c>
       <c r="G18" t="n">
-        <v>-823332.982909471</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>30927.6472</v>
       </c>
       <c r="G19" t="n">
-        <v>-823332.982909471</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>85499.44500000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-823332.982909471</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>845903.0817</v>
       </c>
       <c r="G21" t="n">
-        <v>-1669236.064609471</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>426432.7897</v>
       </c>
       <c r="G22" t="n">
-        <v>-2095668.854309471</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>9052.191617375565</v>
       </c>
       <c r="G23" t="n">
-        <v>-2086616.662692096</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1358.4249</v>
       </c>
       <c r="G24" t="n">
-        <v>-2087975.087592096</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>7430.1123</v>
       </c>
       <c r="G25" t="n">
-        <v>-2080544.975292096</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>155.3991</v>
       </c>
       <c r="G26" t="n">
-        <v>-2080389.576192096</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>764.2359</v>
       </c>
       <c r="G27" t="n">
-        <v>-2081153.812092096</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>143023.6436</v>
       </c>
       <c r="G28" t="n">
-        <v>-2224177.455692096</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>107887.1942</v>
       </c>
       <c r="G29" t="n">
-        <v>-2332064.649892095</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>6287.1266</v>
       </c>
       <c r="G30" t="n">
-        <v>-2325777.523292095</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>4100</v>
       </c>
       <c r="G31" t="n">
-        <v>-2325777.523292095</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>4706.5863</v>
       </c>
       <c r="G32" t="n">
-        <v>-2330484.109592095</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>80.6151</v>
       </c>
       <c r="G33" t="n">
-        <v>-2330403.494492095</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>46282.5805</v>
       </c>
       <c r="G34" t="n">
-        <v>-2330403.494492095</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>70520.5006</v>
       </c>
       <c r="G35" t="n">
-        <v>-2330403.494492095</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>127082.6956</v>
       </c>
       <c r="G36" t="n">
-        <v>-2203320.798892095</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>4496.104</v>
       </c>
       <c r="G37" t="n">
-        <v>-2207816.902892095</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>117833.0631</v>
       </c>
       <c r="G38" t="n">
-        <v>-2325649.965992095</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>47</v>
       </c>
       <c r="G39" t="n">
-        <v>-2325602.965992095</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>47.7684</v>
       </c>
       <c r="G40" t="n">
-        <v>-2325602.965992095</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>47</v>
       </c>
       <c r="G41" t="n">
-        <v>-2325555.965992095</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>9236.134599999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-2325555.965992095</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>4618.0844</v>
       </c>
       <c r="G43" t="n">
-        <v>-2325555.965992095</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1612.2626</v>
       </c>
       <c r="G44" t="n">
-        <v>-2327168.228592095</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>191</v>
       </c>
       <c r="G45" t="n">
-        <v>-2327359.228592095</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1219.354</v>
       </c>
       <c r="G46" t="n">
-        <v>-2328578.582592095</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>47</v>
       </c>
       <c r="G47" t="n">
-        <v>-2328531.582592095</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>55817.2994</v>
       </c>
       <c r="G48" t="n">
-        <v>-2384348.881992095</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>48</v>
       </c>
       <c r="G49" t="n">
-        <v>-2384300.881992095</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>53500</v>
       </c>
       <c r="G50" t="n">
-        <v>-2384300.881992095</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>138223.3086</v>
       </c>
       <c r="G51" t="n">
-        <v>-2522524.190592095</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>148601.4378</v>
       </c>
       <c r="G52" t="n">
-        <v>-2671125.628392095</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>2430</v>
       </c>
       <c r="G53" t="n">
-        <v>-2668695.628392095</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>10695.1135</v>
       </c>
       <c r="G54" t="n">
-        <v>-2679390.741892095</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>376636.1759</v>
       </c>
       <c r="G55" t="n">
-        <v>-3056026.917792095</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>11712.4513</v>
       </c>
       <c r="G56" t="n">
-        <v>-3044314.466492095</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>48</v>
       </c>
       <c r="G57" t="n">
-        <v>-3044266.466492095</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>342.8631</v>
       </c>
       <c r="G58" t="n">
-        <v>-3044266.466492095</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>48787.2143</v>
       </c>
       <c r="G59" t="n">
-        <v>-3093053.680792095</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>5810</v>
       </c>
       <c r="G60" t="n">
-        <v>-3087243.680792095</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>15954.8934</v>
       </c>
       <c r="G61" t="n">
-        <v>-3103198.574192095</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>82935.5632</v>
       </c>
       <c r="G62" t="n">
-        <v>-3186134.137392095</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>57304.2794</v>
       </c>
       <c r="G63" t="n">
-        <v>-3128829.857992095</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>155804.0828</v>
       </c>
       <c r="G64" t="n">
-        <v>-2973025.775192095</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>11452.683</v>
       </c>
       <c r="G65" t="n">
-        <v>-2984478.458192096</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>10033.2902</v>
       </c>
       <c r="G66" t="n">
-        <v>-2974445.167992095</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,22 +2393,15 @@
         <v>3063.3573</v>
       </c>
       <c r="G67" t="n">
-        <v>-2974445.167992095</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="J67" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2630,145 +2423,125 @@
         <v>89927.9375</v>
       </c>
       <c r="G68" t="n">
-        <v>-2974445.167992095</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="C69" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="E69" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2721.4206</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
         <v>10.12</v>
       </c>
-      <c r="J68" t="n">
+      <c r="I69" t="n">
         <v>10.12</v>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="C70" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="F70" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="I70" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
         <v>10.26</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C71" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="D71" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="E71" t="n">
         <v>10.26</v>
       </c>
-      <c r="D69" t="n">
+      <c r="F71" t="n">
+        <v>5852.6523</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
         <v>10.26</v>
       </c>
-      <c r="E69" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2721.4206</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-2971723.747392096</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
+      <c r="I71" t="n">
         <v>10.12</v>
       </c>
-      <c r="J69" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="K69" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="D70" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="F70" t="n">
-        <v>14000</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-2971723.747392096</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="J70" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="D71" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="F71" t="n">
-        <v>5852.6523</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-2965871.095092095</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="J71" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2790,24 +2563,19 @@
         <v>49</v>
       </c>
       <c r="G72" t="n">
-        <v>-2965822.095092095</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>10.34</v>
+      </c>
+      <c r="I72" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2829,24 +2597,21 @@
         <v>4870.271</v>
       </c>
       <c r="G73" t="n">
-        <v>-2960951.824092095</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K73" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2868,24 +2633,21 @@
         <v>4024.1667</v>
       </c>
       <c r="G74" t="n">
-        <v>-2956927.657392095</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K74" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="J74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2907,24 +2669,15 @@
         <v>1000</v>
       </c>
       <c r="G75" t="n">
-        <v>-2956927.657392095</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2946,24 +2699,15 @@
         <v>1395.3488</v>
       </c>
       <c r="G76" t="n">
-        <v>-2958323.006192095</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2985,24 +2729,15 @@
         <v>42915.0581</v>
       </c>
       <c r="G77" t="n">
-        <v>-2915407.948092095</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3024,24 +2759,15 @@
         <v>46</v>
       </c>
       <c r="G78" t="n">
-        <v>-2915361.948092095</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3063,24 +2789,15 @@
         <v>14200</v>
       </c>
       <c r="G79" t="n">
-        <v>-2929561.948092095</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3102,24 +2819,15 @@
         <v>1805.1065</v>
       </c>
       <c r="G80" t="n">
-        <v>-2931367.054592095</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3141,26 +2849,15 @@
         <v>8466.96473516988</v>
       </c>
       <c r="G81" t="n">
-        <v>-2922900.089856925</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="J81" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3182,26 +2879,15 @@
         <v>46180.9374</v>
       </c>
       <c r="G82" t="n">
-        <v>-2969081.027256926</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="J82" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3223,26 +2909,15 @@
         <v>19000</v>
       </c>
       <c r="G83" t="n">
-        <v>-2950081.027256926</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J83" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3264,26 +2939,15 @@
         <v>128.8001</v>
       </c>
       <c r="G84" t="n">
-        <v>-2949952.227156925</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="J84" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3305,26 +2969,15 @@
         <v>97431.45146483013</v>
       </c>
       <c r="G85" t="n">
-        <v>-2949952.227156925</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="J85" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3346,26 +2999,15 @@
         <v>304.6286</v>
       </c>
       <c r="G86" t="n">
-        <v>-2949647.598556926</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="J86" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3387,24 +3029,15 @@
         <v>61415.2745</v>
       </c>
       <c r="G87" t="n">
-        <v>-2949647.598556926</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3426,24 +3059,15 @@
         <v>46</v>
       </c>
       <c r="G88" t="n">
-        <v>-2949601.598556926</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3465,24 +3089,15 @@
         <v>182961.3217</v>
       </c>
       <c r="G89" t="n">
-        <v>-3132562.920256926</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3504,24 +3119,15 @@
         <v>1698.3488</v>
       </c>
       <c r="G90" t="n">
-        <v>-3130864.571456926</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3543,24 +3149,15 @@
         <v>2981.009230175438</v>
       </c>
       <c r="G91" t="n">
-        <v>-3127883.56222675</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3582,24 +3179,15 @@
         <v>1750.7715</v>
       </c>
       <c r="G92" t="n">
-        <v>-3129634.33372675</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3621,24 +3209,15 @@
         <v>40000</v>
       </c>
       <c r="G93" t="n">
-        <v>-3169634.33372675</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3660,24 +3239,15 @@
         <v>3688.3379</v>
       </c>
       <c r="G94" t="n">
-        <v>-3173322.67162675</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3699,24 +3269,15 @@
         <v>6995.295</v>
       </c>
       <c r="G95" t="n">
-        <v>-3173322.67162675</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3738,24 +3299,15 @@
         <v>913</v>
       </c>
       <c r="G96" t="n">
-        <v>-3173322.67162675</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3777,24 +3329,15 @@
         <v>136.4493</v>
       </c>
       <c r="G97" t="n">
-        <v>-3173186.22232675</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3816,24 +3359,15 @@
         <v>3668.957959045905</v>
       </c>
       <c r="G98" t="n">
-        <v>-3169517.264367704</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3855,24 +3389,15 @@
         <v>1670.0686</v>
       </c>
       <c r="G99" t="n">
-        <v>-3171187.332967704</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3894,26 +3419,15 @@
         <v>519.926</v>
       </c>
       <c r="G100" t="n">
-        <v>-3171187.332967704</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="J100" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3935,26 +3449,15 @@
         <v>46</v>
       </c>
       <c r="G101" t="n">
-        <v>-3171141.332967704</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="J101" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3976,24 +3479,15 @@
         <v>23484.3835</v>
       </c>
       <c r="G102" t="n">
-        <v>-3171141.332967704</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4015,24 +3509,15 @@
         <v>5875.5307</v>
       </c>
       <c r="G103" t="n">
-        <v>-3177016.863667704</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4054,26 +3539,15 @@
         <v>1487.4661</v>
       </c>
       <c r="G104" t="n">
-        <v>-3177016.863667704</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J104" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4095,26 +3569,15 @@
         <v>33984.022</v>
       </c>
       <c r="G105" t="n">
-        <v>-3211000.885667704</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J105" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4136,26 +3599,15 @@
         <v>1395.3488</v>
       </c>
       <c r="G106" t="n">
-        <v>-3212396.234467704</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="J106" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4177,26 +3629,15 @@
         <v>33886.3641</v>
       </c>
       <c r="G107" t="n">
-        <v>-3246282.598567704</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="J107" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4218,26 +3659,15 @@
         <v>33430.734</v>
       </c>
       <c r="G108" t="n">
-        <v>-3279713.332567704</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="J108" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4259,26 +3689,15 @@
         <v>25892.7816</v>
       </c>
       <c r="G109" t="n">
-        <v>-3253820.550967704</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="J109" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4300,26 +3719,15 @@
         <v>2992.482821929027</v>
       </c>
       <c r="G110" t="n">
-        <v>-3250828.068145775</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="J110" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4341,26 +3749,15 @@
         <v>37273.96017807097</v>
       </c>
       <c r="G111" t="n">
-        <v>-3250828.068145775</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="J111" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4382,26 +3779,15 @@
         <v>12716.0714</v>
       </c>
       <c r="G112" t="n">
-        <v>-3250828.068145775</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="J112" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4423,26 +3809,15 @@
         <v>163449.499</v>
       </c>
       <c r="G113" t="n">
-        <v>-3414277.567145775</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="J113" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4464,26 +3839,15 @@
         <v>50</v>
       </c>
       <c r="G114" t="n">
-        <v>-3414227.567145775</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="J114" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4505,26 +3869,15 @@
         <v>9546.526121929026</v>
       </c>
       <c r="G115" t="n">
-        <v>-3423774.093267704</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="J115" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4546,26 +3899,15 @@
         <v>60682.3441</v>
       </c>
       <c r="G116" t="n">
-        <v>-3484456.437367704</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="J116" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4587,26 +3929,15 @@
         <v>63594.206</v>
       </c>
       <c r="G117" t="n">
-        <v>-3548050.643367704</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="J117" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4628,26 +3959,15 @@
         <v>11073.1496</v>
       </c>
       <c r="G118" t="n">
-        <v>-3559123.792967704</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="J118" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4669,26 +3989,15 @@
         <v>2097.6926</v>
       </c>
       <c r="G119" t="n">
-        <v>-3559123.792967704</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="J119" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4710,26 +4019,15 @@
         <v>46</v>
       </c>
       <c r="G120" t="n">
-        <v>-3559077.792967704</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="J120" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4751,26 +4049,15 @@
         <v>1612.9032</v>
       </c>
       <c r="G121" t="n">
-        <v>-3560690.696167704</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="J121" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4792,26 +4079,15 @@
         <v>5682.205</v>
       </c>
       <c r="G122" t="n">
-        <v>-3555008.491167704</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="J122" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4833,26 +4109,15 @@
         <v>250</v>
       </c>
       <c r="G123" t="n">
-        <v>-3555008.491167704</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="J123" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4874,26 +4139,15 @@
         <v>7988.596543063063</v>
       </c>
       <c r="G124" t="n">
-        <v>-3547019.894624641</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="J124" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4915,26 +4169,15 @@
         <v>11340.64575693694</v>
       </c>
       <c r="G125" t="n">
-        <v>-3547019.894624641</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4956,24 +4199,15 @@
         <v>52550</v>
       </c>
       <c r="G126" t="n">
-        <v>-3547019.894624641</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4995,24 +4229,15 @@
         <v>46</v>
       </c>
       <c r="G127" t="n">
-        <v>-3546973.894624641</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5034,24 +4259,15 @@
         <v>46211.4787</v>
       </c>
       <c r="G128" t="n">
-        <v>-3593185.373324641</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5073,24 +4289,15 @@
         <v>15830.83211748287</v>
       </c>
       <c r="G129" t="n">
-        <v>-3577354.541207158</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5112,24 +4319,15 @@
         <v>17942.5115</v>
       </c>
       <c r="G130" t="n">
-        <v>-3577354.541207158</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5151,24 +4349,15 @@
         <v>13007.0507</v>
       </c>
       <c r="G131" t="n">
-        <v>-3577354.541207158</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5190,24 +4379,15 @@
         <v>36399.1944</v>
       </c>
       <c r="G132" t="n">
-        <v>-3613753.735607157</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5229,26 +4409,15 @@
         <v>46</v>
       </c>
       <c r="G133" t="n">
-        <v>-3613707.735607157</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="J133" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5270,26 +4439,15 @@
         <v>13076.2691</v>
       </c>
       <c r="G134" t="n">
-        <v>-3626784.004707158</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="J134" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5311,26 +4469,15 @@
         <v>46</v>
       </c>
       <c r="G135" t="n">
-        <v>-3626738.004707158</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>11</v>
-      </c>
-      <c r="J135" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5352,24 +4499,15 @@
         <v>35155.3094</v>
       </c>
       <c r="G136" t="n">
-        <v>-3661893.314107158</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5391,24 +4529,15 @@
         <v>7539.99456930693</v>
       </c>
       <c r="G137" t="n">
-        <v>-3654353.319537851</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5430,24 +4559,15 @@
         <v>245.9485</v>
       </c>
       <c r="G138" t="n">
-        <v>-3654353.319537851</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5469,24 +4589,15 @@
         <v>241.5697</v>
       </c>
       <c r="G139" t="n">
-        <v>-3654353.319537851</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5508,24 +4619,15 @@
         <v>43378.2121</v>
       </c>
       <c r="G140" t="n">
-        <v>-3654353.319537851</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5547,26 +4649,15 @@
         <v>3.0693069306931e-05</v>
       </c>
       <c r="G141" t="n">
-        <v>-3654353.319537851</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="J141" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5588,26 +4679,15 @@
         <v>15498.86002347122</v>
       </c>
       <c r="G142" t="n">
-        <v>-3638854.45951438</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="J142" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5629,26 +4709,15 @@
         <v>2375.6362</v>
       </c>
       <c r="G143" t="n">
-        <v>-3636478.82331438</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="J143" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5670,26 +4739,15 @@
         <v>13801.0094</v>
       </c>
       <c r="G144" t="n">
-        <v>-3636478.82331438</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="J144" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5711,26 +4769,15 @@
         <v>109585.6522</v>
       </c>
       <c r="G145" t="n">
-        <v>-3746064.47551438</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="J145" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5752,26 +4799,15 @@
         <v>45</v>
       </c>
       <c r="G146" t="n">
-        <v>-3746019.47551438</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>11</v>
-      </c>
-      <c r="J146" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5793,26 +4829,15 @@
         <v>34955.3773</v>
       </c>
       <c r="G147" t="n">
-        <v>-3746019.47551438</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J147" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5834,26 +4859,15 @@
         <v>968.1084</v>
       </c>
       <c r="G148" t="n">
-        <v>-3745051.36711438</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J148" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5875,26 +4889,15 @@
         <v>44</v>
       </c>
       <c r="G149" t="n">
-        <v>-3745007.36711438</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="J149" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5916,24 +4919,15 @@
         <v>99184.1669122164</v>
       </c>
       <c r="G150" t="n">
-        <v>-3645823.200202164</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5955,26 +4949,15 @@
         <v>60229.1153</v>
       </c>
       <c r="G151" t="n">
-        <v>-3706052.315502164</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1.108060428849903</v>
-      </c>
-      <c r="M151" t="n">
-        <v>1.124501992031873</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5996,18 +4979,15 @@
         <v>85640.9184</v>
       </c>
       <c r="G152" t="n">
-        <v>-3791693.233902164</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6029,18 +5009,15 @@
         <v>44</v>
       </c>
       <c r="G153" t="n">
-        <v>-3791649.233902164</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6062,18 +5039,15 @@
         <v>28277.387</v>
       </c>
       <c r="G154" t="n">
-        <v>-3819926.620902164</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6095,18 +5069,15 @@
         <v>5985.967063157895</v>
       </c>
       <c r="G155" t="n">
-        <v>-3813940.653839006</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6128,18 +5099,15 @@
         <v>88190.65180000001</v>
       </c>
       <c r="G156" t="n">
-        <v>-3902131.305639006</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6161,22 +5129,15 @@
         <v>45</v>
       </c>
       <c r="G157" t="n">
-        <v>-3902086.305639006</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="J157" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6198,26 +5159,15 @@
         <v>2311.9488</v>
       </c>
       <c r="G158" t="n">
-        <v>-3902086.305639006</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J158" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6239,26 +5189,15 @@
         <v>2598.2055</v>
       </c>
       <c r="G159" t="n">
-        <v>-3899488.100139006</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J159" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6280,22 +5219,15 @@
         <v>910</v>
       </c>
       <c r="G160" t="n">
-        <v>-3900398.100139006</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J160" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6317,24 +5249,15 @@
         <v>25992.2682</v>
       </c>
       <c r="G161" t="n">
-        <v>-3874405.831939006</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6356,26 +5279,15 @@
         <v>411696.5925</v>
       </c>
       <c r="G162" t="n">
-        <v>-4286102.424439006</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="J162" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6397,24 +5309,15 @@
         <v>1271.026884649123</v>
       </c>
       <c r="G163" t="n">
-        <v>-4284831.397554358</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6436,26 +5339,15 @@
         <v>13529.13341535088</v>
       </c>
       <c r="G164" t="n">
-        <v>-4284831.397554358</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J164" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6477,26 +5369,15 @@
         <v>86470.86658464912</v>
       </c>
       <c r="G165" t="n">
-        <v>-4284831.397554358</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J165" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6518,26 +5399,15 @@
         <v>1884.9422</v>
       </c>
       <c r="G166" t="n">
-        <v>-4286716.339754358</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J166" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6559,24 +5429,15 @@
         <v>98645</v>
       </c>
       <c r="G167" t="n">
-        <v>-4286716.339754358</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6598,26 +5459,15 @@
         <v>19440.649</v>
       </c>
       <c r="G168" t="n">
-        <v>-4306156.988754358</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="J168" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6639,26 +5489,15 @@
         <v>45</v>
       </c>
       <c r="G169" t="n">
-        <v>-4306111.988754358</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="J169" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6680,26 +5519,15 @@
         <v>602.0367733628318</v>
       </c>
       <c r="G170" t="n">
-        <v>-4305509.951980995</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="J170" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6721,26 +5549,15 @@
         <v>79257.6863</v>
       </c>
       <c r="G171" t="n">
-        <v>-4384767.638280995</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J171" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6762,26 +5579,15 @@
         <v>50</v>
       </c>
       <c r="G172" t="n">
-        <v>-4384717.638280995</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="J172" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6803,26 +5609,15 @@
         <v>5000</v>
       </c>
       <c r="G173" t="n">
-        <v>-4389717.638280995</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J173" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6844,26 +5639,15 @@
         <v>15043.3329</v>
       </c>
       <c r="G174" t="n">
-        <v>-4404760.971180995</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="J174" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6885,26 +5669,15 @@
         <v>51834.007</v>
       </c>
       <c r="G175" t="n">
-        <v>-4404760.971180995</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="J175" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6926,26 +5699,15 @@
         <v>45</v>
       </c>
       <c r="G176" t="n">
-        <v>-4404715.971180995</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="J176" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6967,26 +5729,15 @@
         <v>272490.1864</v>
       </c>
       <c r="G177" t="n">
-        <v>-4677206.157580995</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J177" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7008,26 +5759,15 @@
         <v>45</v>
       </c>
       <c r="G178" t="n">
-        <v>-4677161.157580995</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>11</v>
-      </c>
-      <c r="J178" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7049,26 +5789,15 @@
         <v>67755.6225</v>
       </c>
       <c r="G179" t="n">
-        <v>-4677161.157580995</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="J179" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7090,26 +5819,15 @@
         <v>57554.6823</v>
       </c>
       <c r="G180" t="n">
-        <v>-4734715.839880995</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="J180" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7131,26 +5849,15 @@
         <v>45</v>
       </c>
       <c r="G181" t="n">
-        <v>-4734670.839880995</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="J181" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7172,26 +5879,15 @@
         <v>22053</v>
       </c>
       <c r="G182" t="n">
-        <v>-4756723.839880995</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="J182" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7213,26 +5909,15 @@
         <v>45</v>
       </c>
       <c r="G183" t="n">
-        <v>-4756678.839880995</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="J183" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7254,26 +5939,15 @@
         <v>49528.77782515337</v>
       </c>
       <c r="G184" t="n">
-        <v>-4707150.062055842</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="J184" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7295,24 +5969,15 @@
         <v>3341.5367</v>
       </c>
       <c r="G185" t="n">
-        <v>-4710491.598755842</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7334,26 +5999,15 @@
         <v>44</v>
       </c>
       <c r="G186" t="n">
-        <v>-4710447.598755842</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="J186" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7375,24 +6029,15 @@
         <v>50705.8971</v>
       </c>
       <c r="G187" t="n">
-        <v>-4761153.495855842</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7414,24 +6059,15 @@
         <v>45</v>
       </c>
       <c r="G188" t="n">
-        <v>-4761108.495855842</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7453,24 +6089,15 @@
         <v>4159.6879</v>
       </c>
       <c r="G189" t="n">
-        <v>-4765268.183755842</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7492,26 +6119,15 @@
         <v>45</v>
       </c>
       <c r="G190" t="n">
-        <v>-4765223.183755842</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="J190" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7533,26 +6149,15 @@
         <v>2000</v>
       </c>
       <c r="G191" t="n">
-        <v>-4765223.183755842</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="J191" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7574,24 +6179,15 @@
         <v>11433.56888369851</v>
       </c>
       <c r="G192" t="n">
-        <v>-4753789.614872144</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7613,24 +6209,15 @@
         <v>10000</v>
       </c>
       <c r="G193" t="n">
-        <v>-4753789.614872144</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7652,24 +6239,15 @@
         <v>30000</v>
       </c>
       <c r="G194" t="n">
-        <v>-4753789.614872144</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7691,24 +6269,15 @@
         <v>50000</v>
       </c>
       <c r="G195" t="n">
-        <v>-4803789.614872144</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7730,24 +6299,15 @@
         <v>24304</v>
       </c>
       <c r="G196" t="n">
-        <v>-4828093.614872144</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7769,26 +6329,15 @@
         <v>813.6612</v>
       </c>
       <c r="G197" t="n">
-        <v>-4828093.614872144</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="J197" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7810,26 +6359,15 @@
         <v>45</v>
       </c>
       <c r="G198" t="n">
-        <v>-4828048.614872144</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="J198" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7851,26 +6389,15 @@
         <v>100622.9794</v>
       </c>
       <c r="G199" t="n">
-        <v>-4727425.635472144</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J199" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7892,24 +6419,15 @@
         <v>48408.1011</v>
       </c>
       <c r="G200" t="n">
-        <v>-4679017.534372144</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7931,24 +6449,15 @@
         <v>187466.1749</v>
       </c>
       <c r="G201" t="n">
-        <v>-4491551.359472144</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7970,24 +6479,15 @@
         <v>100057</v>
       </c>
       <c r="G202" t="n">
-        <v>-4591608.359472144</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8009,24 +6509,15 @@
         <v>8998.993</v>
       </c>
       <c r="G203" t="n">
-        <v>-4582609.366472145</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8048,24 +6539,15 @@
         <v>4903.406</v>
       </c>
       <c r="G204" t="n">
-        <v>-4587512.772472145</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8087,24 +6569,15 @@
         <v>43</v>
       </c>
       <c r="G205" t="n">
-        <v>-4587469.772472145</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8126,24 +6599,15 @@
         <v>4800.0057</v>
       </c>
       <c r="G206" t="n">
-        <v>-4592269.778172145</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8165,24 +6629,15 @@
         <v>5044.7801</v>
       </c>
       <c r="G207" t="n">
-        <v>-4597314.558272145</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8204,24 +6659,15 @@
         <v>4132.5253</v>
       </c>
       <c r="G208" t="n">
-        <v>-4597314.558272145</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8243,24 +6689,15 @@
         <v>44</v>
       </c>
       <c r="G209" t="n">
-        <v>-4597270.558272145</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8282,24 +6719,15 @@
         <v>50</v>
       </c>
       <c r="G210" t="n">
-        <v>-4597320.558272145</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8321,24 +6749,15 @@
         <v>50</v>
       </c>
       <c r="G211" t="n">
-        <v>-4597370.558272145</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8360,24 +6779,15 @@
         <v>4413.7444</v>
       </c>
       <c r="G212" t="n">
-        <v>-4597370.558272145</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8399,24 +6809,15 @@
         <v>9395.6546</v>
       </c>
       <c r="G213" t="n">
-        <v>-4597370.558272145</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8438,24 +6839,15 @@
         <v>45</v>
       </c>
       <c r="G214" t="n">
-        <v>-4597325.558272145</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8477,24 +6869,15 @@
         <v>26896</v>
       </c>
       <c r="G215" t="n">
-        <v>-4624221.558272145</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8516,24 +6899,15 @@
         <v>89451.44620000001</v>
       </c>
       <c r="G216" t="n">
-        <v>-4534770.112072145</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8555,24 +6929,15 @@
         <v>96532.1586</v>
       </c>
       <c r="G217" t="n">
-        <v>-4631302.270672144</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8594,24 +6959,15 @@
         <v>16446.0373</v>
       </c>
       <c r="G218" t="n">
-        <v>-4647748.307972144</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8633,24 +6989,15 @@
         <v>101256.1889</v>
       </c>
       <c r="G219" t="n">
-        <v>-4749004.496872145</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8672,24 +7019,15 @@
         <v>3238.9695</v>
       </c>
       <c r="G220" t="n">
-        <v>-4745765.527372145</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8711,24 +7049,15 @@
         <v>39514.7735</v>
       </c>
       <c r="G221" t="n">
-        <v>-4706250.753872145</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8750,24 +7079,15 @@
         <v>100</v>
       </c>
       <c r="G222" t="n">
-        <v>-4706250.753872145</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8789,24 +7109,15 @@
         <v>100000</v>
       </c>
       <c r="G223" t="n">
-        <v>-4706250.753872145</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8828,24 +7139,15 @@
         <v>18887.5964</v>
       </c>
       <c r="G224" t="n">
-        <v>-4706250.753872145</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8867,24 +7169,15 @@
         <v>58799.8431</v>
       </c>
       <c r="G225" t="n">
-        <v>-4647450.910772145</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
